--- a/rent_info_beijingzufang.xlsx
+++ b/rent_info_beijingzufang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="706">
   <si>
     <t>标题</t>
   </si>
@@ -23,6 +23,72 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>求租通州北苑地铁大1居/开间 预算3-4K</t>
+  </si>
+  <si>
+    <t>04-09 21:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286483382/" </t>
+  </si>
+  <si>
+    <t>霍营国风美唐三期次卧转租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286483343/" </t>
+  </si>
+  <si>
+    <t>6号线地铁口北京物资学院教师家属楼出租</t>
+  </si>
+  <si>
+    <t>04-09 21:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286483226/" </t>
+  </si>
+  <si>
+    <t>【房东直租】8号线 10号线 安贞桥西 安华桥 精装次卧 限1女</t>
+  </si>
+  <si>
+    <t>04-09 21:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286483186/" </t>
+  </si>
+  <si>
+    <t>（求室友/求房）回龙观地铁站 （中介勿扰）</t>
+  </si>
+  <si>
+    <t>04-09 21:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286483129/" </t>
+  </si>
+  <si>
+    <t>地铁5号线北苑路北 立水桥南 龙湖产业园 主卧独卫 次卧均有 随时入住真实房源实拍</t>
+  </si>
+  <si>
+    <t>04-09 21:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286482905/" </t>
+  </si>
+  <si>
+    <t>北三环 | 安贞 | 安贞里 | 转租</t>
+  </si>
+  <si>
+    <t>04-09 21:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286482864/" </t>
+  </si>
+  <si>
+    <t>Duan租1-2月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286482848/" </t>
   </si>
   <si>
     <t>六号线物资学院出租一间主卧 三家合住 朝南户型 步行地铁站五六分钟 室友一屋一个人 高层电梯房 周边配套设施齐全</t>
@@ -2410,7 +2476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2448,18 +2514,18 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2481,40 +2547,40 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
@@ -2569,29 +2635,29 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>43</v>
@@ -2624,62 +2690,62 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>65</v>
@@ -2800,95 +2866,95 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
         <v>117</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>118</v>
@@ -2943,29 +3009,29 @@
         <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>138</v>
@@ -2976,40 +3042,40 @@
         <v>139</v>
       </c>
       <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
         <v>142</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" t="s">
         <v>145</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
         <v>148</v>
-      </c>
-      <c r="B54" t="s">
-        <v>146</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>149</v>
@@ -3042,95 +3108,95 @@
         <v>155</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
         <v>168</v>
       </c>
-      <c r="B62" t="s">
-        <v>166</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" t="s">
         <v>173</v>
       </c>
-      <c r="B64" t="s">
-        <v>174</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>178</v>
@@ -3141,29 +3207,29 @@
         <v>179</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>186</v>
@@ -3185,29 +3251,29 @@
         <v>190</v>
       </c>
       <c r="B70" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" t="s">
         <v>193</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" t="s">
         <v>196</v>
-      </c>
-      <c r="B72" t="s">
-        <v>194</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>197</v>
@@ -3229,51 +3295,51 @@
         <v>201</v>
       </c>
       <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
         <v>204</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
         <v>207</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" t="s">
         <v>210</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" t="s">
         <v>213</v>
-      </c>
-      <c r="B78" t="s">
-        <v>211</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>214</v>
@@ -3284,18 +3350,18 @@
         <v>215</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>219</v>
@@ -3306,62 +3372,62 @@
         <v>220</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B85" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>236</v>
@@ -3372,106 +3438,106 @@
         <v>237</v>
       </c>
       <c r="B87" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" t="s">
         <v>240</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B89" t="s">
-        <v>241</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" t="s">
         <v>245</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" t="s">
         <v>248</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>250</v>
+      </c>
+      <c r="B92" t="s">
         <v>251</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" t="s">
         <v>254</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>256</v>
+      </c>
+      <c r="B94" t="s">
         <v>257</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95" t="s">
         <v>260</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" t="s">
         <v>263</v>
-      </c>
-      <c r="B96" t="s">
-        <v>261</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>264</v>
@@ -3482,18 +3548,18 @@
         <v>265</v>
       </c>
       <c r="B97" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" t="s">
         <v>268</v>
-      </c>
-      <c r="B98" t="s">
-        <v>266</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>269</v>
@@ -3504,84 +3570,84 @@
         <v>270</v>
       </c>
       <c r="B99" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B100" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>285</v>
+      </c>
+      <c r="B104" t="s">
         <v>283</v>
       </c>
-      <c r="B104" t="s">
-        <v>284</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B106" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>291</v>
@@ -3592,40 +3658,40 @@
         <v>292</v>
       </c>
       <c r="B107" t="s">
+        <v>288</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>294</v>
+      </c>
+      <c r="B108" t="s">
         <v>295</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" t="s">
         <v>298</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>300</v>
+      </c>
+      <c r="B110" t="s">
         <v>301</v>
-      </c>
-      <c r="B110" t="s">
-        <v>299</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>302</v>
@@ -3636,7 +3702,7 @@
         <v>303</v>
       </c>
       <c r="B111" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>304</v>
@@ -3647,84 +3713,84 @@
         <v>305</v>
       </c>
       <c r="B112" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B114" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B115" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B116" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B117" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>323</v>
+      </c>
+      <c r="B118" t="s">
         <v>321</v>
       </c>
-      <c r="B118" t="s">
-        <v>322</v>
-      </c>
       <c r="C118" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B119" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>326</v>
@@ -3735,18 +3801,18 @@
         <v>327</v>
       </c>
       <c r="B120" t="s">
+        <v>321</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>329</v>
+      </c>
+      <c r="B121" t="s">
         <v>330</v>
-      </c>
-      <c r="B121" t="s">
-        <v>328</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>331</v>
@@ -3757,106 +3823,106 @@
         <v>332</v>
       </c>
       <c r="B122" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B123" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B124" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B125" t="s">
         <v>339</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B127" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B128" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>352</v>
+      </c>
+      <c r="B129" t="s">
         <v>350</v>
       </c>
-      <c r="B129" t="s">
-        <v>348</v>
-      </c>
       <c r="C129" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B130" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B131" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>357</v>
@@ -3867,7 +3933,7 @@
         <v>358</v>
       </c>
       <c r="B132" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>359</v>
@@ -3878,139 +3944,139 @@
         <v>360</v>
       </c>
       <c r="B133" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B134" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B135" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B136" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
+        <v>372</v>
+      </c>
+      <c r="B137" t="s">
         <v>370</v>
       </c>
-      <c r="B137" t="s">
-        <v>366</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B138" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B139" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
+        <v>380</v>
+      </c>
+      <c r="B140" t="s">
         <v>378</v>
       </c>
-      <c r="B140" t="s">
-        <v>379</v>
-      </c>
       <c r="C140" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B141" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B142" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>220</v>
+        <v>387</v>
       </c>
       <c r="B143" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
+        <v>390</v>
+      </c>
+      <c r="B144" t="s">
         <v>388</v>
       </c>
-      <c r="B144" t="s">
-        <v>389</v>
-      </c>
       <c r="C144" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B145" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>393</v>
@@ -4032,29 +4098,29 @@
         <v>397</v>
       </c>
       <c r="B147" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B148" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B149" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>404</v>
@@ -4065,15 +4131,15 @@
         <v>405</v>
       </c>
       <c r="B150" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>407</v>
+        <v>242</v>
       </c>
       <c r="B151" t="s">
         <v>408</v>
@@ -4109,18 +4175,18 @@
         <v>416</v>
       </c>
       <c r="B154" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B155" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>420</v>
@@ -4142,18 +4208,18 @@
         <v>424</v>
       </c>
       <c r="B157" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B158" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>428</v>
@@ -4208,29 +4274,29 @@
         <v>440</v>
       </c>
       <c r="B163" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B164" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B165" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>447</v>
@@ -4285,205 +4351,205 @@
         <v>460</v>
       </c>
       <c r="B170" t="s">
+        <v>458</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
+        <v>462</v>
+      </c>
+      <c r="B171" t="s">
+        <v>458</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B171" t="s">
-        <v>464</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>464</v>
+      </c>
+      <c r="B172" t="s">
+        <v>465</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="B172" t="s">
-        <v>467</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>467</v>
+      </c>
+      <c r="B173" t="s">
+        <v>468</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B173" t="s">
-        <v>470</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>470</v>
+      </c>
+      <c r="B174" t="s">
+        <v>471</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B174" t="s">
-        <v>473</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>473</v>
+      </c>
+      <c r="B175" t="s">
+        <v>474</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B175" t="s">
-        <v>476</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
+        <v>476</v>
+      </c>
+      <c r="B176" t="s">
+        <v>477</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B176" t="s">
-        <v>479</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>479</v>
+      </c>
+      <c r="B177" t="s">
+        <v>480</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="B177" t="s">
-        <v>482</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>482</v>
+      </c>
+      <c r="B178" t="s">
+        <v>483</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B178" t="s">
-        <v>485</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>485</v>
+      </c>
+      <c r="B179" t="s">
+        <v>486</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B179" t="s">
-        <v>488</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>488</v>
+      </c>
+      <c r="B180" t="s">
+        <v>489</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="B180" t="s">
-        <v>491</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>491</v>
+      </c>
+      <c r="B181" t="s">
+        <v>492</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="B181" t="s">
-        <v>494</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>494</v>
+      </c>
+      <c r="B182" t="s">
+        <v>495</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B182" t="s">
-        <v>497</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
+        <v>497</v>
+      </c>
+      <c r="B183" t="s">
+        <v>498</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B183" t="s">
-        <v>497</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>500</v>
+      </c>
+      <c r="B184" t="s">
         <v>501</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>503</v>
+      </c>
+      <c r="B185" t="s">
         <v>504</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
+        <v>506</v>
+      </c>
+      <c r="B186" t="s">
         <v>507</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>509</v>
+      </c>
+      <c r="B187" t="s">
         <v>510</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
+        <v>512</v>
+      </c>
+      <c r="B188" t="s">
         <v>513</v>
-      </c>
-      <c r="B188" t="s">
-        <v>511</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>514</v>
@@ -4516,29 +4582,29 @@
         <v>521</v>
       </c>
       <c r="B191" t="s">
+        <v>519</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
+        <v>523</v>
+      </c>
+      <c r="B192" t="s">
         <v>524</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
+        <v>526</v>
+      </c>
+      <c r="B193" t="s">
         <v>527</v>
-      </c>
-      <c r="B193" t="s">
-        <v>525</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>528</v>
@@ -4560,18 +4626,18 @@
         <v>532</v>
       </c>
       <c r="B195" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B196" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>536</v>
@@ -4615,18 +4681,18 @@
         <v>546</v>
       </c>
       <c r="B200" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B201" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>550</v>
@@ -4648,15 +4714,15 @@
         <v>554</v>
       </c>
       <c r="B203" t="s">
+        <v>552</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>248</v>
+        <v>556</v>
       </c>
       <c r="B204" t="s">
         <v>557</v>
@@ -4703,29 +4769,29 @@
         <v>568</v>
       </c>
       <c r="B208" t="s">
+        <v>566</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>570</v>
+      </c>
+      <c r="B209" t="s">
         <v>571</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
+        <v>573</v>
+      </c>
+      <c r="B210" t="s">
         <v>574</v>
-      </c>
-      <c r="B210" t="s">
-        <v>572</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>575</v>
@@ -4736,15 +4802,15 @@
         <v>576</v>
       </c>
       <c r="B211" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>578</v>
+        <v>270</v>
       </c>
       <c r="B212" t="s">
         <v>579</v>
@@ -4758,73 +4824,73 @@
         <v>581</v>
       </c>
       <c r="B213" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B214" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B215" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B216" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B217" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
+        <v>596</v>
+      </c>
+      <c r="B218" t="s">
         <v>594</v>
       </c>
-      <c r="B218" t="s">
-        <v>595</v>
-      </c>
       <c r="C218" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B219" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>599</v>
@@ -4857,37 +4923,37 @@
         <v>605</v>
       </c>
       <c r="B222" t="s">
+        <v>601</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>607</v>
+      </c>
+      <c r="B223" t="s">
         <v>608</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>610</v>
+      </c>
+      <c r="B224" t="s">
         <v>611</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>260</v>
+        <v>613</v>
       </c>
       <c r="B225" t="s">
         <v>614</v>
@@ -4912,29 +4978,29 @@
         <v>619</v>
       </c>
       <c r="B227" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B228" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B229" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>626</v>
@@ -4945,37 +5011,37 @@
         <v>627</v>
       </c>
       <c r="B230" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B231" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B232" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>635</v>
+        <v>282</v>
       </c>
       <c r="B233" t="s">
         <v>636</v>
@@ -4989,18 +5055,18 @@
         <v>638</v>
       </c>
       <c r="B234" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B235" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>642</v>
@@ -5077,87 +5143,175 @@
         <v>660</v>
       </c>
       <c r="B242" t="s">
+        <v>658</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>662</v>
+      </c>
+      <c r="B243" t="s">
         <v>663</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
+        <v>665</v>
+      </c>
+      <c r="B244" t="s">
         <v>666</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
+        <v>668</v>
+      </c>
+      <c r="B245" t="s">
         <v>669</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
+        <v>671</v>
+      </c>
+      <c r="B246" t="s">
+        <v>669</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B246" t="s">
-        <v>673</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>673</v>
+      </c>
+      <c r="B247" t="s">
+        <v>674</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B247" t="s">
-        <v>676</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>676</v>
+      </c>
+      <c r="B248" t="s">
+        <v>677</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="B248" t="s">
-        <v>679</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>679</v>
+      </c>
+      <c r="B249" t="s">
+        <v>680</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B249" t="s">
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
         <v>682</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="B250" t="s">
         <v>683</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>685</v>
+      </c>
+      <c r="B251" t="s">
+        <v>686</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>688</v>
+      </c>
+      <c r="B252" t="s">
+        <v>689</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>691</v>
+      </c>
+      <c r="B253" t="s">
+        <v>692</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>694</v>
+      </c>
+      <c r="B254" t="s">
+        <v>695</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>697</v>
+      </c>
+      <c r="B255" t="s">
+        <v>698</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>700</v>
+      </c>
+      <c r="B256" t="s">
+        <v>701</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>703</v>
+      </c>
+      <c r="B257" t="s">
+        <v>704</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -5410,6 +5564,14 @@
     <hyperlink ref="C247" r:id="rId246"/>
     <hyperlink ref="C248" r:id="rId247"/>
     <hyperlink ref="C249" r:id="rId248"/>
+    <hyperlink ref="C250" r:id="rId249"/>
+    <hyperlink ref="C251" r:id="rId250"/>
+    <hyperlink ref="C252" r:id="rId251"/>
+    <hyperlink ref="C253" r:id="rId252"/>
+    <hyperlink ref="C254" r:id="rId253"/>
+    <hyperlink ref="C255" r:id="rId254"/>
+    <hyperlink ref="C256" r:id="rId255"/>
+    <hyperlink ref="C257" r:id="rId256"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rent_info_beijingzufang.xlsx
+++ b/rent_info_beijingzufang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="671">
   <si>
     <t>标题</t>
   </si>
@@ -23,6 +23,216 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>国贸主卧转租</t>
+  </si>
+  <si>
+    <t>04-10 03:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286495294/" </t>
+  </si>
+  <si>
+    <t>求租 石榴庄 大红门南 榴乡桥附近的房子 合租 需要舍友全女生</t>
+  </si>
+  <si>
+    <t>04-10 02:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286494858/" </t>
+  </si>
+  <si>
+    <t>10号线首经贸，公寓出租，独立卫浴，可以做饭，房子所剩不多，需要的速速联系，原相机无滤镜</t>
+  </si>
+  <si>
+    <t>04-10 02:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286494681/" </t>
+  </si>
+  <si>
+    <t>角门西转租 开间 明卫</t>
+  </si>
+  <si>
+    <t>04-10 02:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286494582/" </t>
+  </si>
+  <si>
+    <t>求租京东附近，亦庄线：经海路，次渠附近，马驹桥附近，合租，一人住，两居或三居合租，距离地铁近，有合适的请留言</t>
+  </si>
+  <si>
+    <t>04-10 01:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286493832/" </t>
+  </si>
+  <si>
+    <t>个人求租三元桥附近一居室</t>
+  </si>
+  <si>
+    <t>04-10 01:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286493666/" </t>
+  </si>
+  <si>
+    <t>5号线天通苑南地铁站，空朝南主卧独卫，大次卧，房东直租，无中介费，房子特别干净，独卫价格2400，次卧1700</t>
+  </si>
+  <si>
+    <t>04-10 01:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286493481/" </t>
+  </si>
+  <si>
+    <t>田村、五路居、玉泉路、五棵松附近找单间</t>
+  </si>
+  <si>
+    <t>04-10 01:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286493349/" </t>
+  </si>
+  <si>
+    <t>求租｜女生，想要找个室友一起整租干净的两三居室，或者想要差一人合租，找我也行！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286493335/" </t>
+  </si>
+  <si>
+    <t>建国门地铁站两居室主卧出租（限一女生）</t>
+  </si>
+  <si>
+    <t>04-10 01:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286493273/" </t>
+  </si>
+  <si>
+    <t>【房东直租】苏州街地铁-纽约客公寓-标准LOFT-整租-8500/月</t>
+  </si>
+  <si>
+    <t>04-10 00:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286493088/" </t>
+  </si>
+  <si>
+    <t>新宫4+19号线南亭新苑北区两居5000电话18369217591微信同步</t>
+  </si>
+  <si>
+    <t>04-10 00:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286492870/" </t>
+  </si>
+  <si>
+    <t>望京站地铁口五百米圣馨大地 全女生合租</t>
+  </si>
+  <si>
+    <t>04-10 00:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286492846/" </t>
+  </si>
+  <si>
+    <t>顺义滨河房东直租主卧1300带阳台</t>
+  </si>
+  <si>
+    <t>04-10 00:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286492744/" </t>
+  </si>
+  <si>
+    <t>求租/整租－朝阳区</t>
+  </si>
+  <si>
+    <t>04-10 00:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286492708/" </t>
+  </si>
+  <si>
+    <t>转租 一号线传媒大学一居</t>
+  </si>
+  <si>
+    <t>04-10 00:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286492590/" </t>
+  </si>
+  <si>
+    <t>出租农大南路肖家河东区单间1800电梯房联系方式13911592562微信同步</t>
+  </si>
+  <si>
+    <t>04-10 00:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286492405/" </t>
+  </si>
+  <si>
+    <t>石佛营主卧出租</t>
+  </si>
+  <si>
+    <t>04-10 00:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286492381/" </t>
+  </si>
+  <si>
+    <t>求租！ 七号线 房东直租一居室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286492374/" </t>
+  </si>
+  <si>
+    <t>出租森林公园奥林匹克公园鸟巢附近两居室的一间次卧</t>
+  </si>
+  <si>
+    <t>04-10 00:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286492127/" </t>
+  </si>
+  <si>
+    <t>一号线八通线传媒大学600米北花园大主卧阳台大次卧27002300没有中介费包物业取暖随时看房拎包入住嘎嘎干净家具新配</t>
+  </si>
+  <si>
+    <t>04-10 00:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286491889/" </t>
+  </si>
+  <si>
+    <t>将台-酒仙桥-芳园里还有房子吗，2500左右，不要中介费的，求租！</t>
+  </si>
+  <si>
+    <t>04-10 00:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286491626/" </t>
+  </si>
+  <si>
+    <t>6号线草房地铁口，精装独厨独卫开间，近地铁，没有中介费，民水民电包物业取暖。随时看房。</t>
+  </si>
+  <si>
+    <t>04-10 00:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286491521/" </t>
+  </si>
+  <si>
+    <t>个人转租：青年路次卧</t>
+  </si>
+  <si>
+    <t>04-10 00:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286491343/" </t>
   </si>
   <si>
     <t>后沙峪花梨坎寻找两居合租室友</t>
@@ -2161,7 +2371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2254,29 +2464,29 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -2364,2221 +2574,2485 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
         <v>137</v>
       </c>
-      <c r="B49" t="s">
-        <v>135</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
         <v>151</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B86" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B96" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B97" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B99" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B103" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B106" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B107" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B110" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B111" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B112" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B113" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B114" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B116" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>325</v>
+      </c>
+      <c r="B117" t="s">
         <v>321</v>
       </c>
-      <c r="B117" t="s">
-        <v>322</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B118" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B119" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B120" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B121" t="s">
         <v>334</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B122" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B123" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B125" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B126" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B127" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B128" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B129" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B130" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B131" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B132" t="s">
         <v>364</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B133" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B134" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B135" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B136" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B138" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B139" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B140" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B141" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B142" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B143" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B144" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B145" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B146" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B147" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B149" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B150" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B151" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B152" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B153" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B154" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B155" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B156" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B157" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B158" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B159" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B160" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B161" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B162" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B163" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B164" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B165" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B166" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B167" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B168" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B169" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B170" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B171" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B172" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B173" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B174" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B175" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B176" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B177" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B178" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B179" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B180" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B181" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B182" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B183" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>509</v>
+      </c>
+      <c r="B184" t="s">
         <v>505</v>
       </c>
-      <c r="B184" t="s">
-        <v>503</v>
-      </c>
       <c r="C184" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B185" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B186" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B187" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B188" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B189" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B190" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B191" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B192" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B193" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B194" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B195" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B196" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B197" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B198" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B199" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B200" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B201" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B202" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B203" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B204" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B205" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B206" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B207" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B208" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B209" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B210" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B211" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B212" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B213" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B214" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B215" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B216" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B217" t="s">
         <v>593</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B218" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B219" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>607</v>
+      </c>
+      <c r="B220" t="s">
+        <v>608</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>610</v>
+      </c>
+      <c r="B221" t="s">
+        <v>611</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>613</v>
+      </c>
+      <c r="B222" t="s">
+        <v>611</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>615</v>
+      </c>
+      <c r="B223" t="s">
+        <v>616</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>618</v>
+      </c>
+      <c r="B224" t="s">
+        <v>619</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>621</v>
+      </c>
+      <c r="B225" t="s">
+        <v>622</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>624</v>
+      </c>
+      <c r="B226" t="s">
+        <v>622</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>626</v>
+      </c>
+      <c r="B227" t="s">
+        <v>622</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>628</v>
+      </c>
+      <c r="B228" t="s">
+        <v>622</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>630</v>
+      </c>
+      <c r="B229" t="s">
+        <v>622</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>632</v>
+      </c>
+      <c r="B230" t="s">
+        <v>633</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>635</v>
+      </c>
+      <c r="B231" t="s">
+        <v>636</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>638</v>
+      </c>
+      <c r="B232" t="s">
+        <v>639</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>641</v>
+      </c>
+      <c r="B233" t="s">
+        <v>642</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>644</v>
+      </c>
+      <c r="B234" t="s">
+        <v>642</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>646</v>
+      </c>
+      <c r="B235" t="s">
+        <v>647</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>649</v>
+      </c>
+      <c r="B236" t="s">
+        <v>650</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>652</v>
+      </c>
+      <c r="B237" t="s">
+        <v>650</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>654</v>
+      </c>
+      <c r="B238" t="s">
+        <v>650</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>656</v>
+      </c>
+      <c r="B239" t="s">
+        <v>657</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>659</v>
+      </c>
+      <c r="B240" t="s">
+        <v>660</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>662</v>
+      </c>
+      <c r="B241" t="s">
+        <v>663</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>665</v>
+      </c>
+      <c r="B242" t="s">
+        <v>666</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>668</v>
+      </c>
+      <c r="B243" t="s">
+        <v>669</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -4801,6 +5275,30 @@
     <hyperlink ref="C217" r:id="rId216"/>
     <hyperlink ref="C218" r:id="rId217"/>
     <hyperlink ref="C219" r:id="rId218"/>
+    <hyperlink ref="C220" r:id="rId219"/>
+    <hyperlink ref="C221" r:id="rId220"/>
+    <hyperlink ref="C222" r:id="rId221"/>
+    <hyperlink ref="C223" r:id="rId222"/>
+    <hyperlink ref="C224" r:id="rId223"/>
+    <hyperlink ref="C225" r:id="rId224"/>
+    <hyperlink ref="C226" r:id="rId225"/>
+    <hyperlink ref="C227" r:id="rId226"/>
+    <hyperlink ref="C228" r:id="rId227"/>
+    <hyperlink ref="C229" r:id="rId228"/>
+    <hyperlink ref="C230" r:id="rId229"/>
+    <hyperlink ref="C231" r:id="rId230"/>
+    <hyperlink ref="C232" r:id="rId231"/>
+    <hyperlink ref="C233" r:id="rId232"/>
+    <hyperlink ref="C234" r:id="rId233"/>
+    <hyperlink ref="C235" r:id="rId234"/>
+    <hyperlink ref="C236" r:id="rId235"/>
+    <hyperlink ref="C237" r:id="rId236"/>
+    <hyperlink ref="C238" r:id="rId237"/>
+    <hyperlink ref="C239" r:id="rId238"/>
+    <hyperlink ref="C240" r:id="rId239"/>
+    <hyperlink ref="C241" r:id="rId240"/>
+    <hyperlink ref="C242" r:id="rId241"/>
+    <hyperlink ref="C243" r:id="rId242"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rent_info_beijingzufang.xlsx
+++ b/rent_info_beijingzufang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="726">
   <si>
     <t>标题</t>
   </si>
@@ -23,6 +23,171 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>雍和宫整租次卧出租</t>
+  </si>
+  <si>
+    <t>04-10 08:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286497209/" </t>
+  </si>
+  <si>
+    <t>六号线黄渠住站 民族家园南向主卧 精装修 纯实墙 三家合住能做饭 集中供暖 新上2400可月付 18500775791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286497192/" </t>
+  </si>
+  <si>
+    <t>朝阳大悦城对面珠江罗马嘉园东区主卧独卫转租</t>
+  </si>
+  <si>
+    <t>04-10 08:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496940/" </t>
+  </si>
+  <si>
+    <t>北京地铁6号线廖公庄200米房源出租</t>
+  </si>
+  <si>
+    <t>04-10 08:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496830/" </t>
+  </si>
+  <si>
+    <t>北苑、立水桥附近转租，无中介费</t>
+  </si>
+  <si>
+    <t>04-10 08:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496776/" </t>
+  </si>
+  <si>
+    <t>百万庄东口、车公庄西三居次卧</t>
+  </si>
+  <si>
+    <t>04-10 07:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496593/" </t>
+  </si>
+  <si>
+    <t>6号线褡裢坡地铁站附近精装修三居室，步行地铁站5分钟，周边超市饭店众多褡裢坡最繁华地段，性价比超高，喜欢联系13121815503</t>
+  </si>
+  <si>
+    <t>04-10 07:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496586/" </t>
+  </si>
+  <si>
+    <t>西直门，枫蓝国际附近单间出租</t>
+  </si>
+  <si>
+    <t>04-10 07:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496428/" </t>
+  </si>
+  <si>
+    <t>4号线西红门精装主卧次卧出租 住户少 环境好 拎包即可入住 电梯房 便宜实惠 18600576270同微</t>
+  </si>
+  <si>
+    <t>04-10 07:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496353/" </t>
+  </si>
+  <si>
+    <t>三里屯旁 团结湖主卧 转租</t>
+  </si>
+  <si>
+    <t>04-10 07:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496263/" </t>
+  </si>
+  <si>
+    <t>天通苑西三区（租期4个月）</t>
+  </si>
+  <si>
+    <t>04-10 07:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496179/" </t>
+  </si>
+  <si>
+    <t>四号线新宫德鑫家园次卧出租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496178/" </t>
+  </si>
+  <si>
+    <t>近四季青，五棵松，中关村</t>
+  </si>
+  <si>
+    <t>04-10 07:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286496101/" </t>
+  </si>
+  <si>
+    <t>14号线东湖渠站 望京花园西区三家合住，主卧出租</t>
+  </si>
+  <si>
+    <t>04-10 06:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286495982/" </t>
+  </si>
+  <si>
+    <t>临经海路，珠江四季悦城个人转租</t>
+  </si>
+  <si>
+    <t>04-10 06:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286495944/" </t>
+  </si>
+  <si>
+    <t>个人直租石景山合租单间卧室</t>
+  </si>
+  <si>
+    <t>04-10 06:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286495913/" </t>
+  </si>
+  <si>
+    <t>女生居住极品主卧3200/月，房东直租，安贞里二区13号楼，紧邻地铁10号线安贞门，知春路，牡丹园，北土城，惠新西街南囗</t>
+  </si>
+  <si>
+    <t>04-10 06:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286495881/" </t>
+  </si>
+  <si>
+    <t>天通苑地铁10分钟，主卧独卫2950，整体厨房，4家两卫，没有宠物干净整洁</t>
+  </si>
+  <si>
+    <t>04-10 06:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286495767/" </t>
+  </si>
+  <si>
+    <t>中关村地铁口，三居室全女生次卧出租</t>
+  </si>
+  <si>
+    <t>04-10 06:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286495724/" </t>
   </si>
   <si>
     <t>国贸主卧转租</t>
@@ -2371,7 +2536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2409,84 +2574,84 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -2519,84 +2684,84 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>57</v>
@@ -2695,40 +2860,40 @@
         <v>82</v>
       </c>
       <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
         <v>91</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>92</v>
@@ -2805,40 +2970,40 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
         <v>114</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
         <v>117</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
         <v>120</v>
-      </c>
-      <c r="B42" t="s">
-        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>121</v>
@@ -2849,348 +3014,348 @@
         <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" t="s">
         <v>144</v>
       </c>
-      <c r="B51" t="s">
-        <v>145</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s">
         <v>173</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B62" t="s">
         <v>173</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" t="s">
         <v>192</v>
       </c>
-      <c r="B68" t="s">
-        <v>193</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>211</v>
@@ -3201,73 +3366,73 @@
         <v>212</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>231</v>
@@ -3278,689 +3443,689 @@
         <v>232</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B91" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B92" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B93" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B94" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B96" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B97" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B101" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B103" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>294</v>
+      </c>
+      <c r="B104" t="s">
         <v>290</v>
       </c>
-      <c r="B104" t="s">
-        <v>291</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B111" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B112" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B113" t="s">
         <v>315</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B115" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B116" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B117" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B118" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B119" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B120" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B121" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B122" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B124" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B125" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B126" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B127" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B128" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B130" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B132" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B133" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B135" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>380</v>
+      </c>
+      <c r="B136" t="s">
         <v>376</v>
       </c>
-      <c r="B136" t="s">
-        <v>377</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B137" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B138" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B139" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B140" t="s">
         <v>389</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B141" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B142" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>399</v>
+      </c>
+      <c r="B143" t="s">
         <v>397</v>
       </c>
-      <c r="B143" t="s">
-        <v>398</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B144" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>402</v>
@@ -3993,62 +4158,62 @@
         <v>409</v>
       </c>
       <c r="B147" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B148" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B149" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B150" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>421</v>
+      </c>
+      <c r="B151" t="s">
         <v>419</v>
       </c>
-      <c r="B151" t="s">
-        <v>420</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B152" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>424</v>
@@ -4059,1000 +4224,1209 @@
         <v>425</v>
       </c>
       <c r="B153" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B154" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B155" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B156" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B157" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B158" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B159" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B160" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B161" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B162" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B163" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B164" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B165" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B166" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
+        <v>466</v>
+      </c>
+      <c r="B167" t="s">
         <v>462</v>
       </c>
-      <c r="B167" t="s">
-        <v>460</v>
-      </c>
       <c r="C167" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B168" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B169" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B170" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B171" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B172" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B173" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B174" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B175" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B176" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B177" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B178" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B179" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B180" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B181" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B182" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B183" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B184" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B185" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B186" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B187" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B188" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B189" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B190" t="s">
         <v>526</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B191" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B192" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B193" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B194" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B195" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B196" t="s">
         <v>543</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B197" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B198" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B199" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B200" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B201" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B202" t="s">
         <v>560</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B203" t="s">
         <v>560</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B204" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B205" t="s">
         <v>567</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B206" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B207" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B208" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B209" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B210" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B211" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B212" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B213" t="s">
         <v>590</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B214" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B215" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B216" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B217" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B218" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B219" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B220" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B221" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B222" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>619</v>
+      </c>
+      <c r="B223" t="s">
         <v>615</v>
       </c>
-      <c r="B223" t="s">
-        <v>616</v>
-      </c>
       <c r="C223" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B224" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B225" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B226" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B227" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B228" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B229" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B230" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B231" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B232" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B233" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B234" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B235" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B236" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B237" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B238" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B239" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="B240" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B241" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B242" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B243" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>676</v>
+      </c>
+      <c r="B244" t="s">
+        <v>677</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>679</v>
+      </c>
+      <c r="B245" t="s">
+        <v>677</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>681</v>
+      </c>
+      <c r="B246" t="s">
+        <v>677</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>683</v>
+      </c>
+      <c r="B247" t="s">
+        <v>677</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>685</v>
+      </c>
+      <c r="B248" t="s">
+        <v>677</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>687</v>
+      </c>
+      <c r="B249" t="s">
+        <v>688</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>690</v>
+      </c>
+      <c r="B250" t="s">
+        <v>691</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>693</v>
+      </c>
+      <c r="B251" t="s">
+        <v>694</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>696</v>
+      </c>
+      <c r="B252" t="s">
+        <v>697</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>699</v>
+      </c>
+      <c r="B253" t="s">
+        <v>697</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>701</v>
+      </c>
+      <c r="B254" t="s">
+        <v>702</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>704</v>
+      </c>
+      <c r="B255" t="s">
+        <v>705</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>707</v>
+      </c>
+      <c r="B256" t="s">
+        <v>705</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>709</v>
+      </c>
+      <c r="B257" t="s">
+        <v>705</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>711</v>
+      </c>
+      <c r="B258" t="s">
+        <v>712</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>714</v>
+      </c>
+      <c r="B259" t="s">
+        <v>715</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>717</v>
+      </c>
+      <c r="B260" t="s">
+        <v>718</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>720</v>
+      </c>
+      <c r="B261" t="s">
+        <v>721</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>723</v>
+      </c>
+      <c r="B262" t="s">
+        <v>724</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -5299,6 +5673,25 @@
     <hyperlink ref="C241" r:id="rId240"/>
     <hyperlink ref="C242" r:id="rId241"/>
     <hyperlink ref="C243" r:id="rId242"/>
+    <hyperlink ref="C244" r:id="rId243"/>
+    <hyperlink ref="C245" r:id="rId244"/>
+    <hyperlink ref="C246" r:id="rId245"/>
+    <hyperlink ref="C247" r:id="rId246"/>
+    <hyperlink ref="C248" r:id="rId247"/>
+    <hyperlink ref="C249" r:id="rId248"/>
+    <hyperlink ref="C250" r:id="rId249"/>
+    <hyperlink ref="C251" r:id="rId250"/>
+    <hyperlink ref="C252" r:id="rId251"/>
+    <hyperlink ref="C253" r:id="rId252"/>
+    <hyperlink ref="C254" r:id="rId253"/>
+    <hyperlink ref="C255" r:id="rId254"/>
+    <hyperlink ref="C256" r:id="rId255"/>
+    <hyperlink ref="C257" r:id="rId256"/>
+    <hyperlink ref="C258" r:id="rId257"/>
+    <hyperlink ref="C259" r:id="rId258"/>
+    <hyperlink ref="C260" r:id="rId259"/>
+    <hyperlink ref="C261" r:id="rId260"/>
+    <hyperlink ref="C262" r:id="rId261"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rent_info_beijingzufang.xlsx
+++ b/rent_info_beijingzufang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1144">
   <si>
     <t>标题</t>
   </si>
@@ -25,6 +25,1263 @@
     <t>链接</t>
   </si>
   <si>
+    <t>八宝山地铁万达永乐鲁谷两居室出租</t>
+  </si>
+  <si>
+    <t>04-10 12:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506938/" </t>
+  </si>
+  <si>
+    <t>找房子两居室整租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506934/" </t>
+  </si>
+  <si>
+    <t>回龙观东大街地铁房三人合租大三居人少事少长期稳定</t>
+  </si>
+  <si>
+    <t>04-10 11:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506805/" </t>
+  </si>
+  <si>
+    <t>万寿路地铁站100米转租</t>
+  </si>
+  <si>
+    <t>04-10 11:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506781/" </t>
+  </si>
+  <si>
+    <t>西二旗龙泽骑车15min 典雅红木小卧室-主卧</t>
+  </si>
+  <si>
+    <t>04-10 11:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506690/" </t>
+  </si>
+  <si>
+    <t>北京地铁15号线花梨坎主卧</t>
+  </si>
+  <si>
+    <t>04-10 11:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506634/" </t>
+  </si>
+  <si>
+    <t>个人房源｜东三环黄金地段，14号枣营、10号农展馆步行6分钟，两居南向主卧➕大阳台3600转租！腿着蓝色港湾、朝阳公园，骑车三里屯~</t>
+  </si>
+  <si>
+    <t>04-10 11:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506462/" </t>
+  </si>
+  <si>
+    <t>🌈地铁5号线🌈天通苑地铁站🌈房东直租🌈不收中介费服务费，可以月付房租，可以看房本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506439/" </t>
+  </si>
+  <si>
+    <t>转租1号线传媒大学珠江绿洲小区主卧独卫转租</t>
+  </si>
+  <si>
+    <t>04-10 11:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506217/" </t>
+  </si>
+  <si>
+    <t>转租 北师大/枫蓝国际/小西天附近 文慧园 红联南村2号楼主卧上床下桌床位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506209/" </t>
+  </si>
+  <si>
+    <t>望京路3号院精装两居：业主直租，4.24到期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506202/" </t>
+  </si>
+  <si>
+    <t>房东直租-呼家楼水碓子西里1室一厅一卫（不限男女）</t>
+  </si>
+  <si>
+    <t>04-10 11:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506083/" </t>
+  </si>
+  <si>
+    <t>大兴四号线瑞海家园精装30平南卧带阳台</t>
+  </si>
+  <si>
+    <t>04-10 11:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506015/" </t>
+  </si>
+  <si>
+    <t>个人转租/西局 六里桥 丽泽 SOHO/ 丰台公寓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286506012/" </t>
+  </si>
+  <si>
+    <t>通州两居主卧转租/房东直租 1650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505994/" </t>
+  </si>
+  <si>
+    <t>6号线找室友啦，通州北关两居次卧1900，快来看看</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505987/" </t>
+  </si>
+  <si>
+    <t>求租，回龙观/平西府地铁附近南向卧室</t>
+  </si>
+  <si>
+    <t>04-10 11:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505903/" </t>
+  </si>
+  <si>
+    <t>6号线通州北关300米地铁口保利大都汇一居loft转租 可续1年或3个月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505892/" </t>
+  </si>
+  <si>
+    <t>宋家庄地铁，精装修两居室,随时可以看房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505887/" </t>
+  </si>
+  <si>
+    <t>转租回龙观新村西区全女生合住主卧，25号可入住，15210214480</t>
+  </si>
+  <si>
+    <t>04-10 11:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505869/" </t>
+  </si>
+  <si>
+    <t>转租主卧带阳台，紧邻地铁昌平线、8号线，邻生命科学园地铁站、朱辛庄地铁站</t>
+  </si>
+  <si>
+    <t>04-10 11:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505773/" </t>
+  </si>
+  <si>
+    <t>s1沿线栗园庄站 惠润嘉园主卧出租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505762/" </t>
+  </si>
+  <si>
+    <t>马连洼上地 柳浪家园北里 小次卧1800 无中介费 随时看房入住</t>
+  </si>
+  <si>
+    <t>04-10 11:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505324/" </t>
+  </si>
+  <si>
+    <t>房东自住房，次卧出租，地铁10号线角门东站</t>
+  </si>
+  <si>
+    <t>04-10 11:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505255/" </t>
+  </si>
+  <si>
+    <t>北苑 蕴实园 1400 明间次卧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505248/" </t>
+  </si>
+  <si>
+    <t>顺义后沙峪绿地启航南区独居开间3300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505234/" </t>
+  </si>
+  <si>
+    <t>★出租五道口六道口地铁站附近大学周边精装好房！整租分租都可以！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505218/" </t>
+  </si>
+  <si>
+    <t>13号线霍营地铁站口，电梯房集中供暖，三家一起户数少，主卧，次卧，无中介费拎包入住！</t>
+  </si>
+  <si>
+    <t>04-10 11:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286505109/" </t>
+  </si>
+  <si>
+    <t>转租5号线大屯路东站阳光新干线三家主卧带阳台</t>
+  </si>
+  <si>
+    <t>04-10 11:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504973/" </t>
+  </si>
+  <si>
+    <t>【个人转租，非中介】</t>
+  </si>
+  <si>
+    <t>04-10 11:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504952/" </t>
+  </si>
+  <si>
+    <t>求租，次卧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504927/" </t>
+  </si>
+  <si>
+    <t>一号线西边八宝山或六里桥等地找室友合租养猫</t>
+  </si>
+  <si>
+    <t>04-10 11:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504865/" </t>
+  </si>
+  <si>
+    <t>五号线北苑路北地铁500米、天畅园小区、朝东两居、无中介费服务费、全新装修、新配家具、近期租房小伙伴直接联系！</t>
+  </si>
+  <si>
+    <t>04-10 11:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504817/" </t>
+  </si>
+  <si>
+    <t>转租：西局地铁站9分钟路程女生次卧</t>
+  </si>
+  <si>
+    <t>04-10 11:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504768/" </t>
+  </si>
+  <si>
+    <t>草房6号线地铁站北京像素拎包入住，房子一级棒，随时看房18533736808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504756/" </t>
+  </si>
+  <si>
+    <t>【房东直租】马驹桥住宅开间，近地铁同济南路站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504743/" </t>
+  </si>
+  <si>
+    <t>和平里七区2层两居55平出租，业主直租，中介勿扰</t>
+  </si>
+  <si>
+    <t>04-10 11:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504623/" </t>
+  </si>
+  <si>
+    <t>急转 民水民电loft采光绝6号线北运河西</t>
+  </si>
+  <si>
+    <t>04-10 11:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504486/" </t>
+  </si>
+  <si>
+    <t>个人求整租大山子周边两居</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504481/" </t>
+  </si>
+  <si>
+    <t>朝阳区常营草房个人转租 低价转！</t>
+  </si>
+  <si>
+    <t>04-10 11:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504426/" </t>
+  </si>
+  <si>
+    <t>北京租房，5/10/14号地铁，宋家庄，成寿寺，刘家窑，方庄，东铁营，分钟寺，整租合租，啥房都有，随时入住，随时看房。</t>
+  </si>
+  <si>
+    <t>04-10 11:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504389/" </t>
+  </si>
+  <si>
+    <t>【个人转租】无中介费一号线管庄站主卧独卫</t>
+  </si>
+  <si>
+    <t>04-10 11:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504092/" </t>
+  </si>
+  <si>
+    <t>秋露园 临近百度网易腾讯西北旺地铁站 主卧 次卧都有价格便宜V电同步17610333210</t>
+  </si>
+  <si>
+    <t>04-10 11:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504053/" </t>
+  </si>
+  <si>
+    <t>求租一居室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504043/" </t>
+  </si>
+  <si>
+    <t>三元桥 三源里南小街三居室其中次卧室 亮马桥地铁附近</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286504015/" </t>
+  </si>
+  <si>
+    <t>04-10 11:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503935/" </t>
+  </si>
+  <si>
+    <t>6号线 物资学院 全南两居室 地铁近 随时看房 楼下有大超市 购物方便</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503928/" </t>
+  </si>
+  <si>
+    <t>物资学院路87平正规两居两人合租2600/月</t>
+  </si>
+  <si>
+    <t>04-10 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503785/" </t>
+  </si>
+  <si>
+    <t>1500转租，6号线潞城地铁站，飘窗独立公寓</t>
+  </si>
+  <si>
+    <t>04-10 10:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503692/" </t>
+  </si>
+  <si>
+    <t>西门子实习求租三个月</t>
+  </si>
+  <si>
+    <t>04-10 10:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503634/" </t>
+  </si>
+  <si>
+    <t>出租：立水桥地铁一居室，民水民电有燃气</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503621/" </t>
+  </si>
+  <si>
+    <t>精品公寓，房间配置齐全，明窗，通风。大院子方便晾晒衣物和停车，充电。房东直租，紧邻南邵地铁站。</t>
+  </si>
+  <si>
+    <t>04-10 10:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503581/" </t>
+  </si>
+  <si>
+    <t>10/14/17号线-潘家园-北工大-CBD-美景东方小区，性价比好房，随时入住</t>
+  </si>
+  <si>
+    <t>04-10 10:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503380/" </t>
+  </si>
+  <si>
+    <t>学生个人</t>
+  </si>
+  <si>
+    <t>04-10 10:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503357/" </t>
+  </si>
+  <si>
+    <t>丰台南路主卧带独卫出租包业务取暖微信15184932794</t>
+  </si>
+  <si>
+    <t>04-10 10:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503273/" </t>
+  </si>
+  <si>
+    <t>通州北关 西潞苑小区 转租</t>
+  </si>
+  <si>
+    <t>04-10 10:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503202/" </t>
+  </si>
+  <si>
+    <t>独立卫生间 小街桥 歌华大厦 簋街附近北官厅小区3900/月</t>
+  </si>
+  <si>
+    <t>04-10 10:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286503082/" </t>
+  </si>
+  <si>
+    <t>个人转租，因换工作急转昌平回龙观新龙城2期，主卧+独卫+落地大阳台（采光好）30平，3400每月租金，近地铁，小区超市、健身都齐全</t>
+  </si>
+  <si>
+    <t>04-10 10:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502994/" </t>
+  </si>
+  <si>
+    <t>梨园附近 7号线万盛东站曹园逸家南向精装开间3200/月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502954/" </t>
+  </si>
+  <si>
+    <t>个人转租 西直门附近金贸大厦豪华开间 8300可小刀</t>
+  </si>
+  <si>
+    <t>04-10 10:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502896/" </t>
+  </si>
+  <si>
+    <t>6号线 草房地铁口 北京像素北区 精装朝南主次卧 能做饭 带储物间</t>
+  </si>
+  <si>
+    <t>04-10 10:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502775/" </t>
+  </si>
+  <si>
+    <t>地铁十号线双井 国贸CBD双井北里三居室 电梯高层，视野开阔，押一付一</t>
+  </si>
+  <si>
+    <t>04-10 10:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502626/" </t>
+  </si>
+  <si>
+    <t>求金台路 甜水园 整租两居一家人住</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502620/" </t>
+  </si>
+  <si>
+    <t>5、13号线立水桥 转租可养宠物公寓一间~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502596/" </t>
+  </si>
+  <si>
+    <t>望京15号线后沙峪地铁主卧1500月付</t>
+  </si>
+  <si>
+    <t>04-10 10:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502448/" </t>
+  </si>
+  <si>
+    <t>金台路红庙北里精装修开间4700随时看房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502399/" </t>
+  </si>
+  <si>
+    <t>西红门地铁 瑞海家园 出租正规大次卧</t>
+  </si>
+  <si>
+    <t>04-10 10:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502361/" </t>
+  </si>
+  <si>
+    <t>【个人转租】地铁13号线和昌平线；西二旗智学苑；非中介，因工作变动需离开北京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502353/" </t>
+  </si>
+  <si>
+    <t>来广营 精装独卫 月付 纯个人</t>
+  </si>
+  <si>
+    <t>04-10 10:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502231/" </t>
+  </si>
+  <si>
+    <t>西三旗回龙观西小口霍营育新地铁站东村家园四家合住朝南大主卧阳台现房随时看房入住，家电家具齐全拎包入住。电话微信同步13720080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502219/" </t>
+  </si>
+  <si>
+    <t>西红门地铁 瑞海家园 出租正规次卧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502210/" </t>
+  </si>
+  <si>
+    <t>沙河地铁单间出租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502207/" </t>
+  </si>
+  <si>
+    <t>【个人转租】房山线篱笆房站 1450次卧无中介费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502189/" </t>
+  </si>
+  <si>
+    <t>民水民电带燃气的央企公寓，5号线，亦庄线，8号线上班的可以考虑住这边！</t>
+  </si>
+  <si>
+    <t>04-10 10:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502179/" </t>
+  </si>
+  <si>
+    <t>一号线 四惠 惠润园 整租两居室！民水民电 集中供暖。国贸大望路 永安里附近</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502142/" </t>
+  </si>
+  <si>
+    <t>朝阳区租房.六号线.青年路地铁站.朝阳雅筑.3家1卫主卧.真实图片.干净温馨.采光无敌.地铁0距离</t>
+  </si>
+  <si>
+    <t>04-10 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502072/" </t>
+  </si>
+  <si>
+    <t>四季青 佟家坟公交站 德顺园 西冉村大卧室带阳台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502039/" </t>
+  </si>
+  <si>
+    <t>🔥0中介费房东签合同🉐️西二旗/西北旺次卧主卧独卫1000起快手小米/软件园/百度/网易/滴滴 🉑️短～租</t>
+  </si>
+  <si>
+    <t>04-10 10:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286502016/" </t>
+  </si>
+  <si>
+    <t>新纪家园 楼下就是太阳宫地铁站 3家合住 正规次卧2300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501983/" </t>
+  </si>
+  <si>
+    <t>劲松、潘家园、北工大地铁附近主卧转租。</t>
+  </si>
+  <si>
+    <t>04-10 10:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501979/" </t>
+  </si>
+  <si>
+    <t>传媒大学北门附近，精装两居室。金星小区，福怡苑北区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501961/" </t>
+  </si>
+  <si>
+    <t>8号线永泰庄地铁站 /清河公交站附近 清景园小区小次卧 1350就租 卫生干净 随时看房 电梯直达 详情请联系17812301951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501949/" </t>
+  </si>
+  <si>
+    <t>六号线八通线地铁站常营天街附近新天地小区招室友（仅限女生）</t>
+  </si>
+  <si>
+    <t>04-10 10:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501907/" </t>
+  </si>
+  <si>
+    <t>四季青 佟家坟 航天信息园 外国语 西冉村 德顺园正规卧室带露天阳台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501903/" </t>
+  </si>
+  <si>
+    <t>北京市海淀区交通大学两居室 在西直门附近 周边有附小和附中 四道口也很近</t>
+  </si>
+  <si>
+    <t>04-10 10:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501778/" </t>
+  </si>
+  <si>
+    <t>常营 黄渠 附近求合租</t>
+  </si>
+  <si>
+    <t>04-10 10:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501730/" </t>
+  </si>
+  <si>
+    <t>褡裢坡地铁站主卧带阳台/个人转租2400/月/全女生/隔音好/无中介费/手机同v17867963391</t>
+  </si>
+  <si>
+    <t>04-10 10:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501579/" </t>
+  </si>
+  <si>
+    <t>地铁6号线 褡裢坡 朝南主卧2290 次卧2090押一付一 🈚️中介费 地铁五分钟 V:15210166067</t>
+  </si>
+  <si>
+    <t>04-10 10:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501368/" </t>
+  </si>
+  <si>
+    <t>四号线枣园地铁站转租</t>
+  </si>
+  <si>
+    <t>04-10 10:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501266/" </t>
+  </si>
+  <si>
+    <t>昌平线 学知园地铁口 学清嘉创 小次卧有阳台 1700</t>
+  </si>
+  <si>
+    <t>04-10 10:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501234/" </t>
+  </si>
+  <si>
+    <t>六号线常营附近 临近地铁大主卧2200 包物业取暖 设施齐全 随时看房 a17600939653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501183/" </t>
+  </si>
+  <si>
+    <t>温都水城整租公寓可做饭全新家具家电可拎包入住随时看房随时入住 2000+ 微信13520694116</t>
+  </si>
+  <si>
+    <t>04-10 10:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501132/" </t>
+  </si>
+  <si>
+    <t>双井好房找女生舍友</t>
+  </si>
+  <si>
+    <t>04-10 10:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501108/" </t>
+  </si>
+  <si>
+    <t>丰台区转租</t>
+  </si>
+  <si>
+    <t>04-10 10:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286501001/" </t>
+  </si>
+  <si>
+    <t>传媒大学附近两居室房东直租</t>
+  </si>
+  <si>
+    <t>04-10 10:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500945/" </t>
+  </si>
+  <si>
+    <t>蒲黄榆求租一居室或者小两居</t>
+  </si>
+  <si>
+    <t>04-10 10:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500846/" </t>
+  </si>
+  <si>
+    <t>【个人】望京南湖中园，两室一厅找室友，房东直租，随时入住，仅限女生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500815/" </t>
+  </si>
+  <si>
+    <t>急！有孩子了，转租大次卧. 步行3分钟即到5号线地铁天通苑站，可做饭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500802/" </t>
+  </si>
+  <si>
+    <t>8号线地铁朱辛庄站，生命科学院站附近出租主卧次卧，单人间，800到2000 自如装修，无中介费，看房电话16601366307同V</t>
+  </si>
+  <si>
+    <t>04-10 10:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500676/" </t>
+  </si>
+  <si>
+    <t>丰台站全女生房间，房东直租</t>
+  </si>
+  <si>
+    <t>04-10 10:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500637/" </t>
+  </si>
+  <si>
+    <t>求租-昌平两居</t>
+  </si>
+  <si>
+    <t>04-10 10:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500624/" </t>
+  </si>
+  <si>
+    <t>丰台四号线十号线双地铁晨光小区精装两居，角门西草桥马家堡，南北双阳台100平，家具家电齐全拎包入住！看房联系15081101550</t>
+  </si>
+  <si>
+    <t>04-10 10:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500544/" </t>
+  </si>
+  <si>
+    <t>西二旗朝南厅卧转租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500540/" </t>
+  </si>
+  <si>
+    <t>求租丰台10号线附近</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500529/" </t>
+  </si>
+  <si>
+    <t>东大桥地铁6号线朝阳医院附近3层精装两居室随时入住</t>
+  </si>
+  <si>
+    <t>04-10 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500500/" </t>
+  </si>
+  <si>
+    <t>13号线回龙观地铁站 新龙城朝阳次卧2300转租，高层落地窗 采光和通风都很好 随时可以看房17600677067</t>
+  </si>
+  <si>
+    <t>04-10 09:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500466/" </t>
+  </si>
+  <si>
+    <t>§次卧 合租，无中介费，附近7号线/16号线达官营地铁站 天虹商场 朗琴园 天宁寺 宣武医院</t>
+  </si>
+  <si>
+    <t>04-10 09:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500344/" </t>
+  </si>
+  <si>
+    <t>【我是房东】立水桥小两居整租</t>
+  </si>
+  <si>
+    <t>04-10 09:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500312/" </t>
+  </si>
+  <si>
+    <t>2600元/月 押一付三 东二环地铁旁房东直租 朝阳双井广渠门外10号线</t>
+  </si>
+  <si>
+    <t>04-10 09:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500280/" </t>
+  </si>
+  <si>
+    <t>1400 房山长阳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500279/" </t>
+  </si>
+  <si>
+    <t>个人转租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500265/" </t>
+  </si>
+  <si>
+    <t>十号线首经贸 天坛医院 万年花城一期 四家双卫 出租主卧独卫 随时看房入住 下楼就是地铁。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500261/" </t>
+  </si>
+  <si>
+    <t>三室一厅 两卫 主卧独卫/阳面/有阳台找室友 马驹桥 2400 有中介费</t>
+  </si>
+  <si>
+    <t>04-10 09:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500193/" </t>
+  </si>
+  <si>
+    <t>传媒大学对面 超干净温馨南向次卧房东直租每月2300元水电网全免</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500192/" </t>
+  </si>
+  <si>
+    <t>【转租】东坝精装90平三居- 6800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500190/" </t>
+  </si>
+  <si>
+    <t>宋家庄地铁 精装修两居室 随时看房入住</t>
+  </si>
+  <si>
+    <t>04-10 09:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500079/" </t>
+  </si>
+  <si>
+    <t>朝阳路青年路个人出租单间合租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500066/" </t>
+  </si>
+  <si>
+    <t>【求租】女生 对外经济贸易大学附近（惠新西街、芍药居等，去贸大30min以内即可）一居室或者合租卧室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500059/" </t>
+  </si>
+  <si>
+    <t>求租，丽泽半小时内通勤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286500054/" </t>
+  </si>
+  <si>
+    <t>和房东直签 房子在4号线西红门 朝南主卧独卫2850🈷️朝南主卧2300🈷️次卧1850🈷️无中介费服务费</t>
+  </si>
+  <si>
+    <t>04-10 09:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499989/" </t>
+  </si>
+  <si>
+    <t>惠新西街北口 高原街7号院 正规次卧 主卧阳台无中介费 看房咨询15946456016</t>
+  </si>
+  <si>
+    <t>04-10 09:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499953/" </t>
+  </si>
+  <si>
+    <t>找室友 北四环惠新东桥北 大卧室 带阳台出租 房主直签</t>
+  </si>
+  <si>
+    <t>04-10 09:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499866/" </t>
+  </si>
+  <si>
+    <t>房山大学城地铁 睿府书香主卧独卫 厅卧 次卧 v13166939352</t>
+  </si>
+  <si>
+    <t>04-10 09:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499767/" </t>
+  </si>
+  <si>
+    <t>找房，一个人，租一个月，最好在五棵松，玉泉路，石景山，古城附近</t>
+  </si>
+  <si>
+    <t>04-10 09:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499706/" </t>
+  </si>
+  <si>
+    <t>北三环八号线 安华桥地铁站附近次卧转租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499675/" </t>
+  </si>
+  <si>
+    <t>望京东湖渠望馨花园大三居无隔断次卧找室友房东直租无中介费</t>
+  </si>
+  <si>
+    <t>04-10 09:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499604/" </t>
+  </si>
+  <si>
+    <t>6号线田村站翠谷玉景苑转租</t>
+  </si>
+  <si>
+    <t>04-10 09:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499530/" </t>
+  </si>
+  <si>
+    <t>出租次卧_1号线梨园地铁站_梨园北小区正规2居室</t>
+  </si>
+  <si>
+    <t>04-10 09:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499484/" </t>
+  </si>
+  <si>
+    <t>转租10号线劲松独卫开间公寓2200/月</t>
+  </si>
+  <si>
+    <t>04-10 09:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499304/" </t>
+  </si>
+  <si>
+    <t>宋家庄、刘家窑、石榴庄附近三室一厅整租6500/月，分租主卧2500、次卧2300、小间2000看房电话18601272071</t>
+  </si>
+  <si>
+    <t>04-10 09:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499209/" </t>
+  </si>
+  <si>
+    <t>花家地小区主卧阳台出租限女生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499180/" </t>
+  </si>
+  <si>
+    <t>个人转租，主卧带阳台，邻地铁昌平线、8号线，邻生命科学园地铁站、朱辛庄地铁站</t>
+  </si>
+  <si>
+    <t>04-10 09:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499099/" </t>
+  </si>
+  <si>
+    <t>亦庄线 京东总部附近 17号线次渠北 大次卧1700 可长可短拎包入住 无中介服务费微同步13224360317</t>
+  </si>
+  <si>
+    <t>04-10 09:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499075/" </t>
+  </si>
+  <si>
+    <t>地铁5号线，天通苑北三区次卧出租，自家房源，无佣金，拎包入住！看房V18410002516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499071/" </t>
+  </si>
+  <si>
+    <t>出租次卧</t>
+  </si>
+  <si>
+    <t>04-10 09:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286499008/" </t>
+  </si>
+  <si>
+    <t>6号线，褡裢坡站，福瑞四季小区，主卧独立卫浴，随时看</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498999/" </t>
+  </si>
+  <si>
+    <t>地铁六号线 物资学院路 新建村二期高层 精品飘窗卧室 包物业包取暖 六分钟左右到地铁口 🈚中介费19527273787微同</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498996/" </t>
+  </si>
+  <si>
+    <t>1号线 6号线 14号线 金台路 大望路 skp 华茂 柴家湾小区 精装主卧带独卫 朝南</t>
+  </si>
+  <si>
+    <t>04-10 09:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498949/" </t>
+  </si>
+  <si>
+    <t>10/9号线六里桥地铁站 莲怡园小区 莲宝路 万丰路 万寿路 靛厂路边上 朝东主卧2500 + 南向石墙厅卧阳台2400 物业直租</t>
+  </si>
+  <si>
+    <t>04-10 09:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498841/" </t>
+  </si>
+  <si>
+    <t>房东直租，杨庄地铁站当代商城</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498837/" </t>
+  </si>
+  <si>
+    <t>16号线永丰西北旺大牛坊次卧直租非中介，爱干净的来！用友中关村壹号步行达</t>
+  </si>
+  <si>
+    <t>04-10 09:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498798/" </t>
+  </si>
+  <si>
+    <t>个人转租，航天城社区转租 海淀 软件园 永丰 生命科学园</t>
+  </si>
+  <si>
+    <t>04-10 09:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498708/" </t>
+  </si>
+  <si>
+    <t>唐家岭新城东区业主直租</t>
+  </si>
+  <si>
+    <t>04-10 09:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498693/" </t>
+  </si>
+  <si>
+    <t>石景山 地铁六号线西山奥园 一室一厅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498682/" </t>
+  </si>
+  <si>
+    <t>昌平北七家翡翠公园一居室直租，个人房子</t>
+  </si>
+  <si>
+    <t>04-10 09:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498636/" </t>
+  </si>
+  <si>
+    <t>回龙观 龙跃苑二区次卧出租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498618/" </t>
+  </si>
+  <si>
+    <t>地铁🚇5号线13号线换乘站立水桥地铁站附近，南向次卧出租正规次卧。使用面14平方米。房子在立城苑小区。房租每月2200元</t>
+  </si>
+  <si>
+    <t>04-10 09:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498591/" </t>
+  </si>
+  <si>
+    <t>新宫地铁附近19号线首发站还有四号线，2000两居室次卧出租</t>
+  </si>
+  <si>
+    <t>04-10 09:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498477/" </t>
+  </si>
+  <si>
+    <t>房东直租房山长阳地铁站附近大次卧一间。精装修拎包入住1500</t>
+  </si>
+  <si>
+    <t>04-10 09:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498455/" </t>
+  </si>
+  <si>
+    <t>个人便宜转租十号线 成寿寺站 宋家庄站 金第润苑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498432/" </t>
+  </si>
+  <si>
+    <t>直租！田园风光东区卧室，没有任何费用，房间干净，设施齐全。和房东签约！联系方式：15146061232</t>
+  </si>
+  <si>
+    <t>04-10 09:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498326/" </t>
+  </si>
+  <si>
+    <t>通勤丰台科技园纪家庙 六里桥首经贸 30平米整租公寓开间900--1300 都是30平米</t>
+  </si>
+  <si>
+    <t>04-10 09:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498179/" </t>
+  </si>
+  <si>
+    <t>个人求租 清河小营桥 清河站 安宁庄两居室整租</t>
+  </si>
+  <si>
+    <t>04-10 08:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286498057/" </t>
+  </si>
+  <si>
+    <t>17号线嘉会湖万科三居室低价转租</t>
+  </si>
+  <si>
+    <t>04-10 08:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286497859/" </t>
+  </si>
+  <si>
+    <t>地铁6号线物资学院站，新建村二期高层各种单间出租</t>
+  </si>
+  <si>
+    <t>04-10 08:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286497743/" </t>
+  </si>
+  <si>
+    <t>出租东四平房一间</t>
+  </si>
+  <si>
+    <t>04-10 08:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286497661/" </t>
+  </si>
+  <si>
+    <t>成寿寺地铁站10号线 2室一厅的房子，找次卧女生室友（限一个）</t>
+  </si>
+  <si>
+    <t>04-10 08:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286497567/" </t>
+  </si>
+  <si>
+    <t>求租 双井劲松附近两居室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286497562/" </t>
+  </si>
+  <si>
+    <t>转租2666一个月，急租，有需要姐妹来加微信</t>
+  </si>
+  <si>
+    <t>04-10 08:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286497479/" </t>
+  </si>
+  <si>
+    <t>求租 雍和宫3公里附近两居次卧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286497474/" </t>
+  </si>
+  <si>
     <t>雍和宫整租次卧出租</t>
   </si>
   <si>
@@ -1469,9 +2726,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.douban.com/group/topic/286477458/" </t>
-  </si>
-  <si>
-    <t>求租一居室</t>
   </si>
   <si>
     <t>04-09 20:19</t>
@@ -2536,14 +3790,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C262"/>
+  <dimension ref="A1:C422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="75.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2640,2793 +3894,4553 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B78" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B79" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B85" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B87" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B88" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B89" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B90" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B91" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B93" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B95" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="B96" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="B98" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B100" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B102" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B105" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B106" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B107" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="B109" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B110" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B111" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="B112" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B113" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="B114" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B115" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="B116" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="B118" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="B119" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="B120" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B122" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B123" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B125" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="B126" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B127" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="B128" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="B129" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="B130" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B131" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="B132" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="B133" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="B134" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="B135" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="B136" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="B137" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B138" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="B139" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B140" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="B141" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="B142" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B143" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="B144" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="B145" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B146" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="B147" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B148" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="B149" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B150" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="B151" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="B152" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="B153" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="B154" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="B155" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="B156" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="B157" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="B158" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="B159" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="B160" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="B161" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="B162" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="B163" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="B164" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="B165" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="B166" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="B167" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="B168" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="B169" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="B170" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="B171" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="B172" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="B173" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="B174" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="B175" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="B176" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="B177" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="B178" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="B179" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="B180" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="B181" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="B182" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="B183" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="B184" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="B185" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="B186" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="B187" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="B188" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="B189" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="B190" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="B191" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="B192" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="B193" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="B194" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="B195" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="B196" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="B197" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="B198" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="B199" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="B200" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="B201" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="B202" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="B203" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="B204" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="B205" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="B206" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="B207" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="B208" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="B209" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="B210" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="B211" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="B212" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="B213" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="B214" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="B215" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="B216" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="B217" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="B218" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="B219" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="B220" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B221" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="B222" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="B223" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B224" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="B225" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="B226" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="B227" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="B228" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="B229" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="B230" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="B231" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="B232" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="B233" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="B234" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="B235" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="B236" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="B237" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="B238" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="B239" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="B240" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="B241" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="B242" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="B243" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="B244" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="B245" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="B246" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="B247" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="B248" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="B249" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="B250" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="B251" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="B252" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="B253" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="B254" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="B255" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="B256" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="B257" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="B258" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="B259" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="B260" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="B261" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
+        <v>708</v>
+      </c>
+      <c r="B262" t="s">
+        <v>709</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>711</v>
+      </c>
+      <c r="B263" t="s">
+        <v>709</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>713</v>
+      </c>
+      <c r="B264" t="s">
+        <v>709</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>715</v>
+      </c>
+      <c r="B265" t="s">
+        <v>716</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>718</v>
+      </c>
+      <c r="B266" t="s">
+        <v>716</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>720</v>
+      </c>
+      <c r="B267" t="s">
+        <v>721</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
         <v>723</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B268" t="s">
+        <v>721</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C262" s="1" t="s">
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
         <v>725</v>
+      </c>
+      <c r="B269" t="s">
+        <v>726</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>728</v>
+      </c>
+      <c r="B270" t="s">
+        <v>726</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>730</v>
+      </c>
+      <c r="B271" t="s">
+        <v>731</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>733</v>
+      </c>
+      <c r="B272" t="s">
+        <v>734</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>736</v>
+      </c>
+      <c r="B273" t="s">
+        <v>734</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>738</v>
+      </c>
+      <c r="B274" t="s">
+        <v>739</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>741</v>
+      </c>
+      <c r="B275" t="s">
+        <v>742</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>744</v>
+      </c>
+      <c r="B276" t="s">
+        <v>745</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>747</v>
+      </c>
+      <c r="B277" t="s">
+        <v>748</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>750</v>
+      </c>
+      <c r="B278" t="s">
+        <v>748</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>752</v>
+      </c>
+      <c r="B279" t="s">
+        <v>753</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>755</v>
+      </c>
+      <c r="B280" t="s">
+        <v>756</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>758</v>
+      </c>
+      <c r="B281" t="s">
+        <v>759</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>761</v>
+      </c>
+      <c r="B282" t="s">
+        <v>762</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>764</v>
+      </c>
+      <c r="B283" t="s">
+        <v>765</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>767</v>
+      </c>
+      <c r="B284" t="s">
+        <v>765</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>769</v>
+      </c>
+      <c r="B285" t="s">
+        <v>770</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>772</v>
+      </c>
+      <c r="B286" t="s">
+        <v>773</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>775</v>
+      </c>
+      <c r="B287" t="s">
+        <v>773</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>777</v>
+      </c>
+      <c r="B288" t="s">
+        <v>778</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>780</v>
+      </c>
+      <c r="B289" t="s">
+        <v>778</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>782</v>
+      </c>
+      <c r="B290" t="s">
+        <v>783</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>785</v>
+      </c>
+      <c r="B291" t="s">
+        <v>786</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>788</v>
+      </c>
+      <c r="B292" t="s">
+        <v>789</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>791</v>
+      </c>
+      <c r="B293" t="s">
+        <v>792</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>794</v>
+      </c>
+      <c r="B294" t="s">
+        <v>795</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>797</v>
+      </c>
+      <c r="B295" t="s">
+        <v>795</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>799</v>
+      </c>
+      <c r="B296" t="s">
+        <v>795</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>801</v>
+      </c>
+      <c r="B297" t="s">
+        <v>802</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>804</v>
+      </c>
+      <c r="B298" t="s">
+        <v>805</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>807</v>
+      </c>
+      <c r="B299" t="s">
+        <v>808</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>810</v>
+      </c>
+      <c r="B300" t="s">
+        <v>808</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>812</v>
+      </c>
+      <c r="B301" t="s">
+        <v>813</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>815</v>
+      </c>
+      <c r="B302" t="s">
+        <v>816</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>818</v>
+      </c>
+      <c r="B303" t="s">
+        <v>816</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>820</v>
+      </c>
+      <c r="B304" t="s">
+        <v>816</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>822</v>
+      </c>
+      <c r="B305" t="s">
+        <v>823</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>825</v>
+      </c>
+      <c r="B306" t="s">
+        <v>826</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>828</v>
+      </c>
+      <c r="B307" t="s">
+        <v>829</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>831</v>
+      </c>
+      <c r="B308" t="s">
+        <v>832</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>834</v>
+      </c>
+      <c r="B309" t="s">
+        <v>835</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>837</v>
+      </c>
+      <c r="B310" t="s">
+        <v>838</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>840</v>
+      </c>
+      <c r="B311" t="s">
+        <v>838</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>842</v>
+      </c>
+      <c r="B312" t="s">
+        <v>838</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>844</v>
+      </c>
+      <c r="B313" t="s">
+        <v>845</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>847</v>
+      </c>
+      <c r="B314" t="s">
+        <v>848</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>850</v>
+      </c>
+      <c r="B315" t="s">
+        <v>851</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>853</v>
+      </c>
+      <c r="B316" t="s">
+        <v>854</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>856</v>
+      </c>
+      <c r="B317" t="s">
+        <v>857</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>859</v>
+      </c>
+      <c r="B318" t="s">
+        <v>860</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>862</v>
+      </c>
+      <c r="B319" t="s">
+        <v>863</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>865</v>
+      </c>
+      <c r="B320" t="s">
+        <v>866</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>868</v>
+      </c>
+      <c r="B321" t="s">
+        <v>869</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>871</v>
+      </c>
+      <c r="B322" t="s">
+        <v>872</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>874</v>
+      </c>
+      <c r="B323" t="s">
+        <v>875</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>877</v>
+      </c>
+      <c r="B324" t="s">
+        <v>878</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>880</v>
+      </c>
+      <c r="B325" t="s">
+        <v>881</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>883</v>
+      </c>
+      <c r="B326" t="s">
+        <v>881</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>885</v>
+      </c>
+      <c r="B327" t="s">
+        <v>881</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>887</v>
+      </c>
+      <c r="B328" t="s">
+        <v>888</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>890</v>
+      </c>
+      <c r="B329" t="s">
+        <v>891</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>893</v>
+      </c>
+      <c r="B330" t="s">
+        <v>894</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>896</v>
+      </c>
+      <c r="B331" t="s">
+        <v>897</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>899</v>
+      </c>
+      <c r="B332" t="s">
+        <v>897</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>901</v>
+      </c>
+      <c r="B333" t="s">
+        <v>902</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>115</v>
+      </c>
+      <c r="B334" t="s">
+        <v>904</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>906</v>
+      </c>
+      <c r="B335" t="s">
+        <v>907</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>909</v>
+      </c>
+      <c r="B336" t="s">
+        <v>910</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>912</v>
+      </c>
+      <c r="B337" t="s">
+        <v>913</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>915</v>
+      </c>
+      <c r="B338" t="s">
+        <v>913</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>917</v>
+      </c>
+      <c r="B339" t="s">
+        <v>918</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>920</v>
+      </c>
+      <c r="B340" t="s">
+        <v>918</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>922</v>
+      </c>
+      <c r="B341" t="s">
+        <v>918</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>924</v>
+      </c>
+      <c r="B342" t="s">
+        <v>925</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>927</v>
+      </c>
+      <c r="B343" t="s">
+        <v>928</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>930</v>
+      </c>
+      <c r="B344" t="s">
+        <v>928</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>932</v>
+      </c>
+      <c r="B345" t="s">
+        <v>933</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>935</v>
+      </c>
+      <c r="B346" t="s">
+        <v>933</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>937</v>
+      </c>
+      <c r="B347" t="s">
+        <v>938</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>940</v>
+      </c>
+      <c r="B348" t="s">
+        <v>941</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>943</v>
+      </c>
+      <c r="B349" t="s">
+        <v>944</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>946</v>
+      </c>
+      <c r="B350" t="s">
+        <v>944</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>948</v>
+      </c>
+      <c r="B351" t="s">
+        <v>949</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>951</v>
+      </c>
+      <c r="B352" t="s">
+        <v>952</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>954</v>
+      </c>
+      <c r="B353" t="s">
+        <v>955</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>957</v>
+      </c>
+      <c r="B354" t="s">
+        <v>958</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>960</v>
+      </c>
+      <c r="B355" t="s">
+        <v>961</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>963</v>
+      </c>
+      <c r="B356" t="s">
+        <v>961</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>965</v>
+      </c>
+      <c r="B357" t="s">
+        <v>966</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>968</v>
+      </c>
+      <c r="B358" t="s">
+        <v>969</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>971</v>
+      </c>
+      <c r="B359" t="s">
+        <v>972</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>974</v>
+      </c>
+      <c r="B360" t="s">
+        <v>975</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>977</v>
+      </c>
+      <c r="B361" t="s">
+        <v>978</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>980</v>
+      </c>
+      <c r="B362" t="s">
+        <v>978</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>982</v>
+      </c>
+      <c r="B363" t="s">
+        <v>978</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>984</v>
+      </c>
+      <c r="B364" t="s">
+        <v>985</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>987</v>
+      </c>
+      <c r="B365" t="s">
+        <v>985</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>989</v>
+      </c>
+      <c r="B366" t="s">
+        <v>990</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>992</v>
+      </c>
+      <c r="B367" t="s">
+        <v>993</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>995</v>
+      </c>
+      <c r="B368" t="s">
+        <v>996</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>998</v>
+      </c>
+      <c r="B369" t="s">
+        <v>999</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -5692,6 +8706,166 @@
     <hyperlink ref="C260" r:id="rId259"/>
     <hyperlink ref="C261" r:id="rId260"/>
     <hyperlink ref="C262" r:id="rId261"/>
+    <hyperlink ref="C263" r:id="rId262"/>
+    <hyperlink ref="C264" r:id="rId263"/>
+    <hyperlink ref="C265" r:id="rId264"/>
+    <hyperlink ref="C266" r:id="rId265"/>
+    <hyperlink ref="C267" r:id="rId266"/>
+    <hyperlink ref="C268" r:id="rId267"/>
+    <hyperlink ref="C269" r:id="rId268"/>
+    <hyperlink ref="C270" r:id="rId269"/>
+    <hyperlink ref="C271" r:id="rId270"/>
+    <hyperlink ref="C272" r:id="rId271"/>
+    <hyperlink ref="C273" r:id="rId272"/>
+    <hyperlink ref="C274" r:id="rId273"/>
+    <hyperlink ref="C275" r:id="rId274"/>
+    <hyperlink ref="C276" r:id="rId275"/>
+    <hyperlink ref="C277" r:id="rId276"/>
+    <hyperlink ref="C278" r:id="rId277"/>
+    <hyperlink ref="C279" r:id="rId278"/>
+    <hyperlink ref="C280" r:id="rId279"/>
+    <hyperlink ref="C281" r:id="rId280"/>
+    <hyperlink ref="C282" r:id="rId281"/>
+    <hyperlink ref="C283" r:id="rId282"/>
+    <hyperlink ref="C284" r:id="rId283"/>
+    <hyperlink ref="C285" r:id="rId284"/>
+    <hyperlink ref="C286" r:id="rId285"/>
+    <hyperlink ref="C287" r:id="rId286"/>
+    <hyperlink ref="C288" r:id="rId287"/>
+    <hyperlink ref="C289" r:id="rId288"/>
+    <hyperlink ref="C290" r:id="rId289"/>
+    <hyperlink ref="C291" r:id="rId290"/>
+    <hyperlink ref="C292" r:id="rId291"/>
+    <hyperlink ref="C293" r:id="rId292"/>
+    <hyperlink ref="C294" r:id="rId293"/>
+    <hyperlink ref="C295" r:id="rId294"/>
+    <hyperlink ref="C296" r:id="rId295"/>
+    <hyperlink ref="C297" r:id="rId296"/>
+    <hyperlink ref="C298" r:id="rId297"/>
+    <hyperlink ref="C299" r:id="rId298"/>
+    <hyperlink ref="C300" r:id="rId299"/>
+    <hyperlink ref="C301" r:id="rId300"/>
+    <hyperlink ref="C302" r:id="rId301"/>
+    <hyperlink ref="C303" r:id="rId302"/>
+    <hyperlink ref="C304" r:id="rId303"/>
+    <hyperlink ref="C305" r:id="rId304"/>
+    <hyperlink ref="C306" r:id="rId305"/>
+    <hyperlink ref="C307" r:id="rId306"/>
+    <hyperlink ref="C308" r:id="rId307"/>
+    <hyperlink ref="C309" r:id="rId308"/>
+    <hyperlink ref="C310" r:id="rId309"/>
+    <hyperlink ref="C311" r:id="rId310"/>
+    <hyperlink ref="C312" r:id="rId311"/>
+    <hyperlink ref="C313" r:id="rId312"/>
+    <hyperlink ref="C314" r:id="rId313"/>
+    <hyperlink ref="C315" r:id="rId314"/>
+    <hyperlink ref="C316" r:id="rId315"/>
+    <hyperlink ref="C317" r:id="rId316"/>
+    <hyperlink ref="C318" r:id="rId317"/>
+    <hyperlink ref="C319" r:id="rId318"/>
+    <hyperlink ref="C320" r:id="rId319"/>
+    <hyperlink ref="C321" r:id="rId320"/>
+    <hyperlink ref="C322" r:id="rId321"/>
+    <hyperlink ref="C323" r:id="rId322"/>
+    <hyperlink ref="C324" r:id="rId323"/>
+    <hyperlink ref="C325" r:id="rId324"/>
+    <hyperlink ref="C326" r:id="rId325"/>
+    <hyperlink ref="C327" r:id="rId326"/>
+    <hyperlink ref="C328" r:id="rId327"/>
+    <hyperlink ref="C329" r:id="rId328"/>
+    <hyperlink ref="C330" r:id="rId329"/>
+    <hyperlink ref="C331" r:id="rId330"/>
+    <hyperlink ref="C332" r:id="rId331"/>
+    <hyperlink ref="C333" r:id="rId332"/>
+    <hyperlink ref="C334" r:id="rId333"/>
+    <hyperlink ref="C335" r:id="rId334"/>
+    <hyperlink ref="C336" r:id="rId335"/>
+    <hyperlink ref="C337" r:id="rId336"/>
+    <hyperlink ref="C338" r:id="rId337"/>
+    <hyperlink ref="C339" r:id="rId338"/>
+    <hyperlink ref="C340" r:id="rId339"/>
+    <hyperlink ref="C341" r:id="rId340"/>
+    <hyperlink ref="C342" r:id="rId341"/>
+    <hyperlink ref="C343" r:id="rId342"/>
+    <hyperlink ref="C344" r:id="rId343"/>
+    <hyperlink ref="C345" r:id="rId344"/>
+    <hyperlink ref="C346" r:id="rId345"/>
+    <hyperlink ref="C347" r:id="rId346"/>
+    <hyperlink ref="C348" r:id="rId347"/>
+    <hyperlink ref="C349" r:id="rId348"/>
+    <hyperlink ref="C350" r:id="rId349"/>
+    <hyperlink ref="C351" r:id="rId350"/>
+    <hyperlink ref="C352" r:id="rId351"/>
+    <hyperlink ref="C353" r:id="rId352"/>
+    <hyperlink ref="C354" r:id="rId353"/>
+    <hyperlink ref="C355" r:id="rId354"/>
+    <hyperlink ref="C356" r:id="rId355"/>
+    <hyperlink ref="C357" r:id="rId356"/>
+    <hyperlink ref="C358" r:id="rId357"/>
+    <hyperlink ref="C359" r:id="rId358"/>
+    <hyperlink ref="C360" r:id="rId359"/>
+    <hyperlink ref="C361" r:id="rId360"/>
+    <hyperlink ref="C362" r:id="rId361"/>
+    <hyperlink ref="C363" r:id="rId362"/>
+    <hyperlink ref="C364" r:id="rId363"/>
+    <hyperlink ref="C365" r:id="rId364"/>
+    <hyperlink ref="C366" r:id="rId365"/>
+    <hyperlink ref="C367" r:id="rId366"/>
+    <hyperlink ref="C368" r:id="rId367"/>
+    <hyperlink ref="C369" r:id="rId368"/>
+    <hyperlink ref="C370" r:id="rId369"/>
+    <hyperlink ref="C371" r:id="rId370"/>
+    <hyperlink ref="C372" r:id="rId371"/>
+    <hyperlink ref="C373" r:id="rId372"/>
+    <hyperlink ref="C374" r:id="rId373"/>
+    <hyperlink ref="C375" r:id="rId374"/>
+    <hyperlink ref="C376" r:id="rId375"/>
+    <hyperlink ref="C377" r:id="rId376"/>
+    <hyperlink ref="C378" r:id="rId377"/>
+    <hyperlink ref="C379" r:id="rId378"/>
+    <hyperlink ref="C380" r:id="rId379"/>
+    <hyperlink ref="C381" r:id="rId380"/>
+    <hyperlink ref="C382" r:id="rId381"/>
+    <hyperlink ref="C383" r:id="rId382"/>
+    <hyperlink ref="C384" r:id="rId383"/>
+    <hyperlink ref="C385" r:id="rId384"/>
+    <hyperlink ref="C386" r:id="rId385"/>
+    <hyperlink ref="C387" r:id="rId386"/>
+    <hyperlink ref="C388" r:id="rId387"/>
+    <hyperlink ref="C389" r:id="rId388"/>
+    <hyperlink ref="C390" r:id="rId389"/>
+    <hyperlink ref="C391" r:id="rId390"/>
+    <hyperlink ref="C392" r:id="rId391"/>
+    <hyperlink ref="C393" r:id="rId392"/>
+    <hyperlink ref="C394" r:id="rId393"/>
+    <hyperlink ref="C395" r:id="rId394"/>
+    <hyperlink ref="C396" r:id="rId395"/>
+    <hyperlink ref="C397" r:id="rId396"/>
+    <hyperlink ref="C398" r:id="rId397"/>
+    <hyperlink ref="C399" r:id="rId398"/>
+    <hyperlink ref="C400" r:id="rId399"/>
+    <hyperlink ref="C401" r:id="rId400"/>
+    <hyperlink ref="C402" r:id="rId401"/>
+    <hyperlink ref="C403" r:id="rId402"/>
+    <hyperlink ref="C404" r:id="rId403"/>
+    <hyperlink ref="C405" r:id="rId404"/>
+    <hyperlink ref="C406" r:id="rId405"/>
+    <hyperlink ref="C407" r:id="rId406"/>
+    <hyperlink ref="C408" r:id="rId407"/>
+    <hyperlink ref="C409" r:id="rId408"/>
+    <hyperlink ref="C410" r:id="rId409"/>
+    <hyperlink ref="C411" r:id="rId410"/>
+    <hyperlink ref="C412" r:id="rId411"/>
+    <hyperlink ref="C413" r:id="rId412"/>
+    <hyperlink ref="C414" r:id="rId413"/>
+    <hyperlink ref="C415" r:id="rId414"/>
+    <hyperlink ref="C416" r:id="rId415"/>
+    <hyperlink ref="C417" r:id="rId416"/>
+    <hyperlink ref="C418" r:id="rId417"/>
+    <hyperlink ref="C419" r:id="rId418"/>
+    <hyperlink ref="C420" r:id="rId419"/>
+    <hyperlink ref="C421" r:id="rId420"/>
+    <hyperlink ref="C422" r:id="rId421"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rent_info_beijingzufang.xlsx
+++ b/rent_info_beijingzufang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="1640">
   <si>
     <t>标题</t>
   </si>
@@ -25,6 +25,1512 @@
     <t>链接</t>
   </si>
   <si>
+    <t>8号线育新地铁站，4700转租育新花园一居室</t>
+  </si>
+  <si>
+    <t>04-10 16:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519776/" </t>
+  </si>
+  <si>
+    <t>上地，西二旗，软件园，马连洼，西北旺，两居次卧</t>
+  </si>
+  <si>
+    <t>04-10 16:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519750/" </t>
+  </si>
+  <si>
+    <t>朝阳区融中心旁，芍药居太阳宫地铁站10-13号步行地铁3-5分钟，圣馨家园物业直接租2000-3000真实图片电话微信18311229729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519717/" </t>
+  </si>
+  <si>
+    <t>10号线太阳宫地铁站新纪家园主卧转租，2900/元</t>
+  </si>
+  <si>
+    <t>04-10 16:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519639/" </t>
+  </si>
+  <si>
+    <t>人民日报社 团结湖 呼家楼北里两居中大次卧2800元</t>
+  </si>
+  <si>
+    <t>04-10 16:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519626/" </t>
+  </si>
+  <si>
+    <t>8号线瀛海 0中介出租 开间 一居室 两居室 三居室 带燃气民水民电</t>
+  </si>
+  <si>
+    <t>04-10 16:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519528/" </t>
+  </si>
+  <si>
+    <t>4号线首站金融街融汇小区两居室转租</t>
+  </si>
+  <si>
+    <t>04-10 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519498/" </t>
+  </si>
+  <si>
+    <t>立水桥地铁站立城苑小区出租两间大次卧2300，看房联系：18801109537，可加微，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519472/" </t>
+  </si>
+  <si>
+    <t>求租8号线地铁沿线两居室，中介勿扰！</t>
+  </si>
+  <si>
+    <t>04-10 15:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519445/" </t>
+  </si>
+  <si>
+    <t>长期出租清华校内楼房次卧主卧各种平房单间15901505876带独立卫浴餐卡一张</t>
+  </si>
+  <si>
+    <t>04-10 15:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519401/" </t>
+  </si>
+  <si>
+    <t>10/16号线丰台站 距离地铁站200米 三环新城七号院三居室 整租：7000🈷️ 分租：主卧阳台2600🈷️次卧2250🈷️✖️2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519397/" </t>
+  </si>
+  <si>
+    <t>个人直租</t>
+  </si>
+  <si>
+    <t>04-10 15:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519312/" </t>
+  </si>
+  <si>
+    <t>房东直租大兴枣园地铁四号线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519297/" </t>
+  </si>
+  <si>
+    <t>甜水园自主两居次卧出租（地铁6号14号）</t>
+  </si>
+  <si>
+    <t>04-10 15:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519227/" </t>
+  </si>
+  <si>
+    <t>天通苑。主卧独卫。服务费我出。有独立洗衣机。</t>
+  </si>
+  <si>
+    <t>04-10 15:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519212/" </t>
+  </si>
+  <si>
+    <t>9号线 科技园 诺德 万达 郭公庄 精装一居 押一付一 无中介</t>
+  </si>
+  <si>
+    <t>04-10 15:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519084/" </t>
+  </si>
+  <si>
+    <t>13号线龙泽地铁次卧转租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286519078/" </t>
+  </si>
+  <si>
+    <t>西城区临地铁陶然亭站、长椿街地铁，右安门内新安南里一居室出租 房东直租 无中介费</t>
+  </si>
+  <si>
+    <t>04-10 15:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518959/" </t>
+  </si>
+  <si>
+    <t>地铁五号线 北苑路北 暖山生活附近</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518951/" </t>
+  </si>
+  <si>
+    <t>10号线太阳宫地铁口50米，新纪家园3家朝南主卧，凯德，冠捷大厦附近15040107472</t>
+  </si>
+  <si>
+    <t>04-10 15:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518917/" </t>
+  </si>
+  <si>
+    <t>昌平区，地铁八号线 昌平线 双轨道朱辛庄地铁附近出租各种精装单间18911356664v</t>
+  </si>
+  <si>
+    <t>04-10 15:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518885/" </t>
+  </si>
+  <si>
+    <t>团结湖北三条，次卧出租2900 ，小次卧1800，无中介费</t>
+  </si>
+  <si>
+    <t>04-10 15:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518706/" </t>
+  </si>
+  <si>
+    <t>5号线北苑路北 主卧出租 1900/月</t>
+  </si>
+  <si>
+    <t>04-10 15:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518652/" </t>
+  </si>
+  <si>
+    <t>西二旗 燕尚园 小米旁边 上地元中心对面 四家一位 全女孩 空置朝北次卧飘窗2900 厅卧落地窗阳台3100欢迎咨询17611132405</t>
+  </si>
+  <si>
+    <t>04-10 15:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518622/" </t>
+  </si>
+  <si>
+    <t>【房东直租】5号线天通苑-主卧1间-独卫-民水电-首次出租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518611/" </t>
+  </si>
+  <si>
+    <t>回龙观东大街 华龙苑北里带电梯 次卧出租</t>
+  </si>
+  <si>
+    <t>04-10 15:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518495/" </t>
+  </si>
+  <si>
+    <t>1号线管庄双桥附近，朝南两室一厅整租，远洋一方润园6号院，简单装修</t>
+  </si>
+  <si>
+    <t>04-10 15:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518387/" </t>
+  </si>
+  <si>
+    <t>乐成豪丽，70平大一居，</t>
+  </si>
+  <si>
+    <t>04-10 15:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518268/" </t>
+  </si>
+  <si>
+    <t>酒仙桥芳园南里两居随时看房，联系方式微信15801622813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518241/" </t>
+  </si>
+  <si>
+    <t>通勤国贸 月付 一室一厅可做饭2300无其他费用</t>
+  </si>
+  <si>
+    <t>04-10 15:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518164/" </t>
+  </si>
+  <si>
+    <t>地铁十号线，成寿寺地铁口500米，金第润苑B区，三家合租南向大主卧采光杠杠滴，订房微信15175222815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518159/" </t>
+  </si>
+  <si>
+    <t>6号线物质学院路站两居两卫带衣帽间，全屋定制家居，需要V18311005357</t>
+  </si>
+  <si>
+    <t>04-10 15:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518112/" </t>
+  </si>
+  <si>
+    <t>中关村附近 | 4/10号线苏州街地铁站稻香园西里社区寻找一位靠谱室友</t>
+  </si>
+  <si>
+    <t>04-10 15:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286518066/" </t>
+  </si>
+  <si>
+    <t>求租 直租</t>
+  </si>
+  <si>
+    <t>04-10 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517903/" </t>
+  </si>
+  <si>
+    <t>我是房东，主卧独卫出租，押一付一，包物业取暖，无其他费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517883/" </t>
+  </si>
+  <si>
+    <t>【个人一居室整租】望京西地铁站旁北京香颂8000元/月</t>
+  </si>
+  <si>
+    <t>04-10 15:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517830/" </t>
+  </si>
+  <si>
+    <t>青年路，甘露园，朝阳无限，全女生合租房，三家两卫。随时看房。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517817/" </t>
+  </si>
+  <si>
+    <t>转租 望京 东湖渠地铁站 利泽西园大开间</t>
+  </si>
+  <si>
+    <t>04-10 15:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517685/" </t>
+  </si>
+  <si>
+    <t>六里桥附近房子主卧出租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517675/" </t>
+  </si>
+  <si>
+    <t>炫特嘉园 三居合租单间 月租2400 随时入住</t>
+  </si>
+  <si>
+    <t>04-10 15:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517555/" </t>
+  </si>
+  <si>
+    <t>帮转！求舍友！石佛营东里主卧！无中介！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517553/" </t>
+  </si>
+  <si>
+    <t>求两居室转租 房东直租</t>
+  </si>
+  <si>
+    <t>04-10 15:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517475/" </t>
+  </si>
+  <si>
+    <t>马连洼上地裕和嘉园主卧带阳台13832070623同v嘉华大厦硅谷亮城，百度网易滴滴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517465/" </t>
+  </si>
+  <si>
+    <t>求租丰台地区，16号线附近的两居，希望有电梯或者二三层</t>
+  </si>
+  <si>
+    <t>04-10 15:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517427/" </t>
+  </si>
+  <si>
+    <t>旧宫清逸园甲区次卧招租 1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517419/" </t>
+  </si>
+  <si>
+    <t>4号线西红门地铁站口主卧独卫 主卧阳台 大厅卧 次卧家具全新跟房东直签合同，无中介费。 小区出门200米就是地铁 通勤特别方便！</t>
+  </si>
+  <si>
+    <t>04-10 15:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517294/" </t>
+  </si>
+  <si>
+    <t>十号线成寿寺站，转租，限女生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517268/" </t>
+  </si>
+  <si>
+    <t>10号线太阳宫地铁口50米，新纪家园朝南主卧带独卫，免费维修，网络，双周保洁，冠捷大厦旁15040107472</t>
+  </si>
+  <si>
+    <t>04-10 15:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286517078/" </t>
+  </si>
+  <si>
+    <t>回龙观东大街，平西府，地铁8号线，精装大次卧，面积超大，价格便宜，拎包入住，看房联系18611032773同V</t>
+  </si>
+  <si>
+    <t>04-10 15:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516949/" </t>
+  </si>
+  <si>
+    <t>北京无中介租房群招个群主(中介勿扰)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516941/" </t>
+  </si>
+  <si>
+    <t>个人转租蒲黄榆站5号14号线大主卧带阳台转租</t>
+  </si>
+  <si>
+    <t>04-10 15:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516839/" </t>
+  </si>
+  <si>
+    <t>双桥地铁附件两居室整租</t>
+  </si>
+  <si>
+    <t>04-10 15:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516765/" </t>
+  </si>
+  <si>
+    <t>石景山古城地铁口四个月</t>
+  </si>
+  <si>
+    <t>04-10 15:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516702/" </t>
+  </si>
+  <si>
+    <t>南法信 东亚首航国际 开间 随时入住价格2700</t>
+  </si>
+  <si>
+    <t>04-10 15:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516651/" </t>
+  </si>
+  <si>
+    <t>个人转租 朱辛庄8号线 昌平线 电梯房 蛋壳装修</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516642/" </t>
+  </si>
+  <si>
+    <t>十里堡 八里庄北里中间楼层二居5500月底到期 看房提前约 电话13021135999</t>
+  </si>
+  <si>
+    <t>04-10 15:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516581/" </t>
+  </si>
+  <si>
+    <t>宋家庄地铁站附近300m</t>
+  </si>
+  <si>
+    <t>04-10 15:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516479/" </t>
+  </si>
+  <si>
+    <t>和平西桥环球贸易中心安外大街一居室</t>
+  </si>
+  <si>
+    <t>04-10 14:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516118/" </t>
+  </si>
+  <si>
+    <t>地铁8号线 安华桥站10号线 北土城站站 安贞西里 安华西里 安贞里 安华里 房东直租 无中介费 安贞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516110/" </t>
+  </si>
+  <si>
+    <t>转租独厨独卫开间 6号线地铁口 3850/月</t>
+  </si>
+  <si>
+    <t>04-10 14:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286516047/" </t>
+  </si>
+  <si>
+    <t>[转租]唐家岭新城东区T09 无中介费、近西二旗、中关村软件园</t>
+  </si>
+  <si>
+    <t>04-10 14:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515884/" </t>
+  </si>
+  <si>
+    <t>求租！！回龙观东大街【上坡嘉园】的房子，整租！！！</t>
+  </si>
+  <si>
+    <t>04-10 14:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515827/" </t>
+  </si>
+  <si>
+    <t>求租！马连洼，西北旺和农大南路地铁站附近一居室或者主卧独卫，等一个有缘人。中介勿扰！</t>
+  </si>
+  <si>
+    <t>04-10 14:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515789/" </t>
+  </si>
+  <si>
+    <t>个人出租，地铁五号线天通苑站，可免押金，可月付房租，600到3000大小单间，主卧独卫，北漂一族租房首选</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515774/" </t>
+  </si>
+  <si>
+    <t>五号线天通苑自家房子出租，采光好精装修，房租每月700，1500 租金押一付一</t>
+  </si>
+  <si>
+    <t>04-10 14:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515629/" </t>
+  </si>
+  <si>
+    <t>市中心离地铁五分钟 东城区平房一室一厅 （免中介费）2960/月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515617/" </t>
+  </si>
+  <si>
+    <t>14号线方庄站10米小区正规阳光次卧招女生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515614/" </t>
+  </si>
+  <si>
+    <t>【房东直租】15号线孙河地铁站，瑞悦府，89平三居，7500</t>
+  </si>
+  <si>
+    <t>04-10 14:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515591/" </t>
+  </si>
+  <si>
+    <t>六号线物资学院三户朝南主卧阳台，次卧飘窗，🉑整租🉑分租，🉑押一付一，下楼地铁站，没有中介费包物业取暖，有意17710028902</t>
+  </si>
+  <si>
+    <t>04-10 14:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515532/" </t>
+  </si>
+  <si>
+    <t>【个人】女生合租1500/月 北师大附近 积水潭地铁</t>
+  </si>
+  <si>
+    <t>04-10 14:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515488/" </t>
+  </si>
+  <si>
+    <t>求租15号线南法信地铁站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515472/" </t>
+  </si>
+  <si>
+    <t>地铁昌平线，沙河地铁站，兆丰家园，主卧2000.次卧1550.单间1100.个人直租，没有中介费，可租3-6月</t>
+  </si>
+  <si>
+    <t>04-10 14:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515437/" </t>
+  </si>
+  <si>
+    <t>求整租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515426/" </t>
+  </si>
+  <si>
+    <t>5号线天通苑站，西三区，个人房子出租，可以押一付一，包物业取暖，走路5分钟到地铁，主卧独卫，阳台次卧，温馨单间！</t>
+  </si>
+  <si>
+    <t>04-10 14:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515328/" </t>
+  </si>
+  <si>
+    <t>（找女生室友）望京&amp;amp;崔各庄次卧出租</t>
+  </si>
+  <si>
+    <t>04-10 14:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515279/" </t>
+  </si>
+  <si>
+    <t>中关村南大街魏公村韦伯豪大主卧出租 看房方便 拎包入住</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515247/" </t>
+  </si>
+  <si>
+    <t>朝阳东五环北影公寓家具全齐独立卫浴押一付一可短签免费停车1999元门口有公交园区有班车直达6号线褡裢坡（个人）</t>
+  </si>
+  <si>
+    <t>04-10 14:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515209/" </t>
+  </si>
+  <si>
+    <t>求租上岸地铁站附近的房子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515202/" </t>
+  </si>
+  <si>
+    <t>5号线15号线大屯路东安慧北里三房找合租女生2500</t>
+  </si>
+  <si>
+    <t>04-10 14:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515186/" </t>
+  </si>
+  <si>
+    <t>东坝丽湾家园 南向两居室 房东直租</t>
+  </si>
+  <si>
+    <t>04-10 14:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515101/" </t>
+  </si>
+  <si>
+    <t>个人出租苹果社区南区一居室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515088/" </t>
+  </si>
+  <si>
+    <t>求租13号线立水桥地铁站大次卧！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515083/" </t>
+  </si>
+  <si>
+    <t>出租车道沟南里30号楼精装单人间看房随时哦</t>
+  </si>
+  <si>
+    <t>04-10 14:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286515019/" </t>
+  </si>
+  <si>
+    <t>天通苑地铁五号线次卧出租</t>
+  </si>
+  <si>
+    <t>04-10 14:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514925/" </t>
+  </si>
+  <si>
+    <t>CBD周围上班的小伙伴猛戳！仅限菇凉！绝对个人出租，中介勿扰！</t>
+  </si>
+  <si>
+    <t>04-10 14:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514893/" </t>
+  </si>
+  <si>
+    <t>个人转租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514890/" </t>
+  </si>
+  <si>
+    <t>个人出租金台路6号线/14号线朝南次卧女生一人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514882/" </t>
+  </si>
+  <si>
+    <t>6号线北关站永顺南里二号院主卧带阳台1600就租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514878/" </t>
+  </si>
+  <si>
+    <t>近望京，地铁15号线马泉营，三家合租朝南主卧带飘窗1900，空房随时入住</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514867/" </t>
+  </si>
+  <si>
+    <t>纯个人房东直租二居室 4号线清源路地铁站300米</t>
+  </si>
+  <si>
+    <t>04-10 14:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514721/" </t>
+  </si>
+  <si>
+    <t>纯个人房东直租两居室，4号线清源路地铁站300米</t>
+  </si>
+  <si>
+    <t>04-10 14:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514599/" </t>
+  </si>
+  <si>
+    <t>求租次卧，3000以内，男生一个人住</t>
+  </si>
+  <si>
+    <t>04-10 14:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514544/" </t>
+  </si>
+  <si>
+    <t>🌞中介勿扰 青年路 褡裢坡 定福家园 地铁200米 有宠物 有小孩勿扰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514518/" </t>
+  </si>
+  <si>
+    <t>丰台 六里桥东9号线 两家合租 主卧带阳台 免押金 可月付 无中介</t>
+  </si>
+  <si>
+    <t>04-10 14:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514476/" </t>
+  </si>
+  <si>
+    <t>朝阳区花家地小区，距离望京SOHO骑自行车10分钟，阜通地铁站附近。</t>
+  </si>
+  <si>
+    <t>04-10 14:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514451/" </t>
+  </si>
+  <si>
+    <t>个人转租 主卧独卫 通州区一号七号线双地铁临河里 高楼金地铁口 环球影城附近 嘉州阳光苑南区南向主卧独卫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514425/" </t>
+  </si>
+  <si>
+    <t>求租一居或两居</t>
+  </si>
+  <si>
+    <t>04-10 14:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514393/" </t>
+  </si>
+  <si>
+    <t>转让各种闲置家具用品 跑步机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514380/" </t>
+  </si>
+  <si>
+    <t>学院路北航校区学生宿舍床位出租</t>
+  </si>
+  <si>
+    <t>04-10 14:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514245/" </t>
+  </si>
+  <si>
+    <t>回龙观龙泽地铁附近个人转租次卧2200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514236/" </t>
+  </si>
+  <si>
+    <t>含泪转租沙河地铁附近于辛庄村天利合公寓1900/月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514226/" </t>
+  </si>
+  <si>
+    <t>安慧北里逸园小区（金鼎轩后面），高楼层，距离地铁站步行5分钟，楼下商超菜市场应有尽有，生活便利，闹中取静。</t>
+  </si>
+  <si>
+    <t>04-10 14:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514201/" </t>
+  </si>
+  <si>
+    <t>求租昌平县城整租</t>
+  </si>
+  <si>
+    <t>04-10 14:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514144/" </t>
+  </si>
+  <si>
+    <t>丰台求租</t>
+  </si>
+  <si>
+    <t>04-10 14:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514034/" </t>
+  </si>
+  <si>
+    <t>一号线地铁通州北苑站 次卧出租 1750 随时可以看房 15811598763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514025/" </t>
+  </si>
+  <si>
+    <t>房东直租 | 马家堡4号线/10号线两居室出租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286514007/" </t>
+  </si>
+  <si>
+    <t>西直门，新街口地铁，凯德MALL，北大人民医院附近，玉桃园二区，出租精装主卧次卧</t>
+  </si>
+  <si>
+    <t>04-10 14:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513958/" </t>
+  </si>
+  <si>
+    <t>个人转租-大屯路东地铁站附近小区，全女生合租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513936/" </t>
+  </si>
+  <si>
+    <t>求租海淀两室或三居室，带小学学位，谢谢</t>
+  </si>
+  <si>
+    <t>04-10 14:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513840/" </t>
+  </si>
+  <si>
+    <t>10/13号线芍药居太阳宫主卧次卧独卫</t>
+  </si>
+  <si>
+    <t>04-10 14:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513787/" </t>
+  </si>
+  <si>
+    <t>6号线十里堡朝阳公园石佛营西里3室1厅1卫押一付一2000</t>
+  </si>
+  <si>
+    <t>04-10 14:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513699/" </t>
+  </si>
+  <si>
+    <t>6号线｜草房地铁站｜个人转租中弘像素南区 独厨独卫</t>
+  </si>
+  <si>
+    <t>04-10 14:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513443/" </t>
+  </si>
+  <si>
+    <t>地铁5分钟8/13号线，霍营龙跃苑东五区次卧2500元招租，125平米住3人~~~~</t>
+  </si>
+  <si>
+    <t>04-10 14:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513400/" </t>
+  </si>
+  <si>
+    <t>16号线永丰站，友谊嘉园，3家合租朝南落地窗，2200，押一付一，电梯房，紧邻中关村壹号，用友产业园，17320801606 （同微信）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513358/" </t>
+  </si>
+  <si>
+    <t>芍药居次卧转租2600</t>
+  </si>
+  <si>
+    <t>04-10 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513299/" </t>
+  </si>
+  <si>
+    <t>昌平线13号线西二旗地铁站精装修出租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513287/" </t>
+  </si>
+  <si>
+    <t>地铁6号线杨庄精装一居</t>
+  </si>
+  <si>
+    <t>04-10 13:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513215/" </t>
+  </si>
+  <si>
+    <t>和平街十五区两居室主卧带阳台 13号线光熙门地铁附近</t>
+  </si>
+  <si>
+    <t>04-10 13:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286513050/" </t>
+  </si>
+  <si>
+    <t>6号线 草房地铁口 北京像素南区10号楼 loft户型 此卧室在楼上 是整套房间里最大的卧室 两个卫生间都可以用。包物业取暖。2000就租</t>
+  </si>
+  <si>
+    <t>04-10 13:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512854/" </t>
+  </si>
+  <si>
+    <t>沙河地铁口全新一居出租，整租，有厨房卫生间，全新冰箱洗衣机空调，有暖气，租金可月付，随时可看房。</t>
+  </si>
+  <si>
+    <t>04-10 13:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512767/" </t>
+  </si>
+  <si>
+    <t>朝阳精装公寓 7号线沿线 百子湾 双合 垡头</t>
+  </si>
+  <si>
+    <t>04-10 13:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512711/" </t>
+  </si>
+  <si>
+    <t>5号线 北苑路北 大屯路东立水桥南 需要租房的请看过来！！！！</t>
+  </si>
+  <si>
+    <t>04-10 13:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512690/" </t>
+  </si>
+  <si>
+    <t>青年路姚家园西里五号院主卧带阳台2400转租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512655/" </t>
+  </si>
+  <si>
+    <t>九棵树90平两居室次卧找女室友</t>
+  </si>
+  <si>
+    <t>04-10 13:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512626/" </t>
+  </si>
+  <si>
+    <t>6号线，物资学院路，新建村3号院，豪华装修，正规主卧朝南，首次出租，中央空调，黄金楼层</t>
+  </si>
+  <si>
+    <t>04-10 13:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512597/" </t>
+  </si>
+  <si>
+    <t>★出租五道口六道口地铁站附近大学周边精装好房！整租分租都可以！</t>
+  </si>
+  <si>
+    <t>04-10 13:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512453/" </t>
+  </si>
+  <si>
+    <t>青年路【独卫大窗主卧】自如转租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512451/" </t>
+  </si>
+  <si>
+    <t>东旺胡同18平单间带厨房，房东直租，近府学胡同。</t>
+  </si>
+  <si>
+    <t>04-10 13:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512299/" </t>
+  </si>
+  <si>
+    <t>望京南湖东园2区2600每月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512264/" </t>
+  </si>
+  <si>
+    <t>找整租 北沙滩 南沙滩 大屯 干湿分明</t>
+  </si>
+  <si>
+    <t>04-10 13:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512230/" </t>
+  </si>
+  <si>
+    <t>大望路红庙青年路四惠东 精装大阳台大次卧 房东直租 限女</t>
+  </si>
+  <si>
+    <t>04-10 13:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512134/" </t>
+  </si>
+  <si>
+    <t>通州六号线北运河西站武夷花园两居室</t>
+  </si>
+  <si>
+    <t>04-10 13:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286512050/" </t>
+  </si>
+  <si>
+    <t>西二旗铭科苑房东直租</t>
+  </si>
+  <si>
+    <t>04-10 13:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511982/" </t>
+  </si>
+  <si>
+    <t>十号线十四号线十里河 精装公寓个人出租</t>
+  </si>
+  <si>
+    <t>04-10 13:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511932/" </t>
+  </si>
+  <si>
+    <t>求租4月16号左右租期2个月</t>
+  </si>
+  <si>
+    <t>04-10 13:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511892/" </t>
+  </si>
+  <si>
+    <t>求租北土城地铁站一主卧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511874/" </t>
+  </si>
+  <si>
+    <t>个人求租开间或者一居</t>
+  </si>
+  <si>
+    <t>04-10 13:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511786/" </t>
+  </si>
+  <si>
+    <t>个人急转西北旺地铁 西山锦绣府小次卧 1900 软件园的蓝 非诚勿扰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511785/" </t>
+  </si>
+  <si>
+    <t>六里桥-纪家庙附近求租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511769/" </t>
+  </si>
+  <si>
+    <t>北京亦庄求租</t>
+  </si>
+  <si>
+    <t>04-10 13:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511744/" </t>
+  </si>
+  <si>
+    <t>地铁🚇6号线 北关站 两居室 价格美丽～</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511731/" </t>
+  </si>
+  <si>
+    <t>地铁7号线湾子站马连道格调小区一居室</t>
+  </si>
+  <si>
+    <t>04-10 13:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511482/" </t>
+  </si>
+  <si>
+    <t>个人老住户出租——4号14号线北京南站主卧便宜出租三四十分钟到国贸望京</t>
+  </si>
+  <si>
+    <t>04-10 13:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511392/" </t>
+  </si>
+  <si>
+    <t>个人转租-亦庄经济开发区，中介勿扰</t>
+  </si>
+  <si>
+    <t>04-10 13:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511231/" </t>
+  </si>
+  <si>
+    <t>林奥嘉园单间 最近地铁是5号线，北苑路北</t>
+  </si>
+  <si>
+    <t>04-10 13:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511148/" </t>
+  </si>
+  <si>
+    <t>【个人急转】昌平回龙观云趣园一区主卧转租</t>
+  </si>
+  <si>
+    <t>04-10 13:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511098/" </t>
+  </si>
+  <si>
+    <t>转租|无中介费，次渠怡芳园南向此次卧1400，17号线亦庄线</t>
+  </si>
+  <si>
+    <t>04-10 13:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286511014/" </t>
+  </si>
+  <si>
+    <t>【求租】京旺家园/康营家园一居室，两人居住带一猫，预算4500以下</t>
+  </si>
+  <si>
+    <t>04-10 13:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510936/" </t>
+  </si>
+  <si>
+    <t>朝阳公园 蓝色港湾 亮马河 中信证券附近 枣营北里精装两居室出租</t>
+  </si>
+  <si>
+    <t>04-10 13:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510840/" </t>
+  </si>
+  <si>
+    <t>中关村软件园，百度科技园旁 东旭园，3家合租朝南带阳台，3100/月，腾讯，新浪，网易，滴滴，走路就到，17320801606（同微信）</t>
+  </si>
+  <si>
+    <t>04-10 13:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510745/" </t>
+  </si>
+  <si>
+    <t>房东直租 东四环石佛营六号线十里堡复式南卧2850元/月</t>
+  </si>
+  <si>
+    <t>04-10 13:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510648/" </t>
+  </si>
+  <si>
+    <t>广渠门外 7号线 东二环富力城E区 拎包入住 二次装修 业主直租无中介费</t>
+  </si>
+  <si>
+    <t>04-10 13:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510620/" </t>
+  </si>
+  <si>
+    <t>高碑店转租3250主卧，限女</t>
+  </si>
+  <si>
+    <t>04-10 13:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510531/" </t>
+  </si>
+  <si>
+    <t>北京像素出租转租急需转租，低价转租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510522/" </t>
+  </si>
+  <si>
+    <t>2600转33天 望京 花家地 三楼两居次卧</t>
+  </si>
+  <si>
+    <t>04-10 13:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510424/" </t>
+  </si>
+  <si>
+    <t>对外出租—整租2居室，6500元，瑞平家园</t>
+  </si>
+  <si>
+    <t>04-10 13:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510316/" </t>
+  </si>
+  <si>
+    <t>国贸CBD呼家楼团结湖三里屯周边个人转租，家具齐全随时入住~</t>
+  </si>
+  <si>
+    <t>04-10 13:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510272/" </t>
+  </si>
+  <si>
+    <t>求租｜安贞门、惠新西街南口附近｜两局居或三居的南向卧室</t>
+  </si>
+  <si>
+    <t>04-10 12:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286510093/" </t>
+  </si>
+  <si>
+    <t>房东直租~朝南主卧~十里堡北里地铁站</t>
+  </si>
+  <si>
+    <t>04-10 12:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509911/" </t>
+  </si>
+  <si>
+    <t>求租阳台主卧 大钟寺、知春路、五道口地铁站附近</t>
+  </si>
+  <si>
+    <t>04-10 12:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509814/" </t>
+  </si>
+  <si>
+    <t>房东直租-招女生室友，4号线，19号线新宫整租的两居室2500／月，无中介费</t>
+  </si>
+  <si>
+    <t>04-10 12:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509767/" </t>
+  </si>
+  <si>
+    <t>【求租】两居，6号线东线和八通线，5月初入住</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509716/" </t>
+  </si>
+  <si>
+    <t>10号线慈寿寺，6号线海淀五路居，玲珑路，恩济里小区，稀有固定车位</t>
+  </si>
+  <si>
+    <t>04-10 12:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509690/" </t>
+  </si>
+  <si>
+    <t>转租｜石榴庄宋家庄地铁｜💰2772</t>
+  </si>
+  <si>
+    <t>04-10 12:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509639/" </t>
+  </si>
+  <si>
+    <t>个人转租一室一厅公寓，G9创意园，近6号线青年路，公交平房东口</t>
+  </si>
+  <si>
+    <t>04-10 12:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509599/" </t>
+  </si>
+  <si>
+    <t>亚运村 六道口 西土城附近女生求租房</t>
+  </si>
+  <si>
+    <t>04-10 12:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509474/" </t>
+  </si>
+  <si>
+    <t>地铁六号线褡裢坡站，业主直租一居室朝南高层电梯房</t>
+  </si>
+  <si>
+    <t>04-10 12:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509309/" </t>
+  </si>
+  <si>
+    <t>求租 崔各庄 瑞平家园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509281/" </t>
+  </si>
+  <si>
+    <t>1号线传媒大学珠江绿洲小开间独立厨房独立阳台2000</t>
+  </si>
+  <si>
+    <t>04-10 12:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286509095/" </t>
+  </si>
+  <si>
+    <t>后厂村地铁16号线马连洼地铁站百旺家苑南向次卧转租</t>
+  </si>
+  <si>
+    <t>04-10 12:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508955/" </t>
+  </si>
+  <si>
+    <t>稻田地铁步行8分钟 两家合住 正规卧室1700 直达丰台科技园方向方便快捷 无中介费</t>
+  </si>
+  <si>
+    <t>04-10 12:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508844/" </t>
+  </si>
+  <si>
+    <t>14号线方庄十里河10号线潘家园双井 /国贸/金台夕照呼家楼团结湖亮马桥三元桥太阳宫三角钢琴小阳台大主卧就像一居室月付一人3180【纯个人】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508838/" </t>
+  </si>
+  <si>
+    <t>求租石景山一居或开间，找房东直租中介勿扰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508813/" </t>
+  </si>
+  <si>
+    <t>朝阳区青年路朝阳大悦城附近1号线6号线</t>
+  </si>
+  <si>
+    <t>04-10 12:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508698/" </t>
+  </si>
+  <si>
+    <t>旧宫主卧出租，价格合适，无其他费用</t>
+  </si>
+  <si>
+    <t>04-10 12:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508671/" </t>
+  </si>
+  <si>
+    <t>航天城后厂村中关村软件园精装超大全南两居室，黄金二楼。客厅超大面宽7700/月</t>
+  </si>
+  <si>
+    <t>04-10 12:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508599/" </t>
+  </si>
+  <si>
+    <t>海淀农大南路万树园次卧转租2130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508570/" </t>
+  </si>
+  <si>
+    <t>同屋不同床室友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508552/" </t>
+  </si>
+  <si>
+    <t>工体 东大桥 三里屯</t>
+  </si>
+  <si>
+    <t>04-10 12:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508357/" </t>
+  </si>
+  <si>
+    <t>求租，远洋国际中心实习三个月，求附近合租，希望纯女生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508356/" </t>
+  </si>
+  <si>
+    <t>大悦城，朝阳无限，主卧2600/月，押一付一</t>
+  </si>
+  <si>
+    <t>04-10 12:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508146/" </t>
+  </si>
+  <si>
+    <t>个人转租两居室，丰台区张郭庄地铁站，3800元/月，无其他费用，4月底可入住</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286508107/" </t>
+  </si>
+  <si>
+    <t>个人转租｜朝阳东三环内，2600/月，房东直租</t>
+  </si>
+  <si>
+    <t>04-10 12:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286507956/" </t>
+  </si>
+  <si>
+    <t>个人出租亦庄附近小公寓1800元/月，通69公交车20-30分钟直达亦庄站1站到京东总部，位置紫薇小镇，生活区超大超方便</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286507926/" </t>
+  </si>
+  <si>
+    <t>🔥【0中介费房东直租】🈷️付，0押金🉑️短～租，西二旗西北旺主卧次卧独卫1000❗️两居三居3000❗️快手小米软件园百度网易</t>
+  </si>
+  <si>
+    <t>04-10 12:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286507663/" </t>
+  </si>
+  <si>
+    <t>个人，五号线，天通苑地铁站，月付，包物业取暖600-2500临地铁，品牌家装，家电，民水民电</t>
+  </si>
+  <si>
+    <t>04-10 12:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286507397/" </t>
+  </si>
+  <si>
+    <t>求整租三居室，工作地点在望京</t>
+  </si>
+  <si>
+    <t>04-10 12:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.douban.com/group/topic/286507242/" </t>
+  </si>
+  <si>
     <t>八宝山地铁万达永乐鲁谷两居室出租</t>
   </si>
   <si>
@@ -223,9 +1729,6 @@
     <t xml:space="preserve">https://www.douban.com/group/topic/286505234/" </t>
   </si>
   <si>
-    <t>★出租五道口六道口地铁站附近大学周边精装好房！整租分租都可以！</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.douban.com/group/topic/286505218/" </t>
   </si>
   <si>
@@ -886,9 +2389,6 @@
     <t xml:space="preserve">https://www.douban.com/group/topic/286500279/" </t>
   </si>
   <si>
-    <t>个人转租</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.douban.com/group/topic/286500265/" </t>
   </si>
   <si>
@@ -1987,18 +3487,12 @@
     <t xml:space="preserve">https://www.douban.com/group/topic/286486173/" </t>
   </si>
   <si>
-    <t>五号线天通苑自家房子出租，采光好精装修，房租每月700，1500 租金押一付一</t>
-  </si>
-  <si>
     <t>04-09 22:42</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.douban.com/group/topic/286486135/" </t>
   </si>
   <si>
-    <t>个人出租，地铁五号线天通苑站，可免押金，可月付房租，600到3000大小单间，主卧独卫，北漂一族租房首选</t>
-  </si>
-  <si>
     <t>04-09 22:41</t>
   </si>
   <si>
@@ -2239,9 +3733,6 @@
     <t xml:space="preserve">https://www.douban.com/group/topic/286483603/" </t>
   </si>
   <si>
-    <t>个人，五号线，天通苑地铁站，月付，包物业取暖600-2500临地铁，品牌家装，家电，民水民电</t>
-  </si>
-  <si>
     <t>04-09 22:00</t>
   </si>
   <si>
@@ -3095,9 +4586,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.douban.com/group/topic/286472601/" </t>
-  </si>
-  <si>
-    <t>六号线物资学院三户朝南主卧阳台，次卧飘窗，🉑整租🉑分租，🉑押一付一，下楼地铁站，没有中介费包物业取暖，有意17710028902</t>
   </si>
   <si>
     <t>04-09 18:56</t>
@@ -3790,7 +5278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C422"/>
+  <dimension ref="A1:C609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3828,18 +5316,18 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -3916,40 +5404,40 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>37</v>
@@ -3960,2075 +5448,2075 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
         <v>176</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B86" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s">
         <v>228</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B90" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B92" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B98" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B101" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" t="s">
         <v>263</v>
       </c>
-      <c r="B102" t="s">
-        <v>264</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B103" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B104" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>280</v>
+      </c>
+      <c r="B107" t="s">
         <v>276</v>
       </c>
-      <c r="B107" t="s">
-        <v>277</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B108" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B109" t="s">
         <v>283</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B110" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B111" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B114" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B115" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B116" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B117" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B118" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B119" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B121" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B122" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B125" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B126" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B127" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B128" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B129" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B130" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B131" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B132" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B133" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B134" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B135" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B136" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B137" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B138" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B139" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B140" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B141" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B142" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B143" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B144" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B145" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B146" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B147" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B148" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B149" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B150" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B151" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B152" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B153" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B154" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B155" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B156" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B157" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B158" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B159" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B160" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B161" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B162" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B163" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B164" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B165" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B166" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B167" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B168" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B169" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B170" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B171" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B172" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B173" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B174" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B175" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B176" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B177" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B178" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B179" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B180" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B181" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B182" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B183" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B184" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B185" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B186" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B187" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B188" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B189" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B190" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B191" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B192" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B193" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B194" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B195" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B196" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B197" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B198" t="s">
         <v>528</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B199" t="s">
         <v>528</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B200" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B201" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
+        <v>540</v>
+      </c>
+      <c r="B202" t="s">
         <v>538</v>
       </c>
-      <c r="B202" t="s">
-        <v>539</v>
-      </c>
       <c r="C202" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B203" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>543</v>
@@ -6039,2408 +7527,4465 @@
         <v>544</v>
       </c>
       <c r="B204" t="s">
+        <v>538</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
+        <v>546</v>
+      </c>
+      <c r="B205" t="s">
         <v>547</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
+        <v>549</v>
+      </c>
+      <c r="B206" t="s">
+        <v>547</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="B206" t="s">
-        <v>551</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B207" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B208" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B209" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B210" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B211" t="s">
+        <v>562</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B212" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B213" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B214" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>576</v>
+        <v>335</v>
       </c>
       <c r="B215" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B216" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B217" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B218" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B219" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B220" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B221" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B222" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B223" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B224" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B225" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B226" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B227" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B228" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B229" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B230" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B231" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B232" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B233" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B234" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B235" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B236" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B237" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B238" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B239" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B240" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B241" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B242" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B243" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B244" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B245" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B246" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B247" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B248" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B249" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B250" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B251" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B252" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B253" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="B254" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="B255" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="B256" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="B257" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="B258" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="B259" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="B260" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="B261" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="B262" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="B263" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="B264" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="B265" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="B266" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="B267" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="B268" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="B269" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="B270" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="B271" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="B272" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="B273" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="B274" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="B275" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="B276" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="B277" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="B278" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="B279" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="B280" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="B281" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="B282" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="B283" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="B284" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="B285" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="B286" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="B287" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="B288" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="B289" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="B290" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="B291" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="B292" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="B293" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="B294" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="B295" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="B296" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="B297" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="B298" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>807</v>
+        <v>230</v>
       </c>
       <c r="B299" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="B300" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="B301" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="B302" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="B303" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="B304" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="B305" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="B306" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="B307" t="s">
-        <v>829</v>
+        <v>802</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="B308" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="B309" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="B310" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="B311" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="B312" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="B313" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="B314" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="B315" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="B316" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="B317" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="B318" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="B319" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="B320" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="B321" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="B322" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="B323" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B324" t="s">
-        <v>878</v>
+        <v>853</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
       <c r="B325" t="s">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="B326" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
       <c r="B327" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="B328" t="s">
-        <v>888</v>
+        <v>863</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
       <c r="B329" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="B330" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
       <c r="B331" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="B332" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
       <c r="B333" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>115</v>
+        <v>881</v>
       </c>
       <c r="B334" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
       <c r="B335" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>908</v>
+        <v>885</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
       <c r="B336" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>911</v>
+        <v>888</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
       <c r="B337" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>914</v>
+        <v>891</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
       <c r="B338" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>916</v>
+        <v>893</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
       <c r="B339" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="B340" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
       <c r="B341" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="B342" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="B343" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="B344" t="s">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
       <c r="B345" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
       <c r="B346" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
       <c r="B347" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="B348" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="B349" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="B350" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="B351" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="B352" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="B353" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="B354" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="B355" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
       <c r="B356" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="B357" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
       <c r="B358" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
       <c r="B359" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>974</v>
+        <v>954</v>
       </c>
       <c r="B360" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="B361" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="B362" t="s">
-        <v>978</v>
+        <v>960</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>981</v>
+        <v>961</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="B363" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="B364" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>987</v>
+        <v>968</v>
       </c>
       <c r="B365" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>988</v>
+        <v>970</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>989</v>
+        <v>971</v>
       </c>
       <c r="B366" t="s">
-        <v>990</v>
+        <v>972</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>991</v>
+        <v>973</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>992</v>
+        <v>974</v>
       </c>
       <c r="B367" t="s">
-        <v>993</v>
+        <v>975</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="B368" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="B369" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1000</v>
+        <v>982</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="B370" t="s">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>1004</v>
+        <v>986</v>
       </c>
       <c r="B371" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="B372" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>1010</v>
+        <v>992</v>
       </c>
       <c r="B373" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="B374" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="B375" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="B376" t="s">
-        <v>1019</v>
+        <v>999</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="B377" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="B378" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
       <c r="B379" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1029</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="B380" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="B381" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="B382" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="B383" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="B384" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="B385" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="B386" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
       <c r="B387" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="B388" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="B389" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="B390" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="B391" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="B392" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="B393" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="B394" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="B395" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="B396" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="B397" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="B398" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="B399" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="B400" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="B401" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="B402" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="B403" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="B404" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="B405" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="B406" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="B407" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="B408" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="B409" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="B410" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="B411" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="B412" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="B413" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="B414" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="B415" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="B416" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="B417" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="B418" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="B419" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="B420" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="B421" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B425" t="s">
         <v>1141</v>
       </c>
-      <c r="B422" t="s">
+      <c r="C425" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C422" s="1" t="s">
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
         <v>1143</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>175</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>173</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>499</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>616</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" t="s">
+        <v>185</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>1639</v>
       </c>
     </row>
   </sheetData>
@@ -8866,6 +12411,193 @@
     <hyperlink ref="C420" r:id="rId419"/>
     <hyperlink ref="C421" r:id="rId420"/>
     <hyperlink ref="C422" r:id="rId421"/>
+    <hyperlink ref="C423" r:id="rId422"/>
+    <hyperlink ref="C424" r:id="rId423"/>
+    <hyperlink ref="C425" r:id="rId424"/>
+    <hyperlink ref="C426" r:id="rId425"/>
+    <hyperlink ref="C427" r:id="rId426"/>
+    <hyperlink ref="C428" r:id="rId427"/>
+    <hyperlink ref="C429" r:id="rId428"/>
+    <hyperlink ref="C430" r:id="rId429"/>
+    <hyperlink ref="C431" r:id="rId430"/>
+    <hyperlink ref="C432" r:id="rId431"/>
+    <hyperlink ref="C433" r:id="rId432"/>
+    <hyperlink ref="C434" r:id="rId433"/>
+    <hyperlink ref="C435" r:id="rId434"/>
+    <hyperlink ref="C436" r:id="rId435"/>
+    <hyperlink ref="C437" r:id="rId436"/>
+    <hyperlink ref="C438" r:id="rId437"/>
+    <hyperlink ref="C439" r:id="rId438"/>
+    <hyperlink ref="C440" r:id="rId439"/>
+    <hyperlink ref="C441" r:id="rId440"/>
+    <hyperlink ref="C442" r:id="rId441"/>
+    <hyperlink ref="C443" r:id="rId442"/>
+    <hyperlink ref="C444" r:id="rId443"/>
+    <hyperlink ref="C445" r:id="rId444"/>
+    <hyperlink ref="C446" r:id="rId445"/>
+    <hyperlink ref="C447" r:id="rId446"/>
+    <hyperlink ref="C448" r:id="rId447"/>
+    <hyperlink ref="C449" r:id="rId448"/>
+    <hyperlink ref="C450" r:id="rId449"/>
+    <hyperlink ref="C451" r:id="rId450"/>
+    <hyperlink ref="C452" r:id="rId451"/>
+    <hyperlink ref="C453" r:id="rId452"/>
+    <hyperlink ref="C454" r:id="rId453"/>
+    <hyperlink ref="C455" r:id="rId454"/>
+    <hyperlink ref="C456" r:id="rId455"/>
+    <hyperlink ref="C457" r:id="rId456"/>
+    <hyperlink ref="C458" r:id="rId457"/>
+    <hyperlink ref="C459" r:id="rId458"/>
+    <hyperlink ref="C460" r:id="rId459"/>
+    <hyperlink ref="C461" r:id="rId460"/>
+    <hyperlink ref="C462" r:id="rId461"/>
+    <hyperlink ref="C463" r:id="rId462"/>
+    <hyperlink ref="C464" r:id="rId463"/>
+    <hyperlink ref="C465" r:id="rId464"/>
+    <hyperlink ref="C466" r:id="rId465"/>
+    <hyperlink ref="C467" r:id="rId466"/>
+    <hyperlink ref="C468" r:id="rId467"/>
+    <hyperlink ref="C469" r:id="rId468"/>
+    <hyperlink ref="C470" r:id="rId469"/>
+    <hyperlink ref="C471" r:id="rId470"/>
+    <hyperlink ref="C472" r:id="rId471"/>
+    <hyperlink ref="C473" r:id="rId472"/>
+    <hyperlink ref="C474" r:id="rId473"/>
+    <hyperlink ref="C475" r:id="rId474"/>
+    <hyperlink ref="C476" r:id="rId475"/>
+    <hyperlink ref="C477" r:id="rId476"/>
+    <hyperlink ref="C478" r:id="rId477"/>
+    <hyperlink ref="C479" r:id="rId478"/>
+    <hyperlink ref="C480" r:id="rId479"/>
+    <hyperlink ref="C481" r:id="rId480"/>
+    <hyperlink ref="C482" r:id="rId481"/>
+    <hyperlink ref="C483" r:id="rId482"/>
+    <hyperlink ref="C484" r:id="rId483"/>
+    <hyperlink ref="C485" r:id="rId484"/>
+    <hyperlink ref="C486" r:id="rId485"/>
+    <hyperlink ref="C487" r:id="rId486"/>
+    <hyperlink ref="C488" r:id="rId487"/>
+    <hyperlink ref="C489" r:id="rId488"/>
+    <hyperlink ref="C490" r:id="rId489"/>
+    <hyperlink ref="C491" r:id="rId490"/>
+    <hyperlink ref="C492" r:id="rId491"/>
+    <hyperlink ref="C493" r:id="rId492"/>
+    <hyperlink ref="C494" r:id="rId493"/>
+    <hyperlink ref="C495" r:id="rId494"/>
+    <hyperlink ref="C496" r:id="rId495"/>
+    <hyperlink ref="C497" r:id="rId496"/>
+    <hyperlink ref="C498" r:id="rId497"/>
+    <hyperlink ref="C499" r:id="rId498"/>
+    <hyperlink ref="C500" r:id="rId499"/>
+    <hyperlink ref="C501" r:id="rId500"/>
+    <hyperlink ref="C502" r:id="rId501"/>
+    <hyperlink ref="C503" r:id="rId502"/>
+    <hyperlink ref="C504" r:id="rId503"/>
+    <hyperlink ref="C505" r:id="rId504"/>
+    <hyperlink ref="C506" r:id="rId505"/>
+    <hyperlink ref="C507" r:id="rId506"/>
+    <hyperlink ref="C508" r:id="rId507"/>
+    <hyperlink ref="C509" r:id="rId508"/>
+    <hyperlink ref="C510" r:id="rId509"/>
+    <hyperlink ref="C511" r:id="rId510"/>
+    <hyperlink ref="C512" r:id="rId511"/>
+    <hyperlink ref="C513" r:id="rId512"/>
+    <hyperlink ref="C514" r:id="rId513"/>
+    <hyperlink ref="C515" r:id="rId514"/>
+    <hyperlink ref="C516" r:id="rId515"/>
+    <hyperlink ref="C517" r:id="rId516"/>
+    <hyperlink ref="C518" r:id="rId517"/>
+    <hyperlink ref="C519" r:id="rId518"/>
+    <hyperlink ref="C520" r:id="rId519"/>
+    <hyperlink ref="C521" r:id="rId520"/>
+    <hyperlink ref="C522" r:id="rId521"/>
+    <hyperlink ref="C523" r:id="rId522"/>
+    <hyperlink ref="C524" r:id="rId523"/>
+    <hyperlink ref="C525" r:id="rId524"/>
+    <hyperlink ref="C526" r:id="rId525"/>
+    <hyperlink ref="C527" r:id="rId526"/>
+    <hyperlink ref="C528" r:id="rId527"/>
+    <hyperlink ref="C529" r:id="rId528"/>
+    <hyperlink ref="C530" r:id="rId529"/>
+    <hyperlink ref="C531" r:id="rId530"/>
+    <hyperlink ref="C532" r:id="rId531"/>
+    <hyperlink ref="C533" r:id="rId532"/>
+    <hyperlink ref="C534" r:id="rId533"/>
+    <hyperlink ref="C535" r:id="rId534"/>
+    <hyperlink ref="C536" r:id="rId535"/>
+    <hyperlink ref="C537" r:id="rId536"/>
+    <hyperlink ref="C538" r:id="rId537"/>
+    <hyperlink ref="C539" r:id="rId538"/>
+    <hyperlink ref="C540" r:id="rId539"/>
+    <hyperlink ref="C541" r:id="rId540"/>
+    <hyperlink ref="C542" r:id="rId541"/>
+    <hyperlink ref="C543" r:id="rId542"/>
+    <hyperlink ref="C544" r:id="rId543"/>
+    <hyperlink ref="C545" r:id="rId544"/>
+    <hyperlink ref="C546" r:id="rId545"/>
+    <hyperlink ref="C547" r:id="rId546"/>
+    <hyperlink ref="C548" r:id="rId547"/>
+    <hyperlink ref="C549" r:id="rId548"/>
+    <hyperlink ref="C550" r:id="rId549"/>
+    <hyperlink ref="C551" r:id="rId550"/>
+    <hyperlink ref="C552" r:id="rId551"/>
+    <hyperlink ref="C553" r:id="rId552"/>
+    <hyperlink ref="C554" r:id="rId553"/>
+    <hyperlink ref="C555" r:id="rId554"/>
+    <hyperlink ref="C556" r:id="rId555"/>
+    <hyperlink ref="C557" r:id="rId556"/>
+    <hyperlink ref="C558" r:id="rId557"/>
+    <hyperlink ref="C559" r:id="rId558"/>
+    <hyperlink ref="C560" r:id="rId559"/>
+    <hyperlink ref="C561" r:id="rId560"/>
+    <hyperlink ref="C562" r:id="rId561"/>
+    <hyperlink ref="C563" r:id="rId562"/>
+    <hyperlink ref="C564" r:id="rId563"/>
+    <hyperlink ref="C565" r:id="rId564"/>
+    <hyperlink ref="C566" r:id="rId565"/>
+    <hyperlink ref="C567" r:id="rId566"/>
+    <hyperlink ref="C568" r:id="rId567"/>
+    <hyperlink ref="C569" r:id="rId568"/>
+    <hyperlink ref="C570" r:id="rId569"/>
+    <hyperlink ref="C571" r:id="rId570"/>
+    <hyperlink ref="C572" r:id="rId571"/>
+    <hyperlink ref="C573" r:id="rId572"/>
+    <hyperlink ref="C574" r:id="rId573"/>
+    <hyperlink ref="C575" r:id="rId574"/>
+    <hyperlink ref="C576" r:id="rId575"/>
+    <hyperlink ref="C577" r:id="rId576"/>
+    <hyperlink ref="C578" r:id="rId577"/>
+    <hyperlink ref="C579" r:id="rId578"/>
+    <hyperlink ref="C580" r:id="rId579"/>
+    <hyperlink ref="C581" r:id="rId580"/>
+    <hyperlink ref="C582" r:id="rId581"/>
+    <hyperlink ref="C583" r:id="rId582"/>
+    <hyperlink ref="C584" r:id="rId583"/>
+    <hyperlink ref="C585" r:id="rId584"/>
+    <hyperlink ref="C586" r:id="rId585"/>
+    <hyperlink ref="C587" r:id="rId586"/>
+    <hyperlink ref="C588" r:id="rId587"/>
+    <hyperlink ref="C589" r:id="rId588"/>
+    <hyperlink ref="C590" r:id="rId589"/>
+    <hyperlink ref="C591" r:id="rId590"/>
+    <hyperlink ref="C592" r:id="rId591"/>
+    <hyperlink ref="C593" r:id="rId592"/>
+    <hyperlink ref="C594" r:id="rId593"/>
+    <hyperlink ref="C595" r:id="rId594"/>
+    <hyperlink ref="C596" r:id="rId595"/>
+    <hyperlink ref="C597" r:id="rId596"/>
+    <hyperlink ref="C598" r:id="rId597"/>
+    <hyperlink ref="C599" r:id="rId598"/>
+    <hyperlink ref="C600" r:id="rId599"/>
+    <hyperlink ref="C601" r:id="rId600"/>
+    <hyperlink ref="C602" r:id="rId601"/>
+    <hyperlink ref="C603" r:id="rId602"/>
+    <hyperlink ref="C604" r:id="rId603"/>
+    <hyperlink ref="C605" r:id="rId604"/>
+    <hyperlink ref="C606" r:id="rId605"/>
+    <hyperlink ref="C607" r:id="rId606"/>
+    <hyperlink ref="C608" r:id="rId607"/>
+    <hyperlink ref="C609" r:id="rId608"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rent_info_beijingzufang.xlsx
+++ b/rent_info_beijingzufang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1603">
   <si>
     <t>标题</t>
   </si>
@@ -25,6 +25,741 @@
     <t>链接</t>
   </si>
   <si>
+    <t>15号线后沙峪，步行10分钟到地铁站，loft精装合租朝南厅卧1800，主卧1700，次卧1300，没有中介费服务费，望京通勤30分钟</t>
+  </si>
+  <si>
+    <t>04-12 22:12</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286651793/</t>
+  </si>
+  <si>
+    <t>百子湾大郊亭附近性价比小两居出租</t>
+  </si>
+  <si>
+    <t>04-12 22:10</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286651665/</t>
+  </si>
+  <si>
+    <t>角门西地铁站，房东直租，没有中介费，没有服务费</t>
+  </si>
+  <si>
+    <t>04-12 22:09</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286651592/</t>
+  </si>
+  <si>
+    <t>求租杨庄廖公庄地铁站附近的主卧独卫</t>
+  </si>
+  <si>
+    <t>04-12 22:07</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286651468/</t>
+  </si>
+  <si>
+    <t>转租牡丹园地铁站2居朝南</t>
+  </si>
+  <si>
+    <t>04-12 22:06</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286651392/</t>
+  </si>
+  <si>
+    <t>求房东直租、求合租。 动物园附近（中介勿扰）</t>
+  </si>
+  <si>
+    <t>04-12 22:00</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286651048/</t>
+  </si>
+  <si>
+    <t>6号线 通州北关 朝阳北路富力蕙兰美居正规通透三居两卫4700，公交直达北关地铁物资学院地铁口看房随时联系</t>
+  </si>
+  <si>
+    <t>04-12 21:58</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286650894/</t>
+  </si>
+  <si>
+    <t>13号线北苑 来广营 广华居 主卧独卫 3500 近龙湖产业园 高德 阿里巴巴</t>
+  </si>
+  <si>
+    <t>04-12 21:57</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286650834/</t>
+  </si>
+  <si>
+    <t>地铁6号线物资学院 西富河园四号院 步行地铁站5分钟 整租一居 电梯高层 精装修 全南向 落地窗 视野超级好</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286650818/</t>
+  </si>
+  <si>
+    <t>地铁14号线望京南站旁 金兴路单间限住一人1300</t>
+  </si>
+  <si>
+    <t>04-12 21:53</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286650571/</t>
+  </si>
+  <si>
+    <t>求租，双井附近，1人，女</t>
+  </si>
+  <si>
+    <t>04-12 21:52</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286650482/</t>
+  </si>
+  <si>
+    <t>北五环8号线永泰庄次卧出租</t>
+  </si>
+  <si>
+    <t>04-12 21:50</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286650360/</t>
+  </si>
+  <si>
+    <t>古城地铁 古城地铁家园 南向次卧 其他 一屋一个女孩 电梯房 1800/月</t>
+  </si>
+  <si>
+    <t>04-12 21:49</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286650262/</t>
+  </si>
+  <si>
+    <t>4号线西红门地铁站口主卧独卫 主卧阳台 大厅卧 次卧家具全新跟房东直签合同，无中介费。 小区出门200米就是地铁 通勤特别方便！</t>
+  </si>
+  <si>
+    <t>04-12 21:47</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286650175/</t>
+  </si>
+  <si>
+    <t>个人✔双井/广渠门附近(广和东里小区)，标准两居室，朝北大次卧(16㎡)，2400/月</t>
+  </si>
+  <si>
+    <t>04-12 21:44</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286650001/</t>
+  </si>
+  <si>
+    <t>地铁十四号线平乐园地铁站，两居室次卧找室友</t>
+  </si>
+  <si>
+    <t>04-12 21:43</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649957/</t>
+  </si>
+  <si>
+    <t>求租 通州北苑/北运河西房子</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649914/</t>
+  </si>
+  <si>
+    <t>东四环，慈云寺北里，四家合租，西南大主卧带阳台，西向大次卧。看房随时，家具齐全。看房随时，价格便宜，无中介费</t>
+  </si>
+  <si>
+    <t>04-12 21:42</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649895/</t>
+  </si>
+  <si>
+    <t>6号线物资学院，两户一卫朝南主卧出租4分钟到地铁，干净整洁，集体供暖，随时入住。</t>
+  </si>
+  <si>
+    <t>04-12 21:41</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649809/</t>
+  </si>
+  <si>
+    <t>求整租方庄周边3室一厅</t>
+  </si>
+  <si>
+    <t>04-12 21:39</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649700/</t>
+  </si>
+  <si>
+    <t>【房东直租】通州运河边，加华印象街全明两居出租（中介勿扰）</t>
+  </si>
+  <si>
+    <t>04-12 21:37</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649589/</t>
+  </si>
+  <si>
+    <t>13号线上地美和园西区，正规一居 精装修 稀缺房源 上地三街 上地七街 金隅嘉华大厦 看房约18946477527</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649586/</t>
+  </si>
+  <si>
+    <t>6号线褡裢坡3家合租出租主卧独卫2500/月真实图片</t>
+  </si>
+  <si>
+    <t>04-12 21:36</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649551/</t>
+  </si>
+  <si>
+    <t>金台路小一居，团结湖，红庙，日报社，地铁六号线十四号线</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649541/</t>
+  </si>
+  <si>
+    <t>个人转租，8号线地铁育新站，小米科技园附近</t>
+  </si>
+  <si>
+    <t>04-12 21:33</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649332/</t>
+  </si>
+  <si>
+    <t>女生找女生室友 南二环14号线方庄站 正规两居 房东直租</t>
+  </si>
+  <si>
+    <t>04-12 21:32</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649314/</t>
+  </si>
+  <si>
+    <t>🏠🏠六号线常营地铁站～朝南主卧带露台独卫，对面天街商场，采光充足无遮挡，随时看房拎包入住🌹13718683876</t>
+  </si>
+  <si>
+    <t>04-12 21:30</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649203/</t>
+  </si>
+  <si>
+    <t>软件园附近通勤三十分钟个人求租，单人小公寓/一居室整租/不超过两人合租（女）</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649174/</t>
+  </si>
+  <si>
+    <t>求整租一居，中关村通勤40分钟以内，四号线十号线</t>
+  </si>
+  <si>
+    <t>04-12 21:28</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286649048/</t>
+  </si>
+  <si>
+    <t>三元桥 两居60平 智能化新房出租</t>
+  </si>
+  <si>
+    <t>04-12 21:25</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286648894/</t>
+  </si>
+  <si>
+    <t>望京南两居找室友，房东直租</t>
+  </si>
+  <si>
+    <t>04-12 21:23</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286648768/</t>
+  </si>
+  <si>
+    <t>房东直租，2号线，5号线雍和宫站，13号线柳芳，和平里附近</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286648735/</t>
+  </si>
+  <si>
+    <t>15号线南法信地铁，望京直达，整租loft一居室3300，整租三居室5000，没有中介费!来广营，将台，阜通，SOHO，孙河，国展</t>
+  </si>
+  <si>
+    <t>04-12 21:19</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286648517/</t>
+  </si>
+  <si>
+    <t>宋家庄附近 精装两居室 可整租可分租 电梯房 地铁500米 周边超市 商场 美食 通勤国贸 亦庄 东单都很方便 可月付</t>
+  </si>
+  <si>
+    <t>04-12 21:17</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286648392/</t>
+  </si>
+  <si>
+    <t>15号线花梨坎地铁，合租1600-2500，无中介费，包物业取暖，可租2-12个月，望京25分钟，来广营，将台</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286648349/</t>
+  </si>
+  <si>
+    <t>大牛坊一期主卧转租，近16号线</t>
+  </si>
+  <si>
+    <t>04-12 21:15</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286648229/</t>
+  </si>
+  <si>
+    <t>（个人房）4号线西红门地铁100米包物业包维修可以押一付一.主卧带卫生间2700主卧阳台2200次卧1800首次出租直达中关村西单</t>
+  </si>
+  <si>
+    <t>04-12 21:14</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286648149/</t>
+  </si>
+  <si>
+    <t>13号线回龙观地铁站，龙腾苑二区，主卧，大次卧，中间楼层，密码锁，随时入住</t>
+  </si>
+  <si>
+    <t>04-12 21:13</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286648107/</t>
+  </si>
+  <si>
+    <t>🙏纯个人 | 昌平沙河地铁，高端别墅，精品装修，独厨独卫，家具家电齐全，拎包入住，2600押一付一，加微信发房子视频18346046061</t>
+  </si>
+  <si>
+    <t>04-12 21:12</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286648064/</t>
+  </si>
+  <si>
+    <t>求租牡丹园，健德门附近一居或主卧或开间</t>
+  </si>
+  <si>
+    <t>04-12 21:10</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647978/</t>
+  </si>
+  <si>
+    <t>西大望路合生汇附近小次卧找室友（自住）</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647953/</t>
+  </si>
+  <si>
+    <t>德茂地铁 德宏景苑东区 随时入住看房子 精装正规一居出租</t>
+  </si>
+  <si>
+    <t>04-12 21:06</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647693/</t>
+  </si>
+  <si>
+    <t>求租两居室，希望房东直租，10号线安贞门到西土城附近</t>
+  </si>
+  <si>
+    <t>04-12 21:05</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647666/</t>
+  </si>
+  <si>
+    <t>房东直租！ 主卧独卫 霍营 龙跃苑</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647629/</t>
+  </si>
+  <si>
+    <t>【房东直租】回龙观温馨次卧-适合在滴滴天空之城、软件园、生命科学园上班的小姐姐～</t>
+  </si>
+  <si>
+    <t>04-12 21:04</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647622/</t>
+  </si>
+  <si>
+    <t>没有中介费 服务费 地铁线路：立水桥 北苑 立水桥南 北苑路北 慧新西街南北口 安贞门 大屯路东 芍药居 望京 均有房源</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647587/</t>
+  </si>
+  <si>
+    <t>出租！短期 4.25-5.15短西坝河光熙门两室一厅，低价</t>
+  </si>
+  <si>
+    <t>04-12 21:03</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647535/</t>
+  </si>
+  <si>
+    <t>朝阳门-芳嘉园小区-主卧招租！！！！</t>
+  </si>
+  <si>
+    <t>04-12 21:02</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647475/</t>
+  </si>
+  <si>
+    <t>转租健德门北土城地铁站附近 次卧 3200</t>
+  </si>
+  <si>
+    <t>04-12 21:00</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647407/</t>
+  </si>
+  <si>
+    <t>望京地铁站附近 夏都家园次卧出租</t>
+  </si>
+  <si>
+    <t>04-12 20:58</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647254/</t>
+  </si>
+  <si>
+    <t>个人出租！女生优先！押一付一！经海路地铁！京东商城总部！1700元</t>
+  </si>
+  <si>
+    <t>04-12 20:57</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647223/</t>
+  </si>
+  <si>
+    <t>转租｜无中介费 望京700米 落地窗大卧3k</t>
+  </si>
+  <si>
+    <t>04-12 20:56</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286647167/</t>
+  </si>
+  <si>
+    <t>地铁4/16 房东直租 单间带独卫 月租2300元</t>
+  </si>
+  <si>
+    <t>04-12 20:52</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646966/</t>
+  </si>
+  <si>
+    <t>酒仙桥 南十里居小区 三家合住主卧 紧邻颐堤港 东风德比 宝信行 民水民电 随时可看房</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646910/</t>
+  </si>
+  <si>
+    <t>地铁一号线八角游乐园附近大一居3900转租</t>
+  </si>
+  <si>
+    <t>04-12 20:51</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646864/</t>
+  </si>
+  <si>
+    <t>六号线东八通线地铁站主卧次卧分租2300～3000月付无中介费无任何杂费可过渡有网保洁维修</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646858/</t>
+  </si>
+  <si>
+    <t>求租房东直租一居室（中介勿扰）</t>
+  </si>
+  <si>
+    <t>04-12 20:49</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646733/</t>
+  </si>
+  <si>
+    <t>回龙观精装次卧，房东直签，随时看房</t>
+  </si>
+  <si>
+    <t>04-12 20:47</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646628/</t>
+  </si>
+  <si>
+    <t>地铁.10.13号线，芍药居太阳宫地铁口，新纪家园，主卧阳台.2800.微信电话18311229289</t>
+  </si>
+  <si>
+    <t>04-12 20:44</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646428/</t>
+  </si>
+  <si>
+    <t>业主直租【无中介费】15号线新国展地铁，精装修拎包入住，落地大窗一居室。免费停车篮球羽毛球场跑道.3500元/月</t>
+  </si>
+  <si>
+    <t>04-12 20:43</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646385/</t>
+  </si>
+  <si>
+    <t>10/13号线芍药居，太阳宫地铁口我爱我家相寓</t>
+  </si>
+  <si>
+    <t>04-12 20:41</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646289/</t>
+  </si>
+  <si>
+    <t>求租龙泽，回龙观，霍营附近一居室或者两居室，预算5500，中介勿扰。</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646259/</t>
+  </si>
+  <si>
+    <t>6号线 物资学院路站 天赐良园北区 100平大两居整租 5800 无中介费</t>
+  </si>
+  <si>
+    <t>04-12 20:38</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646142/</t>
+  </si>
+  <si>
+    <t>8号线瀛海0中介出租 一居室 两居室 三居室 民水民电 带燃气 房源不多</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646116/</t>
+  </si>
+  <si>
+    <t>6号线 电梯豪华两室一厅 配置全新 全齐 随时可入住</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646099/</t>
+  </si>
+  <si>
+    <t>★出租五道口六道口地铁站附近大学周边精装好房！整租分租都可以！</t>
+  </si>
+  <si>
+    <t>04-12 20:36</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646008/</t>
+  </si>
+  <si>
+    <t>求租马连洼上地16/13号线一居室开间</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286646004/</t>
+  </si>
+  <si>
+    <t>劲松一区2300朝东次卧，距离地铁炒鸡近，蛋壳装修，周边超市小吃设施齐全</t>
+  </si>
+  <si>
+    <t>04-12 20:32</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645779/</t>
+  </si>
+  <si>
+    <t>地铁7号线欢乐谷站700米 金蝉里小区 合租 1800/月</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645770/</t>
+  </si>
+  <si>
+    <t>6号线物资学院天赐良园，下楼地铁，没有中介费包物业取暖🉑押一付一，客户这两天就到期17710028902</t>
+  </si>
+  <si>
+    <t>04-12 20:31</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645721/</t>
+  </si>
+  <si>
+    <t>转租｜六里桥｜朝南向阳主卧带阳台</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645681/</t>
+  </si>
+  <si>
+    <t>6号线物资学院三户一屋一个女孩，没有中介费，包物业取暖，🉑压一付一，下楼地铁17710028902</t>
+  </si>
+  <si>
+    <t>04-12 20:29</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645595/</t>
+  </si>
+  <si>
+    <t>金台路八里庄慈云寺延静里时尚万科远洋天地嘉泰国际附近单间月付1200</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645582/</t>
+  </si>
+  <si>
+    <t>杨庄地铁 西井四区 次卧 1800 三家合租</t>
+  </si>
+  <si>
+    <t>04-12 20:28</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645544/</t>
+  </si>
+  <si>
+    <t>增光路，甘家口，展览路，住建部，一室一厅。</t>
+  </si>
+  <si>
+    <t>04-12 20:25</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645341/</t>
+  </si>
+  <si>
+    <t>一号线传媒大学 珠江绿洲小区 精装南向主卧独卫 电梯房高层</t>
+  </si>
+  <si>
+    <t>04-12 20:24</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645278/</t>
+  </si>
+  <si>
+    <t>【房东直租】朝北次卧 天通苑南，中滩园小区，价格实惠 中介勿扰</t>
+  </si>
+  <si>
+    <t>04-12 20:22</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645166/</t>
+  </si>
+  <si>
+    <t>酒仙桥望京南将台地铁芳园里精装两居室，临近地铁采光好</t>
+  </si>
+  <si>
+    <t>04-12 20:21</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645087/</t>
+  </si>
+  <si>
+    <t>地铁五号线 13号线立水桥 北苑 天通苑 北苑路北 大屯路东！附近的看！</t>
+  </si>
+  <si>
+    <t>04-12 20:20</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286645059/</t>
+  </si>
+  <si>
+    <t>安慧北里安园次卧，紧临地铁5号线，15号线大屯路东站，安立路站</t>
+  </si>
+  <si>
+    <t>04-12 20:19</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644993/</t>
+  </si>
+  <si>
+    <t>宋家庄地铁站距离仅10米精装两居室次卧找合租</t>
+  </si>
+  <si>
+    <t>04-12 20:17</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644864/</t>
+  </si>
+  <si>
+    <t>求租湾子附近两居室或大一居</t>
+  </si>
+  <si>
+    <t>04-12 20:15</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644781/</t>
+  </si>
+  <si>
+    <t>顺义区，首都机场，临河悦园精装小区一居室两居室三居室各种精美单间800起都有！需要联系15711008969</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644744/</t>
+  </si>
+  <si>
+    <t>朝阳区整租房源‖ 东大桥 国贸 呼家楼 CBD 精装修婚房一室一厅出租</t>
+  </si>
+  <si>
+    <t>04-12 20:14</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644710/</t>
+  </si>
+  <si>
+    <t>东四环慈云寺北里主卧出租</t>
+  </si>
+  <si>
+    <t>04-12 20:13</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644673/</t>
+  </si>
+  <si>
+    <t>八角地铁口 时代庐峰主卧阳台 2980每月</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644635/</t>
+  </si>
+  <si>
+    <t>求租草房常营附近一居室或两居室</t>
+  </si>
+  <si>
+    <t>04-12 20:12</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644608/</t>
+  </si>
+  <si>
+    <t>地铁13号线光熙门两室主卧找女生合租-房东直租</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644574/</t>
+  </si>
+  <si>
+    <t>地铁5号线北苑路北 立水桥南 龙湖产业园 主卧独卫 次卧均有 随时入住真实房源实拍</t>
+  </si>
+  <si>
+    <t>04-12 20:10</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644485/</t>
+  </si>
+  <si>
     <t>房东直租 地铁房芍药居2号院两居主卧</t>
   </si>
   <si>
@@ -34,6 +769,12 @@
     <t>https://www.douban.com/group/topic/286644412/</t>
   </si>
   <si>
+    <t>六号线黄渠地铁 柏林爱乐小区 南向落地窗主卧 集中供暖电梯房 实拍照片 随时可住 18301538053</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286644426/</t>
+  </si>
+  <si>
     <t>地铁五号线北苑路北！精装南北通透两居室vx17610199212</t>
   </si>
   <si>
@@ -1195,9 +1936,6 @@
     <t>https://www.douban.com/group/topic/286634720/</t>
   </si>
   <si>
-    <t>★出租五道口六道口地铁站附近大学周边精装好房！整租分租都可以！</t>
-  </si>
-  <si>
     <t>04-12 17:02</t>
   </si>
   <si>
@@ -1271,9 +2009,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/286633731/</t>
-  </si>
-  <si>
-    <t>4号线西红门地铁站口主卧独卫 主卧阳台 大厅卧 次卧家具全新跟房东直签合同，无中介费。 小区出门200米就是地铁 通勤特别方便！</t>
   </si>
   <si>
     <t>04-12 16:39</t>
@@ -4432,7 +5167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C503"/>
+  <dimension ref="A1:C593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4481,480 +5216,480 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
         <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
         <v>89</v>
       </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
         <v>97</v>
       </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s">
         <v>122</v>
       </c>
-      <c r="B45" t="s">
-        <v>123</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>130</v>
@@ -4965,84 +5700,84 @@
         <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>153</v>
@@ -5130,172 +5865,172 @@
         <v>174</v>
       </c>
       <c r="B63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" t="s">
         <v>177</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B65" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B67" t="s">
         <v>184</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B69" t="s">
         <v>189</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
         <v>194</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B76" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B77" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" t="s">
         <v>213</v>
-      </c>
-      <c r="B78" t="s">
-        <v>209</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>214</v>
@@ -5317,161 +6052,161 @@
         <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" t="s">
         <v>228</v>
       </c>
-      <c r="B84" t="s">
-        <v>226</v>
-      </c>
       <c r="C84" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B85" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" t="s">
         <v>236</v>
       </c>
-      <c r="B87" t="s">
-        <v>237</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>251</v>
+      </c>
+      <c r="B92" t="s">
         <v>249</v>
       </c>
-      <c r="B92" t="s">
-        <v>250</v>
-      </c>
       <c r="C92" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B94" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>257</v>
@@ -5482,997 +6217,997 @@
         <v>258</v>
       </c>
       <c r="B95" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B98" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B99" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100" t="s">
         <v>271</v>
       </c>
-      <c r="B100" t="s">
-        <v>272</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B103" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B104" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B106" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B107" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B108" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B109" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B111" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B115" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>319</v>
+      </c>
+      <c r="B117" t="s">
         <v>317</v>
       </c>
-      <c r="B117" t="s">
-        <v>313</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B118" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B119" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B120" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B121" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B122" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B123" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B124" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B125" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B126" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B127" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B128" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="B129" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B130" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B131" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B132" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B133" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B134" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B135" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B136" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B137" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B138" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B139" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B140" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B141" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B142" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B143" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B144" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B145" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B146" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B147" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B148" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B149" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B150" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B151" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B152" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B153" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B154" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B155" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B156" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B157" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B158" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B159" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B160" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B161" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B162" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B163" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B164" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
+        <v>453</v>
+      </c>
+      <c r="B165" t="s">
         <v>449</v>
       </c>
-      <c r="B165" t="s">
-        <v>450</v>
-      </c>
       <c r="C165" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B166" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B167" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B168" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B169" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
+        <v>465</v>
+      </c>
+      <c r="B170" t="s">
         <v>463</v>
       </c>
-      <c r="B170" t="s">
-        <v>464</v>
-      </c>
       <c r="C170" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B171" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>470</v>
+      </c>
+      <c r="B172" t="s">
         <v>468</v>
       </c>
-      <c r="B172" t="s">
-        <v>469</v>
-      </c>
       <c r="C172" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B173" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>475</v>
+      </c>
+      <c r="B174" t="s">
         <v>473</v>
       </c>
-      <c r="B174" t="s">
-        <v>474</v>
-      </c>
       <c r="C174" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B175" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B176" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B177" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B178" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>489</v>
+      </c>
+      <c r="B179" t="s">
         <v>487</v>
       </c>
-      <c r="B179" t="s">
-        <v>485</v>
-      </c>
       <c r="C179" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B180" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>494</v>
+      </c>
+      <c r="B181" t="s">
         <v>492</v>
       </c>
-      <c r="B181" t="s">
-        <v>493</v>
-      </c>
       <c r="C181" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B182" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B183" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B184" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B185" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>506</v>
@@ -6527,40 +7262,40 @@
         <v>518</v>
       </c>
       <c r="B190" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B191" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B192" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B193" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>527</v>
@@ -6604,40 +7339,40 @@
         <v>536</v>
       </c>
       <c r="B197" t="s">
+        <v>532</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
+        <v>538</v>
+      </c>
+      <c r="B198" t="s">
         <v>539</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
+        <v>541</v>
+      </c>
+      <c r="B199" t="s">
         <v>542</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
+        <v>544</v>
+      </c>
+      <c r="B200" t="s">
         <v>545</v>
-      </c>
-      <c r="B200" t="s">
-        <v>543</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>546</v>
@@ -6659,62 +7394,62 @@
         <v>550</v>
       </c>
       <c r="B202" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B203" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B204" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B205" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
+        <v>562</v>
+      </c>
+      <c r="B206" t="s">
         <v>560</v>
       </c>
-      <c r="B206" t="s">
-        <v>561</v>
-      </c>
       <c r="C206" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B207" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>565</v>
@@ -6736,29 +7471,29 @@
         <v>569</v>
       </c>
       <c r="B209" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B210" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B211" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>576</v>
@@ -6780,282 +7515,282 @@
         <v>580</v>
       </c>
       <c r="B213" t="s">
+        <v>578</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>582</v>
+      </c>
+      <c r="B214" t="s">
         <v>583</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
+        <v>585</v>
+      </c>
+      <c r="B215" t="s">
         <v>586</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
+        <v>588</v>
+      </c>
+      <c r="B216" t="s">
+        <v>586</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B216" t="s">
-        <v>590</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
+        <v>590</v>
+      </c>
+      <c r="B217" t="s">
+        <v>591</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="B217" t="s">
-        <v>590</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
+        <v>593</v>
+      </c>
+      <c r="B218" t="s">
+        <v>591</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="B218" t="s">
-        <v>595</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>597</v>
+        <v>477</v>
       </c>
       <c r="B219" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B220" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B221" t="s">
         <v>601</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B222" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B223" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B224" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B225" t="s">
         <v>612</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B226" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B227" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B228" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B229" t="s">
         <v>623</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
+        <v>625</v>
+      </c>
+      <c r="B230" t="s">
+        <v>626</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="B230" t="s">
-        <v>628</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
+        <v>628</v>
+      </c>
+      <c r="B231" t="s">
+        <v>629</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="B231" t="s">
-        <v>628</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
+        <v>631</v>
+      </c>
+      <c r="B232" t="s">
         <v>632</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
+        <v>634</v>
+      </c>
+      <c r="B233" t="s">
         <v>635</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>637</v>
+      </c>
+      <c r="B234" t="s">
         <v>638</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
+        <v>183</v>
+      </c>
+      <c r="B235" t="s">
+        <v>640</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="B235" t="s">
-        <v>642</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
+        <v>642</v>
+      </c>
+      <c r="B236" t="s">
+        <v>643</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B236" t="s">
-        <v>645</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>393</v>
+        <v>645</v>
       </c>
       <c r="B237" t="s">
+        <v>646</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
+        <v>648</v>
+      </c>
+      <c r="B238" t="s">
         <v>649</v>
-      </c>
-      <c r="B238" t="s">
-        <v>647</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>650</v>
@@ -7066,183 +7801,183 @@
         <v>651</v>
       </c>
       <c r="B239" t="s">
+        <v>649</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
+        <v>653</v>
+      </c>
+      <c r="B240" t="s">
         <v>654</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
+        <v>656</v>
+      </c>
+      <c r="B241" t="s">
         <v>657</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>659</v>
+      </c>
+      <c r="B242" t="s">
         <v>660</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>662</v>
+      </c>
+      <c r="B243" t="s">
         <v>663</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
+        <v>41</v>
+      </c>
+      <c r="B244" t="s">
+        <v>665</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="B244" t="s">
-        <v>667</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B245" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B246" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B247" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B248" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B249" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B250" t="s">
+        <v>680</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B251" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B252" t="s">
         <v>686</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
+        <v>688</v>
+      </c>
+      <c r="B253" t="s">
+        <v>689</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="B253" t="s">
-        <v>686</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>691</v>
+      </c>
+      <c r="B254" t="s">
         <v>692</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>694</v>
+      </c>
+      <c r="B255" t="s">
         <v>695</v>
-      </c>
-      <c r="B255" t="s">
-        <v>693</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>696</v>
@@ -7253,7 +7988,7 @@
         <v>697</v>
       </c>
       <c r="B256" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>698</v>
@@ -7275,40 +8010,40 @@
         <v>702</v>
       </c>
       <c r="B258" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B259" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B260" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B261" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>712</v>
@@ -7319,18 +8054,18 @@
         <v>713</v>
       </c>
       <c r="B262" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B263" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>717</v>
@@ -7341,40 +8076,40 @@
         <v>718</v>
       </c>
       <c r="B264" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B265" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B266" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B267" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>728</v>
@@ -7396,29 +8131,29 @@
         <v>732</v>
       </c>
       <c r="B269" t="s">
+        <v>730</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>734</v>
+      </c>
+      <c r="B270" t="s">
         <v>735</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>737</v>
+      </c>
+      <c r="B271" t="s">
         <v>738</v>
-      </c>
-      <c r="B271" t="s">
-        <v>736</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>739</v>
@@ -7462,29 +8197,29 @@
         <v>749</v>
       </c>
       <c r="B275" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B276" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B277" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>756</v>
@@ -7517,128 +8252,128 @@
         <v>763</v>
       </c>
       <c r="B280" t="s">
+        <v>761</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
+        <v>765</v>
+      </c>
+      <c r="B281" t="s">
+        <v>761</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="B281" t="s">
-        <v>767</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
+        <v>767</v>
+      </c>
+      <c r="B282" t="s">
+        <v>768</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="B282" t="s">
-        <v>770</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
+        <v>770</v>
+      </c>
+      <c r="B283" t="s">
+        <v>771</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="B283" t="s">
-        <v>773</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
+        <v>773</v>
+      </c>
+      <c r="B284" t="s">
+        <v>774</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="B284" t="s">
-        <v>776</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
+        <v>776</v>
+      </c>
+      <c r="B285" t="s">
+        <v>777</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="B285" t="s">
-        <v>779</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B286" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
+        <v>781</v>
+      </c>
+      <c r="B287" t="s">
+        <v>782</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="B287" t="s">
-        <v>784</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
+        <v>784</v>
+      </c>
+      <c r="B288" t="s">
+        <v>785</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="B288" t="s">
-        <v>784</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
+        <v>787</v>
+      </c>
+      <c r="B289" t="s">
         <v>788</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
+        <v>790</v>
+      </c>
+      <c r="B290" t="s">
+        <v>788</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="B290" t="s">
-        <v>789</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
+        <v>792</v>
+      </c>
+      <c r="B291" t="s">
         <v>793</v>
-      </c>
-      <c r="B291" t="s">
-        <v>789</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>794</v>
@@ -7649,18 +8384,18 @@
         <v>795</v>
       </c>
       <c r="B292" t="s">
+        <v>793</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
+        <v>797</v>
+      </c>
+      <c r="B293" t="s">
         <v>798</v>
-      </c>
-      <c r="B293" t="s">
-        <v>796</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>799</v>
@@ -7671,18 +8406,18 @@
         <v>800</v>
       </c>
       <c r="B294" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B295" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>804</v>
@@ -7693,260 +8428,260 @@
         <v>805</v>
       </c>
       <c r="B296" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B297" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B298" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
+        <v>814</v>
+      </c>
+      <c r="B299" t="s">
         <v>812</v>
       </c>
-      <c r="B299" t="s">
-        <v>810</v>
-      </c>
       <c r="C299" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B300" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B301" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B302" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B303" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B304" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B305" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B306" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B307" t="s">
         <v>835</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B308" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B309" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B310" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B311" t="s">
         <v>846</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B312" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B313" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B314" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
+        <v>859</v>
+      </c>
+      <c r="B315" t="s">
         <v>857</v>
       </c>
-      <c r="B315" t="s">
-        <v>858</v>
-      </c>
       <c r="C315" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B316" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B317" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B318" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B319" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>871</v>
@@ -7968,18 +8703,18 @@
         <v>875</v>
       </c>
       <c r="B321" t="s">
+        <v>873</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
+        <v>877</v>
+      </c>
+      <c r="B322" t="s">
         <v>878</v>
-      </c>
-      <c r="B322" t="s">
-        <v>876</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>879</v>
@@ -8001,51 +8736,51 @@
         <v>883</v>
       </c>
       <c r="B324" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B325" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B326" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>890</v>
+        <v>183</v>
       </c>
       <c r="B327" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B328" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>895</v>
@@ -8111,128 +8846,128 @@
         <v>911</v>
       </c>
       <c r="B334" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B335" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B336" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B337" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B338" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B339" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
+        <v>928</v>
+      </c>
+      <c r="B340" t="s">
         <v>926</v>
       </c>
-      <c r="B340" t="s">
-        <v>927</v>
-      </c>
       <c r="C340" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B341" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B342" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B343" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B344" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B345" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>941</v>
@@ -8243,84 +8978,84 @@
         <v>942</v>
       </c>
       <c r="B346" t="s">
+        <v>938</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
+        <v>944</v>
+      </c>
+      <c r="B347" t="s">
         <v>945</v>
       </c>
-      <c r="B347" t="s">
+      <c r="C347" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
+        <v>947</v>
+      </c>
+      <c r="B348" t="s">
+        <v>945</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="B348" t="s">
-        <v>949</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
+        <v>949</v>
+      </c>
+      <c r="B349" t="s">
+        <v>950</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="B349" t="s">
-        <v>949</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
+        <v>952</v>
+      </c>
+      <c r="B350" t="s">
         <v>953</v>
       </c>
-      <c r="B350" t="s">
+      <c r="C350" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
+        <v>955</v>
+      </c>
+      <c r="B351" t="s">
         <v>956</v>
       </c>
-      <c r="B351" t="s">
+      <c r="C351" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
+        <v>958</v>
+      </c>
+      <c r="B352" t="s">
+        <v>956</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="B352" t="s">
-        <v>957</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
+        <v>960</v>
+      </c>
+      <c r="B353" t="s">
         <v>961</v>
-      </c>
-      <c r="B353" t="s">
-        <v>957</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>962</v>
@@ -8331,26 +9066,26 @@
         <v>963</v>
       </c>
       <c r="B354" t="s">
+        <v>961</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
+        <v>965</v>
+      </c>
+      <c r="B355" t="s">
         <v>966</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C355" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>577</v>
+        <v>968</v>
       </c>
       <c r="B356" t="s">
         <v>969</v>
@@ -8364,392 +9099,392 @@
         <v>971</v>
       </c>
       <c r="B357" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B358" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B359" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B360" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
+        <v>983</v>
+      </c>
+      <c r="B361" t="s">
         <v>981</v>
       </c>
-      <c r="B361" t="s">
-        <v>982</v>
-      </c>
       <c r="C361" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B362" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B363" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B364" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>393</v>
+        <v>994</v>
       </c>
       <c r="B365" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B366" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B367" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B368" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B369" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B370" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B371" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B372" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>281</v>
+        <v>1017</v>
       </c>
       <c r="B373" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="B374" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="B375" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="B376" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="B377" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B378" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B379" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="B380" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="B381" t="s">
         <v>1034</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B382" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B383" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>577</v>
+        <v>1045</v>
       </c>
       <c r="B384" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B385" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B386" t="s">
         <v>1048</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B387" t="s">
         <v>1048</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B388" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B389" t="s">
         <v>1055</v>
       </c>
-      <c r="B389" t="s">
-        <v>1056</v>
-      </c>
       <c r="C389" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B390" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B391" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B392" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>1066</v>
@@ -8771,51 +9506,51 @@
         <v>1070</v>
       </c>
       <c r="B394" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B395" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B396" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B397" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B398" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>1083</v>
@@ -8826,1154 +9561,2144 @@
         <v>1084</v>
       </c>
       <c r="B399" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B400" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B401" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B402" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B403" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B404" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="B405" t="s">
-        <v>1094</v>
+        <v>1103</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="B406" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="B407" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="B408" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="B409" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="B410" t="s">
-        <v>1109</v>
+        <v>1118</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
       <c r="B411" t="s">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="B412" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="B413" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="B414" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="B415" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="B416" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="B417" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>1121</v>
+        <v>1138</v>
       </c>
       <c r="B418" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="B419" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="B420" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="B421" t="s">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="B422" t="s">
-        <v>1140</v>
+        <v>1151</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="B423" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1146</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>1121</v>
+        <v>1156</v>
       </c>
       <c r="B424" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="B425" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1150</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
       <c r="B426" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1153</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>1154</v>
+        <v>1163</v>
       </c>
       <c r="B427" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="B428" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>1158</v>
+        <v>1169</v>
       </c>
       <c r="B429" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
       <c r="B430" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="B431" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="B432" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="B433" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1171</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>1172</v>
+        <v>1181</v>
       </c>
       <c r="B434" t="s">
-        <v>1173</v>
+        <v>1182</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1174</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>1175</v>
+        <v>1184</v>
       </c>
       <c r="B435" t="s">
-        <v>1176</v>
+        <v>1185</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1177</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>1178</v>
+        <v>1187</v>
       </c>
       <c r="B436" t="s">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="B437" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="B438" t="s">
-        <v>1184</v>
+        <v>1194</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="B439" t="s">
-        <v>1184</v>
+        <v>1194</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="B440" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1190</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>1191</v>
+        <v>1201</v>
       </c>
       <c r="B441" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1193</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>1194</v>
+        <v>1204</v>
       </c>
       <c r="B442" t="s">
-        <v>1195</v>
+        <v>1202</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1196</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>1197</v>
+        <v>1206</v>
       </c>
       <c r="B443" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="B444" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>1202</v>
+        <v>1211</v>
       </c>
       <c r="B445" t="s">
-        <v>1203</v>
+        <v>1212</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1204</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>1205</v>
+        <v>822</v>
       </c>
       <c r="B446" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1206</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>1207</v>
+        <v>1216</v>
       </c>
       <c r="B447" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="B448" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1211</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>1212</v>
+        <v>1221</v>
       </c>
       <c r="B449" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1213</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>1214</v>
+        <v>1223</v>
       </c>
       <c r="B450" t="s">
-        <v>1215</v>
+        <v>1224</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1216</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>1217</v>
+        <v>1226</v>
       </c>
       <c r="B451" t="s">
-        <v>1218</v>
+        <v>1227</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1219</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>1220</v>
+        <v>1229</v>
       </c>
       <c r="B452" t="s">
-        <v>1221</v>
+        <v>1230</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1222</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>1223</v>
+        <v>1232</v>
       </c>
       <c r="B453" t="s">
-        <v>1224</v>
+        <v>1233</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>1226</v>
+        <v>1235</v>
       </c>
       <c r="B454" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1228</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>1229</v>
+        <v>183</v>
       </c>
       <c r="B455" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1231</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="B456" t="s">
-        <v>1233</v>
+        <v>1240</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1234</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="B457" t="s">
-        <v>1236</v>
+        <v>1243</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1237</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>1238</v>
+        <v>1245</v>
       </c>
       <c r="B458" t="s">
-        <v>1236</v>
+        <v>1246</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1239</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
       <c r="B459" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1242</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>1243</v>
+        <v>1251</v>
       </c>
       <c r="B460" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
       <c r="B461" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1247</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="B462" t="s">
-        <v>1246</v>
+        <v>1256</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>1250</v>
+        <v>528</v>
       </c>
       <c r="B463" t="s">
-        <v>1246</v>
+        <v>1256</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1251</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="B464" t="s">
-        <v>1246</v>
+        <v>1256</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>1254</v>
+        <v>1261</v>
       </c>
       <c r="B465" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1256</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="B466" t="s">
-        <v>1255</v>
+        <v>1265</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
       <c r="B467" t="s">
-        <v>1260</v>
+        <v>1268</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
       <c r="B468" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1264</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="B469" t="s">
-        <v>1266</v>
+        <v>1273</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>1268</v>
+        <v>1275</v>
       </c>
       <c r="B470" t="s">
-        <v>1269</v>
+        <v>1276</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1270</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>1271</v>
+        <v>1278</v>
       </c>
       <c r="B471" t="s">
-        <v>1269</v>
+        <v>1279</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="B472" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1274</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="B473" t="s">
-        <v>1269</v>
+        <v>1285</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1276</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>1277</v>
+        <v>822</v>
       </c>
       <c r="B474" t="s">
-        <v>1278</v>
+        <v>1287</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1279</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>1280</v>
+        <v>1289</v>
       </c>
       <c r="B475" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1282</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>1283</v>
+        <v>1292</v>
       </c>
       <c r="B476" t="s">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1284</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>1285</v>
+        <v>1295</v>
       </c>
       <c r="B477" t="s">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1286</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
       <c r="B478" t="s">
-        <v>1288</v>
+        <v>1298</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1289</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>1290</v>
+        <v>1300</v>
       </c>
       <c r="B479" t="s">
-        <v>1291</v>
+        <v>1301</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1292</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>1293</v>
+        <v>1303</v>
       </c>
       <c r="B480" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1295</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="B481" t="s">
-        <v>1297</v>
+        <v>1307</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1298</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>1299</v>
+        <v>1309</v>
       </c>
       <c r="B482" t="s">
-        <v>1297</v>
+        <v>1310</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
       <c r="B483" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="B484" t="s">
-        <v>1305</v>
+        <v>1313</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1306</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>1307</v>
+        <v>1317</v>
       </c>
       <c r="B485" t="s">
-        <v>1308</v>
+        <v>1318</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1309</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>1310</v>
+        <v>1320</v>
       </c>
       <c r="B486" t="s">
-        <v>1308</v>
+        <v>1321</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
       <c r="B487" t="s">
-        <v>1313</v>
+        <v>1324</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
       <c r="B488" t="s">
-        <v>1313</v>
+        <v>1327</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
       <c r="B489" t="s">
-        <v>1318</v>
+        <v>1327</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>1320</v>
+        <v>1331</v>
       </c>
       <c r="B490" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1322</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="B491" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>1325</v>
+        <v>1336</v>
       </c>
       <c r="B492" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>1327</v>
+        <v>1338</v>
       </c>
       <c r="B493" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="B494" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1332</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>1333</v>
+        <v>1343</v>
       </c>
       <c r="B495" t="s">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>1336</v>
+        <v>1345</v>
       </c>
       <c r="B496" t="s">
-        <v>1337</v>
+        <v>1346</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1338</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>1339</v>
+        <v>1348</v>
       </c>
       <c r="B497" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1340</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>1341</v>
+        <v>1351</v>
       </c>
       <c r="B498" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>1344</v>
+        <v>1353</v>
       </c>
       <c r="B499" t="s">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1346</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>1347</v>
+        <v>1356</v>
       </c>
       <c r="B500" t="s">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>1349</v>
+        <v>1358</v>
       </c>
       <c r="B501" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>1352</v>
+        <v>1360</v>
       </c>
       <c r="B502" t="s">
-        <v>1353</v>
+        <v>1361</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1354</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>1355</v>
+        <v>1363</v>
       </c>
       <c r="B503" t="s">
-        <v>1356</v>
+        <v>1364</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1357</v>
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1602</v>
       </c>
     </row>
   </sheetData>
@@ -10480,6 +12205,96 @@
     <hyperlink ref="C501" r:id="rId500"/>
     <hyperlink ref="C502" r:id="rId501"/>
     <hyperlink ref="C503" r:id="rId502"/>
+    <hyperlink ref="C504" r:id="rId503"/>
+    <hyperlink ref="C505" r:id="rId504"/>
+    <hyperlink ref="C506" r:id="rId505"/>
+    <hyperlink ref="C507" r:id="rId506"/>
+    <hyperlink ref="C508" r:id="rId507"/>
+    <hyperlink ref="C509" r:id="rId508"/>
+    <hyperlink ref="C510" r:id="rId509"/>
+    <hyperlink ref="C511" r:id="rId510"/>
+    <hyperlink ref="C512" r:id="rId511"/>
+    <hyperlink ref="C513" r:id="rId512"/>
+    <hyperlink ref="C514" r:id="rId513"/>
+    <hyperlink ref="C515" r:id="rId514"/>
+    <hyperlink ref="C516" r:id="rId515"/>
+    <hyperlink ref="C517" r:id="rId516"/>
+    <hyperlink ref="C518" r:id="rId517"/>
+    <hyperlink ref="C519" r:id="rId518"/>
+    <hyperlink ref="C520" r:id="rId519"/>
+    <hyperlink ref="C521" r:id="rId520"/>
+    <hyperlink ref="C522" r:id="rId521"/>
+    <hyperlink ref="C523" r:id="rId522"/>
+    <hyperlink ref="C524" r:id="rId523"/>
+    <hyperlink ref="C525" r:id="rId524"/>
+    <hyperlink ref="C526" r:id="rId525"/>
+    <hyperlink ref="C527" r:id="rId526"/>
+    <hyperlink ref="C528" r:id="rId527"/>
+    <hyperlink ref="C529" r:id="rId528"/>
+    <hyperlink ref="C530" r:id="rId529"/>
+    <hyperlink ref="C531" r:id="rId530"/>
+    <hyperlink ref="C532" r:id="rId531"/>
+    <hyperlink ref="C533" r:id="rId532"/>
+    <hyperlink ref="C534" r:id="rId533"/>
+    <hyperlink ref="C535" r:id="rId534"/>
+    <hyperlink ref="C536" r:id="rId535"/>
+    <hyperlink ref="C537" r:id="rId536"/>
+    <hyperlink ref="C538" r:id="rId537"/>
+    <hyperlink ref="C539" r:id="rId538"/>
+    <hyperlink ref="C540" r:id="rId539"/>
+    <hyperlink ref="C541" r:id="rId540"/>
+    <hyperlink ref="C542" r:id="rId541"/>
+    <hyperlink ref="C543" r:id="rId542"/>
+    <hyperlink ref="C544" r:id="rId543"/>
+    <hyperlink ref="C545" r:id="rId544"/>
+    <hyperlink ref="C546" r:id="rId545"/>
+    <hyperlink ref="C547" r:id="rId546"/>
+    <hyperlink ref="C548" r:id="rId547"/>
+    <hyperlink ref="C549" r:id="rId548"/>
+    <hyperlink ref="C550" r:id="rId549"/>
+    <hyperlink ref="C551" r:id="rId550"/>
+    <hyperlink ref="C552" r:id="rId551"/>
+    <hyperlink ref="C553" r:id="rId552"/>
+    <hyperlink ref="C554" r:id="rId553"/>
+    <hyperlink ref="C555" r:id="rId554"/>
+    <hyperlink ref="C556" r:id="rId555"/>
+    <hyperlink ref="C557" r:id="rId556"/>
+    <hyperlink ref="C558" r:id="rId557"/>
+    <hyperlink ref="C559" r:id="rId558"/>
+    <hyperlink ref="C560" r:id="rId559"/>
+    <hyperlink ref="C561" r:id="rId560"/>
+    <hyperlink ref="C562" r:id="rId561"/>
+    <hyperlink ref="C563" r:id="rId562"/>
+    <hyperlink ref="C564" r:id="rId563"/>
+    <hyperlink ref="C565" r:id="rId564"/>
+    <hyperlink ref="C566" r:id="rId565"/>
+    <hyperlink ref="C567" r:id="rId566"/>
+    <hyperlink ref="C568" r:id="rId567"/>
+    <hyperlink ref="C569" r:id="rId568"/>
+    <hyperlink ref="C570" r:id="rId569"/>
+    <hyperlink ref="C571" r:id="rId570"/>
+    <hyperlink ref="C572" r:id="rId571"/>
+    <hyperlink ref="C573" r:id="rId572"/>
+    <hyperlink ref="C574" r:id="rId573"/>
+    <hyperlink ref="C575" r:id="rId574"/>
+    <hyperlink ref="C576" r:id="rId575"/>
+    <hyperlink ref="C577" r:id="rId576"/>
+    <hyperlink ref="C578" r:id="rId577"/>
+    <hyperlink ref="C579" r:id="rId578"/>
+    <hyperlink ref="C580" r:id="rId579"/>
+    <hyperlink ref="C581" r:id="rId580"/>
+    <hyperlink ref="C582" r:id="rId581"/>
+    <hyperlink ref="C583" r:id="rId582"/>
+    <hyperlink ref="C584" r:id="rId583"/>
+    <hyperlink ref="C585" r:id="rId584"/>
+    <hyperlink ref="C586" r:id="rId585"/>
+    <hyperlink ref="C587" r:id="rId586"/>
+    <hyperlink ref="C588" r:id="rId587"/>
+    <hyperlink ref="C589" r:id="rId588"/>
+    <hyperlink ref="C590" r:id="rId589"/>
+    <hyperlink ref="C591" r:id="rId590"/>
+    <hyperlink ref="C592" r:id="rId591"/>
+    <hyperlink ref="C593" r:id="rId592"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rent_info_beijingzufang.xlsx
+++ b/rent_info_beijingzufang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1788">
   <si>
     <t>标题</t>
   </si>
@@ -25,6 +25,567 @@
     <t>链接</t>
   </si>
   <si>
+    <t>业主直租，宋家庄地铁口一居室，可改两居</t>
+  </si>
+  <si>
+    <t>04-13 00:17</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286659205/</t>
+  </si>
+  <si>
+    <t>【女生个人求租】北三环10号线附近房子</t>
+  </si>
+  <si>
+    <t>04-13 00:13</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286659005/</t>
+  </si>
+  <si>
+    <t>求租向阳主卧或者次卧，海淀黄庄苏州街1至2公里内</t>
+  </si>
+  <si>
+    <t>04-13 00:12</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286658990/</t>
+  </si>
+  <si>
+    <t>s1线小园地铁朝南次卧1300三户合租一屋一个人家具家电全齐拎包入住临近地铁金融街890公交直达石景山海淀六里桥等</t>
+  </si>
+  <si>
+    <t>04-13 00:11</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286658935/</t>
+  </si>
+  <si>
+    <t>南礼士路 木樨地 长安街 金融街附近高性价比次卧转租（仅限女生）</t>
+  </si>
+  <si>
+    <t>04-13 00:07</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286658738/</t>
+  </si>
+  <si>
+    <t>朝廷公寓个人转3400</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286658721/</t>
+  </si>
+  <si>
+    <t>纯个人主卧转租</t>
+  </si>
+  <si>
+    <t>04-13 00:04</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286658536/</t>
+  </si>
+  <si>
+    <t>个人转租.传媒大学主卧独卫.一号线地铁.朝南向.三家合租.室友很和谐.包网费.详情咨询➕17710710620</t>
+  </si>
+  <si>
+    <t>04-12 23:58</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286658200/</t>
+  </si>
+  <si>
+    <t>和义东里四区一居2500</t>
+  </si>
+  <si>
+    <t>04-12 23:57</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286658165/</t>
+  </si>
+  <si>
+    <t>求租一居、开间or大主卧</t>
+  </si>
+  <si>
+    <t>04-12 23:56</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286658135/</t>
+  </si>
+  <si>
+    <t>京旺家园八区，两室一厅主卧找一女生室友</t>
+  </si>
+  <si>
+    <t>04-12 23:54</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286658001/</t>
+  </si>
+  <si>
+    <t>出租/女生合租/1号线传媒大学珠江绿洲小区，独立卫生间，落地窗</t>
+  </si>
+  <si>
+    <t>04-12 23:53</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286657940/</t>
+  </si>
+  <si>
+    <t>房东直租 地铁8号线大红门南 次卧招男室友</t>
+  </si>
+  <si>
+    <t>04-12 23:49</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286657751/</t>
+  </si>
+  <si>
+    <t>四惠东甘露园南里精装两居5000元，随时看房</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286657750/</t>
+  </si>
+  <si>
+    <t>1号线 管庄双桥地铁站 价格便宜</t>
+  </si>
+  <si>
+    <t>04-12 23:48</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286657670/</t>
+  </si>
+  <si>
+    <t>房东租，无押金，五号线天通苑单间700次卧1500主卧2300 可以月付，咱包物业取暖，全新家电家具，有厨房，挨着地铁，</t>
+  </si>
+  <si>
+    <t>04-12 23:46</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286657573/</t>
+  </si>
+  <si>
+    <t>求租4号线阳面卧室</t>
+  </si>
+  <si>
+    <t>04-12 23:39</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286657242/</t>
+  </si>
+  <si>
+    <t>双合地铁口300米，0中介，现特惠2600</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286657219/</t>
+  </si>
+  <si>
+    <t>6号线 草房地铁站 中弘北京像素南区 步行3分钟到地铁 独厨独卫 开间 一居室 南向 可押一付一 无中介费</t>
+  </si>
+  <si>
+    <t>04-12 23:38</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286657147/</t>
+  </si>
+  <si>
+    <t>一号线双桥，南向一居室，落地窗全天采光，可随时入住，电梯房地铁5分钟，包物业取暖，详情咨询+微13120388441</t>
+  </si>
+  <si>
+    <t>04-12 23:36</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286657032/</t>
+  </si>
+  <si>
+    <t>丰台科技园，诺得中心，郭公庄地铁9号线朝南次卧 四居室 每个卧室一个人 1600每月 门口设施齐全 小区门口步行三分钟到达公交车站</t>
+  </si>
+  <si>
+    <t>04-12 23:31</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286656777/</t>
+  </si>
+  <si>
+    <t>定福庄西街小区次卧转租，毕业工作长租都可！生活机能好</t>
+  </si>
+  <si>
+    <t>04-12 23:29</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286656669/</t>
+  </si>
+  <si>
+    <t>求租西局附近朝南主卧 房东直租</t>
+  </si>
+  <si>
+    <t>04-12 23:26</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286656464/</t>
+  </si>
+  <si>
+    <t>转租 1300 六里桥东地铁站附近</t>
+  </si>
+  <si>
+    <t>04-12 23:21</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286656111/</t>
+  </si>
+  <si>
+    <t>三元桥 亮马桥 单人小房间 转租</t>
+  </si>
+  <si>
+    <t>04-12 23:17</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286655885/</t>
+  </si>
+  <si>
+    <t>求租一居室/公寓 可尽快入住到八月底 中关村 海淀黄庄 苏州街 知春里附近</t>
+  </si>
+  <si>
+    <t>04-12 23:14</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286655687/</t>
+  </si>
+  <si>
+    <t>［求租］16号线永丰/永丰南两居室—整租</t>
+  </si>
+  <si>
+    <t>04-12 23:12</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286655557/</t>
+  </si>
+  <si>
+    <t>14号线东风北桥地铁站 瞰都国际 找精英室友</t>
+  </si>
+  <si>
+    <t>04-12 23:11</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286655486/</t>
+  </si>
+  <si>
+    <t>无中介费出租14号线望京南大山子北里小区三家合住，主卧，次卧出租，紧邻58同城798艺术区电子it产业园电通创意广场360电子总部</t>
+  </si>
+  <si>
+    <t>04-12 23:08</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286655333/</t>
+  </si>
+  <si>
+    <t>女生合租/房东直租/环境优美/交通便利/商圈附近/价格合适/男生勿扰!</t>
+  </si>
+  <si>
+    <t>04-12 23:07</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286655227/</t>
+  </si>
+  <si>
+    <t>6号线草房地铁口，精装独厨独卫开间，近地铁，没有中介费，民水民电包物业取暖。随时看房。</t>
+  </si>
+  <si>
+    <t>04-12 23:05</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286655121/</t>
+  </si>
+  <si>
+    <t>北神树地铁附近，无中介，家电齐全！</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286655108/</t>
+  </si>
+  <si>
+    <t>地铁15号线马泉营站，康营4期三家合租南向主卧1900，近望京</t>
+  </si>
+  <si>
+    <t>04-12 23:04</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286655063/</t>
+  </si>
+  <si>
+    <t>丰台区求租，最好房东直租的房子，预算2000</t>
+  </si>
+  <si>
+    <t>04-12 23:00</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654783/</t>
+  </si>
+  <si>
+    <t>酒仙桥两居室次卧出租</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654770/</t>
+  </si>
+  <si>
+    <t>求租一居室或两居合租征室友</t>
+  </si>
+  <si>
+    <t>04-12 22:59</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654694/</t>
+  </si>
+  <si>
+    <t>芍药居北里朝南次卧采光特别好15301319957</t>
+  </si>
+  <si>
+    <t>04-12 22:57</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654578/</t>
+  </si>
+  <si>
+    <t>10号线双井地铁站两居室可整租可分租精装修拎包入住</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654566/</t>
+  </si>
+  <si>
+    <t>求租芍药居附近一居室或大点的主卧</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654549/</t>
+  </si>
+  <si>
+    <t>上地 周边主卧 次卧 西二旗 马连洼 落地窗阳台 全女生 两家住 独卫应有尽有</t>
+  </si>
+  <si>
+    <t>04-12 22:55</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654409/</t>
+  </si>
+  <si>
+    <t>10号线劲松地铁站一居室精装修拎包入住</t>
+  </si>
+  <si>
+    <t>04-12 22:54</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654375/</t>
+  </si>
+  <si>
+    <t>红庙北里小区 只租女生 3300元 南向带阳台 走路5分钟金台路地铁站 实图18911786663</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654370/</t>
+  </si>
+  <si>
+    <t>13号线清河地铁站宣海家园临近小米科技园金山软件快手朝南主卧带阳台朝北次卧精装修包物业取暖现房随时看房入住</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654359/</t>
+  </si>
+  <si>
+    <t>转租丰台地铁站房子</t>
+  </si>
+  <si>
+    <t>04-12 22:53</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654287/</t>
+  </si>
+  <si>
+    <t>6号线，草房地铁站，连心园东区，三家合租，全屋女孩，南向大主卧阳台，看房电话17611060508微信同号</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654278/</t>
+  </si>
+  <si>
+    <t>朝南主卧 14号线 6号线 朝阳公园站 金台路站 近三里屯国贸大望路望京</t>
+  </si>
+  <si>
+    <t>04-12 22:51</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654182/</t>
+  </si>
+  <si>
+    <t>临近中关村地铁站出租</t>
+  </si>
+  <si>
+    <t>04-12 22:49</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286654024/</t>
+  </si>
+  <si>
+    <t>传媒大学地铁旁 艺水芳园主卧独卫 无中介费 看房联系18612207850</t>
+  </si>
+  <si>
+    <t>04-12 22:47</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286653910/</t>
+  </si>
+  <si>
+    <t>西三环紫竹桥【招合住小伙伴儿】【男性】</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286653883/</t>
+  </si>
+  <si>
+    <t>海淀软件园，农大南路附近求租，找舍友~</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286653871/</t>
+  </si>
+  <si>
+    <t>杨庄地址 主卧阳台 2300随时看房入住</t>
+  </si>
+  <si>
+    <t>04-12 22:44</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286653730/</t>
+  </si>
+  <si>
+    <t>求租六号线常营-草房地铁站朝南一室一厅，中介勿扰</t>
+  </si>
+  <si>
+    <t>04-12 22:41</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286653530/</t>
+  </si>
+  <si>
+    <t>三元桥 新源里 两家独卫 3层4688元 13911488858</t>
+  </si>
+  <si>
+    <t>04-12 22:39</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286653456/</t>
+  </si>
+  <si>
+    <t>纯个人：东单、王府井、崇文门附近，二居室主卧直租</t>
+  </si>
+  <si>
+    <t>04-12 22:32</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286653050/</t>
+  </si>
+  <si>
+    <t>❤️0中介费房东直租🈷️付，0押金🉑️短～租，西二旗西北旺主卧次卧独卫1000~2000两居三居3000~4000快手小米软件园百度网易</t>
+  </si>
+  <si>
+    <t>04-12 22:30</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652918/</t>
+  </si>
+  <si>
+    <t>★出租五道口六道口地铁站附近大学周边精装好房！整租分租都可以！</t>
+  </si>
+  <si>
+    <t>04-12 22:29</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652846/</t>
+  </si>
+  <si>
+    <t>回龙观地铁边2居房东直租</t>
+  </si>
+  <si>
+    <t>04-12 22:28</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652802/</t>
+  </si>
+  <si>
+    <t>六号线物资学院，天赐良园超大卧室阳台，没有中介费包物业取暖，🉑押一付一20号可以入住，17710028902</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652788/</t>
+  </si>
+  <si>
+    <t>朝南主卧带阳台转租 近14号朝阳公园站 6号金台路 3800 三里屯国贸 大望路 团结湖 望京 呼家楼酒仙桥 蓝港商圈 丽水嘉园小区</t>
+  </si>
+  <si>
+    <t>04-12 22:27</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652739/</t>
+  </si>
+  <si>
+    <t>5号线 北苑路北 大屯路东立水桥南 需要租房的请看过来！！！！</t>
+  </si>
+  <si>
+    <t>04-12 22:26</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652633/</t>
+  </si>
+  <si>
+    <t>5号线北苑路北 13号线 北苑 整租 开间 有燃气 龙湖附近 价格不贵 喜欢电话 15010870270同微信</t>
+  </si>
+  <si>
+    <t>04-12 22:25</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652625/</t>
+  </si>
+  <si>
+    <t>15号线 花梨坎地铁站</t>
+  </si>
+  <si>
+    <t>04-12 22:23</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652499/</t>
+  </si>
+  <si>
+    <t>8号线瀛海地铁站2公里，润棠瀛海长租社区，开间、一居、两居、三居多种房型，民水电，有燃气的社区出租</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652488/</t>
+  </si>
+  <si>
+    <t>6号线 常营地铁口 万象新天二区 西南向100平两居室 8000 包物业取暖 随时看房入住 对面就是常营天街 华联身后。</t>
+  </si>
+  <si>
+    <t>04-12 22:21</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652374/</t>
+  </si>
+  <si>
+    <t>班车直达宋家庄，荣京东街，瀛海三站，2400起</t>
+  </si>
+  <si>
+    <t>04-12 22:18</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286652149/</t>
+  </si>
+  <si>
+    <t>【转租】16号线农大南路地铁站朝南14平大主卧2640一个月</t>
+  </si>
+  <si>
+    <t>04-12 22:15</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286651980/</t>
+  </si>
+  <si>
+    <t>传媒大学妇联小区一居室转租</t>
+  </si>
+  <si>
+    <t>04-12 22:14</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286651899/</t>
+  </si>
+  <si>
     <t>15号线后沙峪，步行10分钟到地铁站，loft精装合租朝南厅卧1800，主卧1700，次卧1300，没有中介费服务费，望京通勤30分钟</t>
   </si>
   <si>
@@ -565,9 +1126,6 @@
     <t>https://www.douban.com/group/topic/286646099/</t>
   </si>
   <si>
-    <t>★出租五道口六道口地铁站附近大学周边精装好房！整租分租都可以！</t>
-  </si>
-  <si>
     <t>04-12 20:36</t>
   </si>
   <si>
@@ -3941,9 +4499,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/286617174/</t>
-  </si>
-  <si>
-    <t>8号线瀛海地铁站2公里，润棠瀛海长租社区，开间、一居、两居、三居多种房型，民水电，有燃气的社区出租</t>
   </si>
   <si>
     <t>04-12 11:18</t>
@@ -5167,7 +5722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C593"/>
+  <dimension ref="A1:C660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5249,40 +5804,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -5337,40 +5892,40 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>51</v>
@@ -5381,51 +5936,51 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>65</v>
@@ -5447,172 +6002,172 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
         <v>91</v>
       </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
         <v>99</v>
       </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
         <v>107</v>
       </c>
-      <c r="B39" t="s">
-        <v>108</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>112</v>
@@ -5634,18 +6189,18 @@
         <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>120</v>
@@ -5656,18 +6211,18 @@
         <v>121</v>
       </c>
       <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" t="s">
         <v>124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>125</v>
@@ -5678,18 +6233,18 @@
         <v>126</v>
       </c>
       <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
         <v>129</v>
-      </c>
-      <c r="B47" t="s">
-        <v>127</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>130</v>
@@ -5722,84 +6277,84 @@
         <v>137</v>
       </c>
       <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B52" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B53" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B54" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B55" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
         <v>154</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
         <v>157</v>
-      </c>
-      <c r="B57" t="s">
-        <v>155</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>158</v>
@@ -5821,51 +6376,51 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
         <v>165</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
         <v>168</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
         <v>171</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" t="s">
         <v>174</v>
-      </c>
-      <c r="B63" t="s">
-        <v>172</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>175</v>
@@ -5876,18 +6431,18 @@
         <v>176</v>
       </c>
       <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" t="s">
         <v>179</v>
-      </c>
-      <c r="B65" t="s">
-        <v>177</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>180</v>
@@ -5898,832 +6453,832 @@
         <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B85" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B86" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B87" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B88" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B93" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B94" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B96" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B99" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B103" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B104" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B110" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B111" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B116" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B118" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B119" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B120" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B121" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B122" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B123" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B125" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B126" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B127" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B128" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B129" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B130" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B131" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B132" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>368</v>
+      </c>
+      <c r="B133" t="s">
         <v>364</v>
       </c>
-      <c r="B133" t="s">
-        <v>360</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>366</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B135" t="s">
         <v>370</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B136" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
+        <v>377</v>
+      </c>
+      <c r="B137" t="s">
         <v>375</v>
       </c>
-      <c r="B137" t="s">
-        <v>376</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>382</v>
+      </c>
+      <c r="B139" t="s">
         <v>380</v>
       </c>
-      <c r="B139" t="s">
-        <v>381</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B140" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B141" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>388</v>
@@ -6789,51 +7344,51 @@
         <v>404</v>
       </c>
       <c r="B147" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B148" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B149" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B150" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B151" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>417</v>
@@ -6866,117 +7421,117 @@
         <v>424</v>
       </c>
       <c r="B154" t="s">
+        <v>422</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>426</v>
+      </c>
+      <c r="B155" t="s">
         <v>427</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
+        <v>429</v>
+      </c>
+      <c r="B156" t="s">
+        <v>427</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B156" t="s">
-        <v>431</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
+        <v>431</v>
+      </c>
+      <c r="B157" t="s">
+        <v>432</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B157" t="s">
-        <v>431</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
+        <v>434</v>
+      </c>
+      <c r="B158" t="s">
         <v>435</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
+        <v>437</v>
+      </c>
+      <c r="B159" t="s">
+        <v>435</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="B159" t="s">
-        <v>436</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
+        <v>439</v>
+      </c>
+      <c r="B160" t="s">
         <v>440</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>442</v>
+      </c>
+      <c r="B161" t="s">
+        <v>440</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="B161" t="s">
-        <v>441</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
+        <v>444</v>
+      </c>
+      <c r="B162" t="s">
         <v>445</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
+        <v>447</v>
+      </c>
+      <c r="B163" t="s">
         <v>448</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
+        <v>450</v>
+      </c>
+      <c r="B164" t="s">
         <v>451</v>
-      </c>
-      <c r="B164" t="s">
-        <v>449</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>452</v>
@@ -6987,4718 +7542,5455 @@
         <v>453</v>
       </c>
       <c r="B165" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B166" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B167" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B168" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B169" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B170" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B171" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B172" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B173" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B174" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B175" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B176" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B177" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B178" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B179" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B180" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>498</v>
+      </c>
+      <c r="B181" t="s">
         <v>494</v>
       </c>
-      <c r="B181" t="s">
-        <v>492</v>
-      </c>
       <c r="C181" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B182" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B183" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B184" t="s">
         <v>503</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B185" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B186" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B187" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B188" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B189" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B190" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B191" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B192" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B193" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B194" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B195" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B196" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B197" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B198" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B199" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B200" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B201" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B202" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B203" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B204" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B205" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B206" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B207" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B208" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B209" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B210" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B211" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B212" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B213" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="B214" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="B215" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="B216" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B217" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B218" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>477</v>
+        <v>604</v>
       </c>
       <c r="B219" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B220" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B221" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B222" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="B223" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="B224" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B225" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B226" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B227" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="B228" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B229" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="B230" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B231" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B232" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="B233" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="B234" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>183</v>
+        <v>646</v>
       </c>
       <c r="B235" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B236" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B237" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B238" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B239" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B240" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B241" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B242" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B243" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>41</v>
+        <v>669</v>
       </c>
       <c r="B244" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B245" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B246" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B247" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B248" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B249" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B250" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B251" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B252" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B253" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B254" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B255" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B256" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B257" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="B258" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B259" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B260" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B261" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B262" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B263" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
+        <v>722</v>
+      </c>
+      <c r="B264" t="s">
         <v>718</v>
       </c>
-      <c r="B264" t="s">
-        <v>719</v>
-      </c>
       <c r="C264" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B265" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B266" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B267" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B268" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B269" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B270" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="B271" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="B272" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B273" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
+        <v>750</v>
+      </c>
+      <c r="B274" t="s">
         <v>746</v>
       </c>
-      <c r="B274" t="s">
-        <v>747</v>
-      </c>
       <c r="C274" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B275" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B276" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B277" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B278" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B279" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B280" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B281" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B282" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B283" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B284" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B285" t="s">
         <v>777</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>779</v>
+        <v>663</v>
       </c>
       <c r="B286" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B287" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B288" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
+        <v>789</v>
+      </c>
+      <c r="B289" t="s">
         <v>787</v>
       </c>
-      <c r="B289" t="s">
-        <v>788</v>
-      </c>
       <c r="C289" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B290" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B291" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B292" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B293" t="s">
         <v>798</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B294" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B295" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B296" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B297" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B298" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B299" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B300" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B301" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>822</v>
+        <v>156</v>
       </c>
       <c r="B302" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B303" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B304" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B305" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B306" t="s">
         <v>835</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B307" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B308" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B309" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B310" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>848</v>
+        <v>228</v>
       </c>
       <c r="B311" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B312" t="s">
         <v>851</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B313" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B314" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B315" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
+        <v>863</v>
+      </c>
+      <c r="B316" t="s">
         <v>861</v>
       </c>
-      <c r="B316" t="s">
-        <v>862</v>
-      </c>
       <c r="C316" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B317" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B318" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B319" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B320" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B321" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B322" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B323" t="s">
         <v>881</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B324" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B325" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B326" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>183</v>
+        <v>894</v>
       </c>
       <c r="B327" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B328" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B329" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B330" t="s">
         <v>900</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B331" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B332" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B333" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
+        <v>913</v>
+      </c>
+      <c r="B334" t="s">
         <v>911</v>
       </c>
-      <c r="B334" t="s">
-        <v>912</v>
-      </c>
       <c r="C334" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B335" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
+        <v>918</v>
+      </c>
+      <c r="B336" t="s">
         <v>916</v>
       </c>
-      <c r="B336" t="s">
-        <v>917</v>
-      </c>
       <c r="C336" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B337" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B338" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B339" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B340" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B341" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B342" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B343" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B344" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B345" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B346" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="B347" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
+        <v>951</v>
+      </c>
+      <c r="B348" t="s">
         <v>947</v>
       </c>
-      <c r="B348" t="s">
-        <v>945</v>
-      </c>
       <c r="C348" s="1" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="B349" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B350" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B351" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="B352" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="B353" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="B354" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="B355" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="B356" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="B357" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B358" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="B359" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B360" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B361" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="B362" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B363" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B364" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B365" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B366" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B367" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B368" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B369" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B370" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B371" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B372" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B373" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B374" t="s">
         <v>1021</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B375" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B376" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B377" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B378" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B379" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B380" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B381" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="B382" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B383" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="B384" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B385" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B386" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="B387" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="B388" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B389" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="B390" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="B391" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="B392" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="B393" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>1070</v>
+        <v>156</v>
       </c>
       <c r="B394" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="B395" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="B396" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="B397" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="B398" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="B399" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="B400" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="B401" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="B402" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B403" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="B404" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="B405" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="B406" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="B407" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="B408" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="B409" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B410" t="s">
         <v>1117</v>
       </c>
-      <c r="B410" t="s">
-        <v>1118</v>
-      </c>
       <c r="C410" s="1" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B411" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B412" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B413" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B414" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="B415" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="B416" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B417" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B418" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="B419" t="s">
         <v>1142</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B420" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B421" t="s">
         <v>1147</v>
       </c>
-      <c r="B421" t="s">
-        <v>1148</v>
-      </c>
       <c r="C421" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B422" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B423" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B424" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B425" t="s">
-        <v>1154</v>
+        <v>1161</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="B426" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="B427" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B428" t="s">
         <v>1167</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B429" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="B430" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="B431" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="B432" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B433" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="B434" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="B435" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="B436" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B437" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B438" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="B439" t="s">
-        <v>1194</v>
+        <v>1201</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="B440" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>1201</v>
+        <v>1206</v>
       </c>
       <c r="B441" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="B442" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="B443" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="B444" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="B445" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>822</v>
+        <v>1219</v>
       </c>
       <c r="B446" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="B447" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="B448" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="B449" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="B450" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="B451" t="s">
         <v>1227</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="B452" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="B453" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B454" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>183</v>
+        <v>1240</v>
       </c>
       <c r="B455" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="B456" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B457" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B458" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="B459" t="s">
         <v>1249</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="B460" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="B461" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="B462" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>528</v>
+        <v>1262</v>
       </c>
       <c r="B463" t="s">
-        <v>1256</v>
+        <v>1263</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="B464" t="s">
-        <v>1256</v>
+        <v>1266</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1260</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>1261</v>
+        <v>1268</v>
       </c>
       <c r="B465" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="B466" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="B467" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="B468" t="s">
-        <v>1268</v>
+        <v>1277</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1271</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>1272</v>
+        <v>1279</v>
       </c>
       <c r="B469" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1274</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
       <c r="B470" t="s">
-        <v>1276</v>
+        <v>1283</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="B471" t="s">
-        <v>1279</v>
+        <v>1286</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1280</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>1281</v>
+        <v>1288</v>
       </c>
       <c r="B472" t="s">
-        <v>1282</v>
+        <v>1289</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1283</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>1284</v>
+        <v>1291</v>
       </c>
       <c r="B473" t="s">
-        <v>1285</v>
+        <v>1292</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>822</v>
+        <v>1294</v>
       </c>
       <c r="B474" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="B475" t="s">
-        <v>1290</v>
+        <v>1298</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="B476" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>1295</v>
+        <v>1303</v>
       </c>
       <c r="B477" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1296</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>1297</v>
+        <v>1306</v>
       </c>
       <c r="B478" t="s">
-        <v>1298</v>
+        <v>1307</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1299</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>1300</v>
+        <v>1309</v>
       </c>
       <c r="B479" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1302</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="B480" t="s">
-        <v>1304</v>
+        <v>1312</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1305</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="B481" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1308</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>1309</v>
+        <v>1316</v>
       </c>
       <c r="B482" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="B483" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="B484" t="s">
-        <v>1313</v>
+        <v>1322</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1316</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>1317</v>
+        <v>1324</v>
       </c>
       <c r="B485" t="s">
-        <v>1318</v>
+        <v>1325</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1319</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>1320</v>
+        <v>1327</v>
       </c>
       <c r="B486" t="s">
-        <v>1321</v>
+        <v>1328</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1322</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>1323</v>
+        <v>1330</v>
       </c>
       <c r="B487" t="s">
-        <v>1324</v>
+        <v>1331</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1325</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>1326</v>
+        <v>1333</v>
       </c>
       <c r="B488" t="s">
-        <v>1327</v>
+        <v>1334</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1328</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>1329</v>
+        <v>1336</v>
       </c>
       <c r="B489" t="s">
-        <v>1327</v>
+        <v>1337</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1330</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="B490" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="B491" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1335</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>1336</v>
+        <v>1344</v>
       </c>
       <c r="B492" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>1338</v>
+        <v>1346</v>
       </c>
       <c r="B493" t="s">
-        <v>1339</v>
+        <v>1347</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1340</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>1341</v>
+        <v>1349</v>
       </c>
       <c r="B494" t="s">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1342</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="B495" t="s">
-        <v>1339</v>
+        <v>1353</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1344</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>1345</v>
+        <v>1355</v>
       </c>
       <c r="B496" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1347</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="B497" t="s">
-        <v>1349</v>
+        <v>1358</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1350</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="B498" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1352</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>1353</v>
+        <v>1363</v>
       </c>
       <c r="B499" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1355</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>1356</v>
+        <v>1365</v>
       </c>
       <c r="B500" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1357</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>1358</v>
+        <v>1367</v>
       </c>
       <c r="B501" t="s">
-        <v>1354</v>
+        <v>1368</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1359</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="B502" t="s">
-        <v>1361</v>
+        <v>1371</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1362</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>1363</v>
+        <v>1373</v>
       </c>
       <c r="B503" t="s">
-        <v>1364</v>
+        <v>1374</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1365</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>1366</v>
+        <v>1376</v>
       </c>
       <c r="B504" t="s">
-        <v>1367</v>
+        <v>1377</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1368</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>1369</v>
+        <v>1379</v>
       </c>
       <c r="B505" t="s">
-        <v>1367</v>
+        <v>1380</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>1371</v>
+        <v>1382</v>
       </c>
       <c r="B506" t="s">
-        <v>1372</v>
+        <v>1380</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1373</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>1374</v>
+        <v>1384</v>
       </c>
       <c r="B507" t="s">
-        <v>1375</v>
+        <v>1385</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1376</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="B508" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="B509" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1380</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>1381</v>
+        <v>1392</v>
       </c>
       <c r="B510" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1383</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>1384</v>
+        <v>1394</v>
       </c>
       <c r="B511" t="s">
-        <v>1385</v>
+        <v>1395</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1386</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>1387</v>
+        <v>1397</v>
       </c>
       <c r="B512" t="s">
-        <v>1385</v>
+        <v>1398</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1388</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>1389</v>
+        <v>1008</v>
       </c>
       <c r="B513" t="s">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1391</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>1366</v>
+        <v>1402</v>
       </c>
       <c r="B514" t="s">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1392</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>1393</v>
+        <v>1404</v>
       </c>
       <c r="B515" t="s">
-        <v>1394</v>
+        <v>1405</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1395</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>1396</v>
+        <v>1407</v>
       </c>
       <c r="B516" t="s">
-        <v>1397</v>
+        <v>1405</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1398</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>1399</v>
+        <v>1409</v>
       </c>
       <c r="B517" t="s">
-        <v>1397</v>
+        <v>1410</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1400</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="B518" t="s">
-        <v>1397</v>
+        <v>1413</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>1403</v>
+        <v>1415</v>
       </c>
       <c r="B519" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
       <c r="B520" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
       <c r="B521" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>1412</v>
+        <v>156</v>
       </c>
       <c r="B522" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1413</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>1414</v>
+        <v>1425</v>
       </c>
       <c r="B523" t="s">
-        <v>1415</v>
+        <v>1426</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1416</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" t="s">
-        <v>1417</v>
+        <v>1428</v>
       </c>
       <c r="B524" t="s">
-        <v>1418</v>
+        <v>1429</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1419</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" t="s">
-        <v>1420</v>
+        <v>1431</v>
       </c>
       <c r="B525" t="s">
-        <v>1421</v>
+        <v>1432</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1422</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" t="s">
-        <v>1423</v>
+        <v>1434</v>
       </c>
       <c r="B526" t="s">
-        <v>1421</v>
+        <v>1435</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1424</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="B527" t="s">
-        <v>1426</v>
+        <v>1435</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1427</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>1428</v>
+        <v>1439</v>
       </c>
       <c r="B528" t="s">
-        <v>1429</v>
+        <v>1435</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>1431</v>
+        <v>1441</v>
       </c>
       <c r="B529" t="s">
-        <v>1429</v>
+        <v>1442</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1432</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" t="s">
-        <v>1433</v>
+        <v>714</v>
       </c>
       <c r="B530" t="s">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1435</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>1436</v>
+        <v>1445</v>
       </c>
       <c r="B531" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1438</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>1439</v>
+        <v>1447</v>
       </c>
       <c r="B532" t="s">
-        <v>1440</v>
+        <v>1448</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1441</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>1442</v>
+        <v>1450</v>
       </c>
       <c r="B533" t="s">
-        <v>1443</v>
+        <v>1451</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1444</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" t="s">
-        <v>1445</v>
+        <v>1453</v>
       </c>
       <c r="B534" t="s">
-        <v>1443</v>
+        <v>1454</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1446</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>1447</v>
+        <v>1456</v>
       </c>
       <c r="B535" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1449</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>1450</v>
+        <v>1458</v>
       </c>
       <c r="B536" t="s">
-        <v>1448</v>
+        <v>1459</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1451</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" t="s">
-        <v>1452</v>
+        <v>1461</v>
       </c>
       <c r="B537" t="s">
-        <v>1453</v>
+        <v>1462</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1454</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" t="s">
-        <v>1455</v>
+        <v>1464</v>
       </c>
       <c r="B538" t="s">
-        <v>1453</v>
+        <v>1465</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1456</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" t="s">
-        <v>1457</v>
+        <v>1467</v>
       </c>
       <c r="B539" t="s">
-        <v>1453</v>
+        <v>1468</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1458</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" t="s">
-        <v>1459</v>
+        <v>1470</v>
       </c>
       <c r="B540" t="s">
-        <v>1460</v>
+        <v>1471</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1461</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" t="s">
-        <v>1462</v>
+        <v>1008</v>
       </c>
       <c r="B541" t="s">
-        <v>1463</v>
+        <v>1473</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>1465</v>
+        <v>1475</v>
       </c>
       <c r="B542" t="s">
-        <v>1466</v>
+        <v>1476</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1467</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" t="s">
-        <v>1468</v>
+        <v>1478</v>
       </c>
       <c r="B543" t="s">
-        <v>1469</v>
+        <v>1479</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1470</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" t="s">
-        <v>1471</v>
+        <v>1481</v>
       </c>
       <c r="B544" t="s">
-        <v>1472</v>
+        <v>1479</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1473</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" t="s">
-        <v>1474</v>
+        <v>1483</v>
       </c>
       <c r="B545" t="s">
-        <v>1475</v>
+        <v>1484</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1476</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" t="s">
-        <v>1477</v>
+        <v>1486</v>
       </c>
       <c r="B546" t="s">
-        <v>1478</v>
+        <v>1487</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1479</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" t="s">
-        <v>1480</v>
+        <v>1489</v>
       </c>
       <c r="B547" t="s">
-        <v>1481</v>
+        <v>1490</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1482</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" t="s">
-        <v>1483</v>
+        <v>1492</v>
       </c>
       <c r="B548" t="s">
-        <v>1481</v>
+        <v>1493</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1484</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" t="s">
-        <v>1485</v>
+        <v>176</v>
       </c>
       <c r="B549" t="s">
-        <v>1486</v>
+        <v>1495</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1487</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" t="s">
-        <v>1488</v>
+        <v>1497</v>
       </c>
       <c r="B550" t="s">
-        <v>1486</v>
+        <v>1498</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1489</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" t="s">
-        <v>1490</v>
+        <v>1500</v>
       </c>
       <c r="B551" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1492</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" t="s">
-        <v>1493</v>
+        <v>1502</v>
       </c>
       <c r="B552" t="s">
-        <v>1491</v>
+        <v>1503</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1494</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" t="s">
-        <v>1495</v>
+        <v>1505</v>
       </c>
       <c r="B553" t="s">
-        <v>1491</v>
+        <v>1506</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1496</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" t="s">
-        <v>1497</v>
+        <v>1508</v>
       </c>
       <c r="B554" t="s">
-        <v>1491</v>
+        <v>1509</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1498</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555" t="s">
-        <v>1499</v>
+        <v>1511</v>
       </c>
       <c r="B555" t="s">
-        <v>1500</v>
+        <v>1512</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1501</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" t="s">
-        <v>1502</v>
+        <v>1514</v>
       </c>
       <c r="B556" t="s">
-        <v>1500</v>
+        <v>1512</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1503</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" t="s">
-        <v>1504</v>
+        <v>1516</v>
       </c>
       <c r="B557" t="s">
-        <v>1505</v>
+        <v>1517</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1506</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" t="s">
-        <v>1507</v>
+        <v>1519</v>
       </c>
       <c r="B558" t="s">
-        <v>1508</v>
+        <v>1517</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1509</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" t="s">
-        <v>1510</v>
+        <v>1521</v>
       </c>
       <c r="B559" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1512</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" t="s">
-        <v>1513</v>
+        <v>1523</v>
       </c>
       <c r="B560" t="s">
-        <v>1514</v>
+        <v>1524</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1515</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="561" spans="1:3">
       <c r="A561" t="s">
-        <v>1516</v>
+        <v>1526</v>
       </c>
       <c r="B561" t="s">
-        <v>1514</v>
+        <v>1524</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1517</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562" t="s">
-        <v>1518</v>
+        <v>1528</v>
       </c>
       <c r="B562" t="s">
-        <v>1514</v>
+        <v>1524</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1519</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563" t="s">
-        <v>1520</v>
+        <v>1530</v>
       </c>
       <c r="B563" t="s">
-        <v>1514</v>
+        <v>1531</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1521</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" t="s">
-        <v>1522</v>
+        <v>1533</v>
       </c>
       <c r="B564" t="s">
-        <v>1523</v>
+        <v>1534</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1524</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" t="s">
-        <v>1525</v>
+        <v>1536</v>
       </c>
       <c r="B565" t="s">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1527</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" t="s">
-        <v>1528</v>
+        <v>1538</v>
       </c>
       <c r="B566" t="s">
-        <v>1526</v>
+        <v>1539</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1529</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="A567" t="s">
-        <v>1530</v>
+        <v>1541</v>
       </c>
       <c r="B567" t="s">
-        <v>1526</v>
+        <v>1539</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1531</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" t="s">
-        <v>1532</v>
+        <v>1543</v>
       </c>
       <c r="B568" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1534</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" t="s">
-        <v>1535</v>
+        <v>1545</v>
       </c>
       <c r="B569" t="s">
-        <v>1536</v>
+        <v>1546</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1537</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" t="s">
-        <v>1538</v>
+        <v>1548</v>
       </c>
       <c r="B570" t="s">
-        <v>1539</v>
+        <v>1549</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1540</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" t="s">
-        <v>1541</v>
+        <v>1551</v>
       </c>
       <c r="B571" t="s">
-        <v>1542</v>
+        <v>1552</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1543</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" t="s">
-        <v>1544</v>
+        <v>1554</v>
       </c>
       <c r="B572" t="s">
-        <v>1542</v>
+        <v>1552</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1545</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573" t="s">
-        <v>1546</v>
+        <v>1556</v>
       </c>
       <c r="B573" t="s">
-        <v>1547</v>
+        <v>1557</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1548</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" t="s">
-        <v>1549</v>
+        <v>1559</v>
       </c>
       <c r="B574" t="s">
-        <v>1550</v>
+        <v>1560</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1551</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="575" spans="1:3">
       <c r="A575" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B575" t="s">
-        <v>1553</v>
+        <v>1562</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1554</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="576" spans="1:3">
       <c r="A576" t="s">
-        <v>1555</v>
+        <v>1564</v>
       </c>
       <c r="B576" t="s">
-        <v>1553</v>
+        <v>1562</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1556</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" t="s">
-        <v>1557</v>
+        <v>1566</v>
       </c>
       <c r="B577" t="s">
-        <v>1558</v>
+        <v>1567</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1559</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" t="s">
-        <v>1560</v>
+        <v>1569</v>
       </c>
       <c r="B578" t="s">
-        <v>1558</v>
+        <v>1570</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1561</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" t="s">
-        <v>1562</v>
+        <v>1572</v>
       </c>
       <c r="B579" t="s">
-        <v>1563</v>
+        <v>1570</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1564</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580" t="s">
-        <v>1565</v>
+        <v>1574</v>
       </c>
       <c r="B580" t="s">
-        <v>1566</v>
+        <v>1575</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1567</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" t="s">
-        <v>1568</v>
+        <v>1551</v>
       </c>
       <c r="B581" t="s">
-        <v>1566</v>
+        <v>1575</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1569</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" t="s">
-        <v>1570</v>
+        <v>1578</v>
       </c>
       <c r="B582" t="s">
-        <v>1566</v>
+        <v>1579</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1571</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" t="s">
-        <v>1572</v>
+        <v>1581</v>
       </c>
       <c r="B583" t="s">
-        <v>1573</v>
+        <v>1582</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1574</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" t="s">
-        <v>1575</v>
+        <v>1584</v>
       </c>
       <c r="B584" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1577</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" t="s">
-        <v>1578</v>
+        <v>1586</v>
       </c>
       <c r="B585" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" t="s">
-        <v>1581</v>
+        <v>1588</v>
       </c>
       <c r="B586" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1583</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" t="s">
-        <v>1584</v>
+        <v>1591</v>
       </c>
       <c r="B587" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1585</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" t="s">
-        <v>1586</v>
+        <v>1594</v>
       </c>
       <c r="B588" t="s">
-        <v>1587</v>
+        <v>1595</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1588</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" t="s">
-        <v>1589</v>
+        <v>1597</v>
       </c>
       <c r="B589" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1591</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590" t="s">
-        <v>1592</v>
+        <v>1599</v>
       </c>
       <c r="B590" t="s">
-        <v>1590</v>
+        <v>1600</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1593</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" t="s">
-        <v>1594</v>
+        <v>1602</v>
       </c>
       <c r="B591" t="s">
-        <v>1595</v>
+        <v>1603</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1596</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592" t="s">
-        <v>1597</v>
+        <v>1605</v>
       </c>
       <c r="B592" t="s">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1599</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593" t="s">
-        <v>1600</v>
+        <v>1608</v>
       </c>
       <c r="B593" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1602</v>
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>1787</v>
       </c>
     </row>
   </sheetData>
@@ -12295,6 +13587,73 @@
     <hyperlink ref="C591" r:id="rId590"/>
     <hyperlink ref="C592" r:id="rId591"/>
     <hyperlink ref="C593" r:id="rId592"/>
+    <hyperlink ref="C594" r:id="rId593"/>
+    <hyperlink ref="C595" r:id="rId594"/>
+    <hyperlink ref="C596" r:id="rId595"/>
+    <hyperlink ref="C597" r:id="rId596"/>
+    <hyperlink ref="C598" r:id="rId597"/>
+    <hyperlink ref="C599" r:id="rId598"/>
+    <hyperlink ref="C600" r:id="rId599"/>
+    <hyperlink ref="C601" r:id="rId600"/>
+    <hyperlink ref="C602" r:id="rId601"/>
+    <hyperlink ref="C603" r:id="rId602"/>
+    <hyperlink ref="C604" r:id="rId603"/>
+    <hyperlink ref="C605" r:id="rId604"/>
+    <hyperlink ref="C606" r:id="rId605"/>
+    <hyperlink ref="C607" r:id="rId606"/>
+    <hyperlink ref="C608" r:id="rId607"/>
+    <hyperlink ref="C609" r:id="rId608"/>
+    <hyperlink ref="C610" r:id="rId609"/>
+    <hyperlink ref="C611" r:id="rId610"/>
+    <hyperlink ref="C612" r:id="rId611"/>
+    <hyperlink ref="C613" r:id="rId612"/>
+    <hyperlink ref="C614" r:id="rId613"/>
+    <hyperlink ref="C615" r:id="rId614"/>
+    <hyperlink ref="C616" r:id="rId615"/>
+    <hyperlink ref="C617" r:id="rId616"/>
+    <hyperlink ref="C618" r:id="rId617"/>
+    <hyperlink ref="C619" r:id="rId618"/>
+    <hyperlink ref="C620" r:id="rId619"/>
+    <hyperlink ref="C621" r:id="rId620"/>
+    <hyperlink ref="C622" r:id="rId621"/>
+    <hyperlink ref="C623" r:id="rId622"/>
+    <hyperlink ref="C624" r:id="rId623"/>
+    <hyperlink ref="C625" r:id="rId624"/>
+    <hyperlink ref="C626" r:id="rId625"/>
+    <hyperlink ref="C627" r:id="rId626"/>
+    <hyperlink ref="C628" r:id="rId627"/>
+    <hyperlink ref="C629" r:id="rId628"/>
+    <hyperlink ref="C630" r:id="rId629"/>
+    <hyperlink ref="C631" r:id="rId630"/>
+    <hyperlink ref="C632" r:id="rId631"/>
+    <hyperlink ref="C633" r:id="rId632"/>
+    <hyperlink ref="C634" r:id="rId633"/>
+    <hyperlink ref="C635" r:id="rId634"/>
+    <hyperlink ref="C636" r:id="rId635"/>
+    <hyperlink ref="C637" r:id="rId636"/>
+    <hyperlink ref="C638" r:id="rId637"/>
+    <hyperlink ref="C639" r:id="rId638"/>
+    <hyperlink ref="C640" r:id="rId639"/>
+    <hyperlink ref="C641" r:id="rId640"/>
+    <hyperlink ref="C642" r:id="rId641"/>
+    <hyperlink ref="C643" r:id="rId642"/>
+    <hyperlink ref="C644" r:id="rId643"/>
+    <hyperlink ref="C645" r:id="rId644"/>
+    <hyperlink ref="C646" r:id="rId645"/>
+    <hyperlink ref="C647" r:id="rId646"/>
+    <hyperlink ref="C648" r:id="rId647"/>
+    <hyperlink ref="C649" r:id="rId648"/>
+    <hyperlink ref="C650" r:id="rId649"/>
+    <hyperlink ref="C651" r:id="rId650"/>
+    <hyperlink ref="C652" r:id="rId651"/>
+    <hyperlink ref="C653" r:id="rId652"/>
+    <hyperlink ref="C654" r:id="rId653"/>
+    <hyperlink ref="C655" r:id="rId654"/>
+    <hyperlink ref="C656" r:id="rId655"/>
+    <hyperlink ref="C657" r:id="rId656"/>
+    <hyperlink ref="C658" r:id="rId657"/>
+    <hyperlink ref="C659" r:id="rId658"/>
+    <hyperlink ref="C660" r:id="rId659"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rent_info_beijingzufang.xlsx
+++ b/rent_info_beijingzufang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="1829">
   <si>
     <t>标题</t>
   </si>
@@ -23,6 +23,129 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>合租合租，望京来广营</t>
+  </si>
+  <si>
+    <t>04-13 02:15</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286662024/</t>
+  </si>
+  <si>
+    <t>学知园 六道口地铁 学院路 逸城东苑小区 2居室 主卧/次卧转租</t>
+  </si>
+  <si>
+    <t>04-13 01:59</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286661841/</t>
+  </si>
+  <si>
+    <t>永丰路转租</t>
+  </si>
+  <si>
+    <t>04-13 01:38</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286661514/</t>
+  </si>
+  <si>
+    <t>望京靠北 瑞平家园 80平 二室一厅 卫生干净带装修 个人转租 6500</t>
+  </si>
+  <si>
+    <t>04-13 01:17</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286661140/</t>
+  </si>
+  <si>
+    <t>一号线八通线八里桥地铁口三家两卫全空独卫3100大厅卧2300大次卧2000完全不抢卫生间步行地铁站700米🈚中介费随时看房拎包入住</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286661132/</t>
+  </si>
+  <si>
+    <t>中关村北大附近主卧独卫，两居室求租</t>
+  </si>
+  <si>
+    <t>04-13 01:09</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286660957/</t>
+  </si>
+  <si>
+    <t>四号线十九号线新宫地铁站公寓直租</t>
+  </si>
+  <si>
+    <t>04-13 01:07</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286660902/</t>
+  </si>
+  <si>
+    <t>六号线物资学院地铁站，精装修新建村二期高层主卧独卫带飘窗，全女孩，民水民电包物业暖气费巨好</t>
+  </si>
+  <si>
+    <t>04-13 01:06</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286660895/</t>
+  </si>
+  <si>
+    <t>石佛营高性价比，主卧出租</t>
+  </si>
+  <si>
+    <t>04-13 00:50</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286660428/</t>
+  </si>
+  <si>
+    <t>求租单间，过渡</t>
+  </si>
+  <si>
+    <t>04-13 00:45</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286660254/</t>
+  </si>
+  <si>
+    <t>房东低价直租六号线草房地铁站北京像素小区实体墙大次卧/民水民电集体供暖/每屋只住一人/月租金1150元。</t>
+  </si>
+  <si>
+    <t>04-13 00:41</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286660129/</t>
+  </si>
+  <si>
+    <t>宋家庄鑫兆雅园三家大卧室下楼地铁</t>
+  </si>
+  <si>
+    <t>04-13 00:29</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286659693/</t>
+  </si>
+  <si>
+    <t>求租☞昌平地铁附近的房</t>
+  </si>
+  <si>
+    <t>04-13 00:25</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286659518/</t>
+  </si>
+  <si>
+    <t>求租惠新西街、亚运村及周边地铁口附近的三居，最好80平以上，房东直租优先</t>
+  </si>
+  <si>
+    <t>04-13 00:19</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286659285/</t>
   </si>
   <si>
     <t>业主直租，宋家庄地铁口一居室，可改两居</t>
@@ -5722,7 +5845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C660"/>
+  <dimension ref="A1:C674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5793,18 +5916,18 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -5892,161 +6015,161 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>83</v>
@@ -6123,414 +6246,414 @@
         <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
         <v>148</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
         <v>165</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" t="s">
         <v>176</v>
       </c>
-      <c r="B64" t="s">
-        <v>174</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>204</v>
@@ -6574,18 +6697,18 @@
         <v>214</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>218</v>
@@ -6662,1250 +6785,1250 @@
         <v>237</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" t="s">
         <v>253</v>
       </c>
-      <c r="B91" t="s">
-        <v>254</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B92" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B93" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B96" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B97" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B98" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B99" t="s">
         <v>276</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B100" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B106" t="s">
         <v>295</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B107" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B109" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B110" t="s">
         <v>306</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B111" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B112" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B113" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B114" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B115" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B116" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B117" t="s">
         <v>325</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B118" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B119" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B120" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B121" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B122" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B123" t="s">
         <v>342</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B124" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B125" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B126" t="s">
         <v>350</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B127" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" t="s">
         <v>355</v>
       </c>
-      <c r="B128" t="s">
-        <v>356</v>
-      </c>
       <c r="C128" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B129" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B131" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B132" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>156</v>
+        <v>374</v>
       </c>
       <c r="B134" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B135" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B136" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B137" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B138" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B139" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B140" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B141" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B142" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B143" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B144" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B145" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B146" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B147" t="s">
         <v>405</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>407</v>
+        <v>197</v>
       </c>
       <c r="B148" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B149" t="s">
         <v>411</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B150" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>418</v>
+      </c>
+      <c r="B151" t="s">
         <v>416</v>
       </c>
-      <c r="B151" t="s">
-        <v>414</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B152" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>423</v>
+      </c>
+      <c r="B153" t="s">
         <v>421</v>
       </c>
-      <c r="B153" t="s">
-        <v>422</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B154" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>428</v>
+      </c>
+      <c r="B155" t="s">
         <v>426</v>
       </c>
-      <c r="B155" t="s">
-        <v>427</v>
-      </c>
       <c r="C155" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B156" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B157" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B158" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B159" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B160" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B161" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B162" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B163" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B164" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B165" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B166" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B167" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B168" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B169" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B170" t="s">
         <v>468</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B171" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B172" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>478</v>
+      </c>
+      <c r="B173" t="s">
         <v>476</v>
       </c>
-      <c r="B173" t="s">
-        <v>474</v>
-      </c>
       <c r="C173" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B174" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>483</v>
+      </c>
+      <c r="B175" t="s">
         <v>481</v>
       </c>
-      <c r="B175" t="s">
-        <v>482</v>
-      </c>
       <c r="C175" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B176" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B177" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B178" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B179" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B180" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>500</v>
+      </c>
+      <c r="B181" t="s">
         <v>498</v>
       </c>
-      <c r="B181" t="s">
-        <v>494</v>
-      </c>
       <c r="C181" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B182" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B183" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B184" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B185" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B186" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B187" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B188" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B189" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B190" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B191" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B192" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B193" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B194" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B195" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B196" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B197" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B198" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>547</v>
@@ -7916,227 +8039,227 @@
         <v>548</v>
       </c>
       <c r="B199" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B200" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B201" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B202" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B203" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
+        <v>563</v>
+      </c>
+      <c r="B204" t="s">
         <v>561</v>
       </c>
-      <c r="B204" t="s">
-        <v>562</v>
-      </c>
       <c r="C204" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B205" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B206" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B207" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B208" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B209" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B210" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B211" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B212" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
+        <v>589</v>
+      </c>
+      <c r="B213" t="s">
         <v>587</v>
       </c>
-      <c r="B213" t="s">
-        <v>588</v>
-      </c>
       <c r="C213" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B214" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B215" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B216" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B217" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B218" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B219" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>606</v>
@@ -8191,2405 +8314,2405 @@
         <v>619</v>
       </c>
       <c r="B224" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B225" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B226" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B227" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>631</v>
+      </c>
+      <c r="B228" t="s">
         <v>629</v>
       </c>
-      <c r="B228" t="s">
-        <v>627</v>
-      </c>
       <c r="C228" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B229" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B230" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B231" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B232" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B233" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B234" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B235" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B236" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B237" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B238" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B239" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B240" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B241" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B242" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B243" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B244" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B245" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B246" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B247" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B248" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B249" t="s">
         <v>683</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B250" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B251" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B252" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B253" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B254" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B255" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B256" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B257" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B258" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B259" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B260" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B261" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B262" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B263" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B264" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B265" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B266" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B267" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B268" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B269" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B270" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B271" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B272" t="s">
         <v>746</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B273" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B274" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B275" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B276" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B277" t="s">
         <v>759</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B278" t="s">
         <v>759</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B279" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B280" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B281" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B282" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B283" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B284" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B285" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>663</v>
+        <v>786</v>
       </c>
       <c r="B286" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B287" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="B288" t="s">
         <v>787</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B289" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B290" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B291" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B292" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B293" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B294" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B295" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B296" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B297" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B298" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B299" t="s">
         <v>818</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>820</v>
+        <v>704</v>
       </c>
       <c r="B300" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B301" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>156</v>
+        <v>827</v>
       </c>
       <c r="B302" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
+        <v>830</v>
+      </c>
+      <c r="B303" t="s">
         <v>828</v>
       </c>
-      <c r="B303" t="s">
-        <v>829</v>
-      </c>
       <c r="C303" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B304" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B305" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B306" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
+        <v>841</v>
+      </c>
+      <c r="B307" t="s">
         <v>839</v>
       </c>
-      <c r="B307" t="s">
-        <v>840</v>
-      </c>
       <c r="C307" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B308" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B309" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B310" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>228</v>
+        <v>852</v>
       </c>
       <c r="B311" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B312" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B313" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B314" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B315" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>863</v>
+        <v>197</v>
       </c>
       <c r="B316" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B317" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B318" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="B319" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B320" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B321" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B322" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B323" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B324" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>888</v>
+        <v>269</v>
       </c>
       <c r="B325" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B326" t="s">
         <v>892</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B327" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B328" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B329" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
+        <v>904</v>
+      </c>
+      <c r="B330" t="s">
         <v>902</v>
       </c>
-      <c r="B330" t="s">
-        <v>900</v>
-      </c>
       <c r="C330" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B331" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B332" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B333" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B334" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B335" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B336" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B337" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B338" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B339" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B340" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B341" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B342" t="s">
         <v>936</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B343" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
+        <v>943</v>
+      </c>
+      <c r="B344" t="s">
         <v>941</v>
       </c>
-      <c r="B344" t="s">
-        <v>939</v>
-      </c>
       <c r="C344" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B345" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B346" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B347" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B348" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B349" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B350" t="s">
         <v>957</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B351" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B352" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B353" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B354" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="B355" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B356" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B357" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B358" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B359" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B360" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B361" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B362" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B363" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B364" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B365" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="B366" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B367" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B368" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B369" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B370" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B371" t="s">
         <v>1015</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B372" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B373" t="s">
         <v>1020</v>
       </c>
-      <c r="B373" t="s">
-        <v>1021</v>
-      </c>
       <c r="C373" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B374" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B375" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B376" t="s">
         <v>1028</v>
       </c>
-      <c r="B376" t="s">
-        <v>1029</v>
-      </c>
       <c r="C376" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B377" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B378" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B379" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B380" t="s">
         <v>1039</v>
       </c>
-      <c r="B380" t="s">
-        <v>1040</v>
-      </c>
       <c r="C380" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B381" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B382" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B383" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B384" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B385" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B386" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="B387" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B388" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B389" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B390" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B391" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B392" t="s">
         <v>1073</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B393" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>156</v>
+        <v>1080</v>
       </c>
       <c r="B394" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B395" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="B396" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B397" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="B398" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B399" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="B400" t="s">
         <v>1095</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B401" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B402" t="s">
         <v>1100</v>
       </c>
-      <c r="B402" t="s">
-        <v>1098</v>
-      </c>
       <c r="C402" s="1" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B403" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B404" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B405" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B406" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B407" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>1116</v>
+        <v>197</v>
       </c>
       <c r="B408" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B409" t="s">
         <v>1119</v>
       </c>
-      <c r="B409" t="s">
-        <v>1117</v>
-      </c>
       <c r="C409" s="1" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B410" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B411" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B412" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B413" t="s">
-        <v>1124</v>
+        <v>1133</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="B414" t="s">
-        <v>1131</v>
+        <v>1136</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="B415" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="B416" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="B417" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="B418" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="B419" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="B420" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="B421" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="B422" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="B423" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="B424" t="s">
         <v>1158</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="B425" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B426" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B427" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B428" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="B429" t="s">
         <v>1172</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B430" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B431" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B432" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B433" t="s">
         <v>1183</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B434" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B435" t="s">
         <v>1188</v>
       </c>
-      <c r="B435" t="s">
-        <v>1189</v>
-      </c>
       <c r="C435" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B436" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B437" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B438" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B439" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B440" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B441" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B442" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>1211</v>
@@ -10600,337 +10723,337 @@
         <v>1212</v>
       </c>
       <c r="B443" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B444" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B445" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B446" t="s">
         <v>1219</v>
       </c>
-      <c r="B446" t="s">
-        <v>1220</v>
-      </c>
       <c r="C446" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B447" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B448" t="s">
-        <v>1220</v>
+        <v>1227</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B449" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="B450" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="B451" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>1233</v>
+        <v>1238</v>
       </c>
       <c r="B452" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="B453" t="s">
-        <v>1234</v>
+        <v>1242</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="B454" t="s">
-        <v>1234</v>
+        <v>1245</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1239</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>1240</v>
+        <v>1247</v>
       </c>
       <c r="B455" t="s">
-        <v>1241</v>
+        <v>1248</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1242</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>1243</v>
+        <v>1250</v>
       </c>
       <c r="B456" t="s">
-        <v>1241</v>
+        <v>1251</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
       <c r="B457" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1247</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="B458" t="s">
-        <v>1249</v>
+        <v>1256</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1250</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>1251</v>
+        <v>1258</v>
       </c>
       <c r="B459" t="s">
-        <v>1249</v>
+        <v>1256</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1252</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
       <c r="B460" t="s">
-        <v>1254</v>
+        <v>1261</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>1256</v>
+        <v>1263</v>
       </c>
       <c r="B461" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="B462" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="B463" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1264</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="B464" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B465" t="s">
         <v>1268</v>
       </c>
-      <c r="B465" t="s">
-        <v>1266</v>
-      </c>
       <c r="C465" s="1" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="B466" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="B467" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="B468" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B469" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B470" t="s">
         <v>1282</v>
       </c>
-      <c r="B470" t="s">
-        <v>1283</v>
-      </c>
       <c r="C470" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B471" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B472" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B473" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>1293</v>
@@ -11018,1979 +11141,2133 @@
         <v>1314</v>
       </c>
       <c r="B481" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B482" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B483" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B484" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="B485" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B486" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="B487" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B488" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="B489" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B490" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="B491" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="B492" t="s">
-        <v>1340</v>
+        <v>1348</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="B493" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B494" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="B495" t="s">
         <v>1353</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B496" t="s">
         <v>1353</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B497" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="B498" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B499" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="B500" t="s">
-        <v>1361</v>
+        <v>1369</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="B501" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="B502" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="B503" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="B504" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="B505" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="B506" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="B507" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="B508" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="B509" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="B510" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="B511" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="B512" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>1008</v>
+        <v>1404</v>
       </c>
       <c r="B513" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B514" t="s">
         <v>1402</v>
       </c>
-      <c r="B514" t="s">
-        <v>1400</v>
-      </c>
       <c r="C514" s="1" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="B515" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="B516" t="s">
-        <v>1405</v>
+        <v>1412</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="B517" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1411</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="B518" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="B519" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="B520" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="B521" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>156</v>
+        <v>1428</v>
       </c>
       <c r="B522" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1424</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
       <c r="B523" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="B524" t="s">
         <v>1429</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="B525" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="B526" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>1437</v>
+        <v>1049</v>
       </c>
       <c r="B527" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="B528" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="B529" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" t="s">
-        <v>714</v>
+        <v>1448</v>
       </c>
       <c r="B530" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1444</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>1445</v>
+        <v>1450</v>
       </c>
       <c r="B531" t="s">
-        <v>1442</v>
+        <v>1451</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="B532" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="B533" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="B534" t="s">
-        <v>1454</v>
+        <v>1460</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>1456</v>
+        <v>1462</v>
       </c>
       <c r="B535" t="s">
-        <v>1454</v>
+        <v>1463</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1457</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>1458</v>
+        <v>197</v>
       </c>
       <c r="B536" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="B537" t="s">
-        <v>1462</v>
+        <v>1467</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="B538" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="B539" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="B540" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" t="s">
-        <v>1008</v>
+        <v>1478</v>
       </c>
       <c r="B541" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="B542" t="s">
         <v>1476</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="B543" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" t="s">
-        <v>1481</v>
+        <v>755</v>
       </c>
       <c r="B544" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B545" t="s">
         <v>1483</v>
       </c>
-      <c r="B545" t="s">
-        <v>1484</v>
-      </c>
       <c r="C545" s="1" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B546" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B547" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B548" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" t="s">
-        <v>176</v>
+        <v>1497</v>
       </c>
       <c r="B549" t="s">
         <v>1495</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B550" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B551" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B552" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="B553" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="B554" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555" t="s">
-        <v>1511</v>
+        <v>1049</v>
       </c>
       <c r="B555" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="B556" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="B557" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="B558" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="B559" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="B560" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="561" spans="1:3">
       <c r="A561" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="B561" t="s">
-        <v>1524</v>
+        <v>1531</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562" t="s">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="B562" t="s">
-        <v>1524</v>
+        <v>1534</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563" t="s">
-        <v>1530</v>
+        <v>217</v>
       </c>
       <c r="B563" t="s">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1532</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" t="s">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="B564" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1535</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="B565" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" t="s">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="B566" t="s">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1540</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="A567" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="B567" t="s">
-        <v>1539</v>
+        <v>1547</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="B568" t="s">
-        <v>1539</v>
+        <v>1550</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1544</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" t="s">
-        <v>1545</v>
+        <v>1552</v>
       </c>
       <c r="B569" t="s">
-        <v>1546</v>
+        <v>1553</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1547</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" t="s">
-        <v>1548</v>
+        <v>1555</v>
       </c>
       <c r="B570" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="B571" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="B572" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="B573" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="B574" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="575" spans="1:3">
       <c r="A575" t="s">
-        <v>1551</v>
+        <v>1567</v>
       </c>
       <c r="B575" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="576" spans="1:3">
       <c r="A576" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="B576" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1565</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="B577" t="s">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" t="s">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="B578" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1571</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="B579" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1573</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="B580" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" t="s">
-        <v>1551</v>
+        <v>1582</v>
       </c>
       <c r="B581" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="B582" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1580</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="B583" t="s">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1583</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="B584" t="s">
-        <v>1582</v>
+        <v>1590</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="B585" t="s">
-        <v>1582</v>
+        <v>1593</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1587</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" t="s">
-        <v>1588</v>
+        <v>1595</v>
       </c>
       <c r="B586" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="B587" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="B588" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="B589" t="s">
-        <v>1595</v>
+        <v>1603</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="B590" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" t="s">
-        <v>1602</v>
+        <v>1607</v>
       </c>
       <c r="B591" t="s">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1604</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="B592" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="B593" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="A594" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="B594" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595" t="s">
-        <v>1613</v>
+        <v>1592</v>
       </c>
       <c r="B595" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="A596" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="B596" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="597" spans="1:3">
       <c r="A597" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="B597" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="598" spans="1:3">
       <c r="A598" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="B598" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="599" spans="1:3">
       <c r="A599" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="B599" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="A600" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B600" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B601" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="B602" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="B603" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="B604" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="B605" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="B606" t="s">
-        <v>1638</v>
+        <v>1647</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>1643</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" t="s">
-        <v>1644</v>
+        <v>1649</v>
       </c>
       <c r="B607" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="B608" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="B609" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="B610" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="B611" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="B612" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="B613" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="B614" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="B615" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="B616" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="B617" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="B618" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="B619" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="B620" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="B621" t="s">
-        <v>1676</v>
+        <v>1686</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="B622" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="B623" t="s">
-        <v>1685</v>
+        <v>1692</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>1688</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="B624" t="s">
-        <v>1690</v>
+        <v>1695</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>1691</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" t="s">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="B625" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" t="s">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="B626" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="B627" t="s">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="B628" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="B629" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="B630" t="s">
-        <v>1699</v>
+        <v>1712</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>1706</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="B631" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>1709</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="B632" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" t="s">
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="B633" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>1714</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="B634" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>1716</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B635" t="s">
         <v>1717</v>
       </c>
-      <c r="B635" t="s">
-        <v>1718</v>
-      </c>
       <c r="C635" s="1" t="s">
-        <v>1719</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" t="s">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="B636" t="s">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="637" spans="1:3">
       <c r="A637" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="B637" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="638" spans="1:3">
       <c r="A638" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="B638" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="A639" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="B639" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>1730</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="B640" t="s">
-        <v>1732</v>
+        <v>1737</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>1733</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="641" spans="1:3">
       <c r="A641" t="s">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="B641" t="s">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>1736</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="A642" t="s">
-        <v>1737</v>
+        <v>1742</v>
       </c>
       <c r="B642" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B643" t="s">
         <v>1740</v>
       </c>
-      <c r="B643" t="s">
-        <v>1738</v>
-      </c>
       <c r="C643" s="1" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="B644" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B645" t="s">
-        <v>1743</v>
+        <v>1749</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="646" spans="1:3">
       <c r="A646" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="B646" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="647" spans="1:3">
       <c r="A647" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="B647" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="648" spans="1:3">
       <c r="A648" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="B648" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="649" spans="1:3">
       <c r="A649" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="B649" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="650" spans="1:3">
       <c r="A650" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="B650" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="651" spans="1:3">
       <c r="A651" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="B651" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="652" spans="1:3">
       <c r="A652" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="B652" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="653" spans="1:3">
       <c r="A653" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="B653" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B654" t="s">
-        <v>1767</v>
+        <v>1773</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="A655" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="B655" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="A656" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="B656" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="A657" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="B657" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="658" spans="1:3">
       <c r="A658" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="B658" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="A659" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="B659" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="B660" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>1787</v>
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>1828</v>
       </c>
     </row>
   </sheetData>
@@ -13654,6 +13931,20 @@
     <hyperlink ref="C658" r:id="rId657"/>
     <hyperlink ref="C659" r:id="rId658"/>
     <hyperlink ref="C660" r:id="rId659"/>
+    <hyperlink ref="C661" r:id="rId660"/>
+    <hyperlink ref="C662" r:id="rId661"/>
+    <hyperlink ref="C663" r:id="rId662"/>
+    <hyperlink ref="C664" r:id="rId663"/>
+    <hyperlink ref="C665" r:id="rId664"/>
+    <hyperlink ref="C666" r:id="rId665"/>
+    <hyperlink ref="C667" r:id="rId666"/>
+    <hyperlink ref="C668" r:id="rId667"/>
+    <hyperlink ref="C669" r:id="rId668"/>
+    <hyperlink ref="C670" r:id="rId669"/>
+    <hyperlink ref="C671" r:id="rId670"/>
+    <hyperlink ref="C672" r:id="rId671"/>
+    <hyperlink ref="C673" r:id="rId672"/>
+    <hyperlink ref="C674" r:id="rId673"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rent_info_beijingzufang.xlsx
+++ b/rent_info_beijingzufang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1847">
   <si>
     <t>标题</t>
   </si>
@@ -23,6 +23,60 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>找合租，通州附近</t>
+  </si>
+  <si>
+    <t>04-13 03:37</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286662581/</t>
+  </si>
+  <si>
+    <t>四号线加19号线新宫地铁口精装主卧次卧随时入住</t>
+  </si>
+  <si>
+    <t>04-13 03:12</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286662461/</t>
+  </si>
+  <si>
+    <t>天通苑个人房东出租一间小次卧</t>
+  </si>
+  <si>
+    <t>04-13 03:11</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286662449/</t>
+  </si>
+  <si>
+    <t>求租团结湖地铁口附近两居室整租</t>
+  </si>
+  <si>
+    <t>04-13 02:24</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286662126/</t>
+  </si>
+  <si>
+    <t>求租青年路朝阳园次卧！</t>
+  </si>
+  <si>
+    <t>04-13 02:23</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286662109/</t>
+  </si>
+  <si>
+    <t>求租地铁口一居室，房东直租</t>
+  </si>
+  <si>
+    <t>04-13 02:19</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286662074/</t>
   </si>
   <si>
     <t>合租合租，望京来广营</t>
@@ -5845,7 +5899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C674"/>
+  <dimension ref="A1:C680"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5916,73 +5970,73 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
@@ -6081,73 +6135,73 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>78</v>
@@ -6169,117 +6223,117 @@
         <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
         <v>98</v>
       </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>112</v>
@@ -6367,271 +6421,271 @@
         <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" t="s">
         <v>150</v>
       </c>
-      <c r="B53" t="s">
-        <v>148</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
         <v>158</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B63" t="s">
         <v>176</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
         <v>176</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B66" t="s">
         <v>183</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" t="s">
         <v>194</v>
       </c>
-      <c r="B70" t="s">
-        <v>195</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>199</v>
@@ -6653,128 +6707,128 @@
         <v>203</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
         <v>219</v>
       </c>
-      <c r="B79" t="s">
-        <v>220</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>236</v>
@@ -6851,73 +6905,73 @@
         <v>255</v>
       </c>
       <c r="B91" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B95" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>274</v>
@@ -6939,392 +6993,392 @@
         <v>278</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>296</v>
+      </c>
+      <c r="B105" t="s">
         <v>294</v>
       </c>
-      <c r="B105" t="s">
-        <v>295</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>310</v>
+      </c>
+      <c r="B110" t="s">
         <v>308</v>
       </c>
-      <c r="B110" t="s">
-        <v>306</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B111" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" t="s">
         <v>313</v>
       </c>
-      <c r="B112" t="s">
-        <v>314</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B113" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B114" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B115" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>326</v>
+      </c>
+      <c r="B116" t="s">
         <v>324</v>
       </c>
-      <c r="B116" t="s">
-        <v>325</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B117" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B118" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B119" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>337</v>
+      </c>
+      <c r="B120" t="s">
         <v>335</v>
       </c>
-      <c r="B120" t="s">
-        <v>336</v>
-      </c>
       <c r="C120" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B121" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B124" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B127" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B128" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B129" t="s">
         <v>360</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B130" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B131" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
+        <v>370</v>
+      </c>
+      <c r="B132" t="s">
         <v>368</v>
       </c>
-      <c r="B132" t="s">
-        <v>369</v>
-      </c>
       <c r="C132" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>376</v>
@@ -7346,282 +7400,282 @@
         <v>380</v>
       </c>
       <c r="B136" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B137" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B138" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B139" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B140" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B141" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
+        <v>398</v>
+      </c>
+      <c r="B142" t="s">
         <v>396</v>
       </c>
-      <c r="B142" t="s">
-        <v>397</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B143" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B144" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B145" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B146" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B147" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="B148" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B149" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B150" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B151" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B152" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>427</v>
+      </c>
+      <c r="B153" t="s">
         <v>423</v>
       </c>
-      <c r="B153" t="s">
-        <v>421</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>425</v>
+        <v>215</v>
       </c>
       <c r="B154" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B155" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B156" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B157" t="s">
         <v>434</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B158" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
+        <v>441</v>
+      </c>
+      <c r="B159" t="s">
         <v>439</v>
       </c>
-      <c r="B159" t="s">
-        <v>440</v>
-      </c>
       <c r="C159" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B160" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B161" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>447</v>
@@ -7665,315 +7719,315 @@
         <v>457</v>
       </c>
       <c r="B165" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B166" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B167" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B168" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B169" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B170" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B171" t="s">
         <v>473</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B172" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B173" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B174" t="s">
         <v>481</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B175" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B176" t="s">
         <v>486</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B177" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B178" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>496</v>
+      </c>
+      <c r="B179" t="s">
         <v>494</v>
       </c>
-      <c r="B179" t="s">
-        <v>495</v>
-      </c>
       <c r="C179" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B180" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B181" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B182" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B183" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B184" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B185" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B186" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B187" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B188" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B189" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B190" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B191" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B192" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B193" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>536</v>
@@ -7984,183 +8038,183 @@
         <v>537</v>
       </c>
       <c r="B194" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B195" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B196" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B197" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B198" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B199" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B200" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B201" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B202" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B203" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B204" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B205" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B206" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B207" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B208" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B209" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B210" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>582</v>
@@ -8193,139 +8247,139 @@
         <v>589</v>
       </c>
       <c r="B213" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B214" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B215" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B216" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B217" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B218" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
+        <v>607</v>
+      </c>
+      <c r="B219" t="s">
         <v>605</v>
       </c>
-      <c r="B219" t="s">
-        <v>603</v>
-      </c>
       <c r="C219" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B220" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B221" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B222" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B223" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B224" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B225" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>624</v>
@@ -8358,73 +8412,73 @@
         <v>631</v>
       </c>
       <c r="B228" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B229" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B230" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B231" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B232" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B233" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B234" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>650</v>
@@ -8468,513 +8522,513 @@
         <v>660</v>
       </c>
       <c r="B238" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B239" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B240" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B241" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B242" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B243" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B244" t="s">
         <v>676</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B245" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B246" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B247" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B248" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B249" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B250" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B251" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
+        <v>698</v>
+      </c>
+      <c r="B252" t="s">
         <v>694</v>
       </c>
-      <c r="B252" t="s">
-        <v>695</v>
-      </c>
       <c r="C252" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B253" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B254" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B255" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B256" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B257" t="s">
         <v>708</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B258" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
+        <v>715</v>
+      </c>
+      <c r="B259" t="s">
         <v>713</v>
       </c>
-      <c r="B259" t="s">
-        <v>714</v>
-      </c>
       <c r="C259" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B260" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>720</v>
+      </c>
+      <c r="B261" t="s">
         <v>718</v>
       </c>
-      <c r="B261" t="s">
-        <v>719</v>
-      </c>
       <c r="C261" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B262" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B263" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B264" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B265" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
+        <v>734</v>
+      </c>
+      <c r="B266" t="s">
         <v>732</v>
       </c>
-      <c r="B266" t="s">
-        <v>730</v>
-      </c>
       <c r="C266" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B267" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
+        <v>739</v>
+      </c>
+      <c r="B268" t="s">
         <v>737</v>
       </c>
-      <c r="B268" t="s">
-        <v>735</v>
-      </c>
       <c r="C268" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B269" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B270" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B271" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>750</v>
+      </c>
+      <c r="B272" t="s">
         <v>748</v>
       </c>
-      <c r="B272" t="s">
-        <v>746</v>
-      </c>
       <c r="C272" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B273" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
+        <v>755</v>
+      </c>
+      <c r="B274" t="s">
         <v>753</v>
       </c>
-      <c r="B274" t="s">
-        <v>751</v>
-      </c>
       <c r="C274" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B275" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B276" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B277" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B278" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B279" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B280" t="s">
         <v>769</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B281" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B282" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
+        <v>779</v>
+      </c>
+      <c r="B283" t="s">
         <v>777</v>
       </c>
-      <c r="B283" t="s">
-        <v>778</v>
-      </c>
       <c r="C283" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B284" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>782</v>
@@ -9007,293 +9061,293 @@
         <v>789</v>
       </c>
       <c r="B287" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B288" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B289" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B290" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B291" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B292" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B293" t="s">
         <v>805</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B294" t="s">
         <v>805</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B295" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B296" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B297" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B298" t="s">
         <v>818</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B299" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>704</v>
+        <v>825</v>
       </c>
       <c r="B300" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B301" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B302" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B303" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B304" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B305" t="s">
         <v>836</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>838</v>
+        <v>722</v>
       </c>
       <c r="B306" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B307" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B308" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
+        <v>848</v>
+      </c>
+      <c r="B309" t="s">
         <v>846</v>
       </c>
-      <c r="B309" t="s">
-        <v>847</v>
-      </c>
       <c r="C309" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B310" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B311" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B312" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B313" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>860</v>
@@ -9323,230 +9377,230 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>197</v>
+        <v>867</v>
       </c>
       <c r="B316" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B317" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B318" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B319" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B320" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B321" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>883</v>
+        <v>215</v>
       </c>
       <c r="B322" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B323" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B324" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>269</v>
+        <v>893</v>
       </c>
       <c r="B325" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
+        <v>896</v>
+      </c>
+      <c r="B326" t="s">
         <v>894</v>
       </c>
-      <c r="B326" t="s">
-        <v>892</v>
-      </c>
       <c r="C326" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B327" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B328" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="B329" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B330" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>906</v>
+        <v>287</v>
       </c>
       <c r="B331" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B332" t="s">
         <v>910</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B333" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B334" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B335" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B336" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>923</v>
@@ -9557,216 +9611,216 @@
         <v>924</v>
       </c>
       <c r="B337" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B338" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B339" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B340" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B341" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B342" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
+        <v>942</v>
+      </c>
+      <c r="B343" t="s">
         <v>940</v>
       </c>
-      <c r="B343" t="s">
-        <v>941</v>
-      </c>
       <c r="C343" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B344" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B345" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B346" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B347" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
+        <v>956</v>
+      </c>
+      <c r="B348" t="s">
         <v>954</v>
       </c>
-      <c r="B348" t="s">
-        <v>952</v>
-      </c>
       <c r="C348" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B349" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
+        <v>961</v>
+      </c>
+      <c r="B350" t="s">
         <v>959</v>
       </c>
-      <c r="B350" t="s">
-        <v>957</v>
-      </c>
       <c r="C350" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B351" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B352" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B353" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
+        <v>972</v>
+      </c>
+      <c r="B354" t="s">
         <v>970</v>
       </c>
-      <c r="B354" t="s">
-        <v>971</v>
-      </c>
       <c r="C354" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B355" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B356" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>978</v>
@@ -9788,315 +9842,315 @@
         <v>982</v>
       </c>
       <c r="B358" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B359" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B360" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B361" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B362" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B363" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B364" t="s">
         <v>998</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B365" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B366" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B367" t="s">
         <v>1006</v>
       </c>
-      <c r="B367" t="s">
-        <v>1004</v>
-      </c>
       <c r="C367" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B368" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B369" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B370" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B371" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B372" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B373" t="s">
         <v>1022</v>
       </c>
-      <c r="B373" t="s">
-        <v>1020</v>
-      </c>
       <c r="C373" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B374" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B375" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B376" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B377" t="s">
         <v>1033</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B378" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B379" t="s">
         <v>1038</v>
       </c>
-      <c r="B379" t="s">
-        <v>1039</v>
-      </c>
       <c r="C379" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B380" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B381" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B382" t="s">
         <v>1046</v>
       </c>
-      <c r="B382" t="s">
-        <v>1047</v>
-      </c>
       <c r="C382" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B383" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B384" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B385" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B386" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>1060</v>
@@ -10118,304 +10172,304 @@
         <v>1064</v>
       </c>
       <c r="B388" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B389" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B390" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B391" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B392" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B393" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B394" t="s">
         <v>1080</v>
       </c>
-      <c r="B394" t="s">
-        <v>1081</v>
-      </c>
       <c r="C394" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B395" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B396" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B397" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B398" t="s">
         <v>1091</v>
       </c>
-      <c r="B398" t="s">
-        <v>1092</v>
-      </c>
       <c r="C398" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B399" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B400" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B401" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B402" t="s">
         <v>1102</v>
       </c>
-      <c r="B402" t="s">
-        <v>1100</v>
-      </c>
       <c r="C402" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B403" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B404" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B405" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B406" t="s">
         <v>1113</v>
       </c>
-      <c r="B406" t="s">
-        <v>1114</v>
-      </c>
       <c r="C406" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B407" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>197</v>
+        <v>1120</v>
       </c>
       <c r="B408" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B409" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B410" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B411" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B412" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B413" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>1135</v>
+        <v>215</v>
       </c>
       <c r="B414" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B415" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>1140</v>
@@ -10426,282 +10480,282 @@
         <v>1141</v>
       </c>
       <c r="B416" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B417" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B418" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B419" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B420" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B421" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B422" t="s">
         <v>1157</v>
       </c>
-      <c r="B422" t="s">
-        <v>1158</v>
-      </c>
       <c r="C422" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B423" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B424" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="B425" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="B426" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B427" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="B428" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="B429" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B430" t="s">
         <v>1176</v>
       </c>
-      <c r="B430" t="s">
-        <v>1177</v>
-      </c>
       <c r="C430" s="1" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B431" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B432" t="s">
         <v>1183</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B433" t="s">
         <v>1183</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B434" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B435" t="s">
         <v>1190</v>
       </c>
-      <c r="B435" t="s">
-        <v>1188</v>
-      </c>
       <c r="C435" s="1" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B436" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B437" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B438" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B439" t="s">
         <v>1201</v>
       </c>
-      <c r="B439" t="s">
-        <v>1202</v>
-      </c>
       <c r="C439" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B440" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B441" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>1209</v>
@@ -10712,117 +10766,117 @@
         <v>1210</v>
       </c>
       <c r="B442" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B443" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B444" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B445" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B446" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B447" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B448" t="s">
         <v>1226</v>
       </c>
-      <c r="B448" t="s">
-        <v>1227</v>
-      </c>
       <c r="C448" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B449" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B450" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B451" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B452" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>1240</v>
@@ -10877,315 +10931,315 @@
         <v>1253</v>
       </c>
       <c r="B457" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B458" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B459" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B460" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="B461" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="B462" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="B463" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B464" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="B465" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="B466" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="B467" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B468" t="s">
         <v>1279</v>
       </c>
-      <c r="B468" t="s">
-        <v>1275</v>
-      </c>
       <c r="C468" s="1" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="B469" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="B470" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B471" t="s">
         <v>1286</v>
       </c>
-      <c r="B471" t="s">
-        <v>1287</v>
-      </c>
       <c r="C471" s="1" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="B472" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="B473" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="B474" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B475" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B476" t="s">
         <v>1300</v>
       </c>
-      <c r="B476" t="s">
-        <v>1301</v>
-      </c>
       <c r="C476" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B477" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B478" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B479" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B480" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B481" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B482" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B483" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B484" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B485" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>1328</v>
@@ -11273,106 +11327,106 @@
         <v>1350</v>
       </c>
       <c r="B493" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B494" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B495" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B496" t="s">
-        <v>1353</v>
+        <v>1360</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="B497" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="B498" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="B499" t="s">
         <v>1366</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="B500" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B501" t="s">
         <v>1371</v>
       </c>
-      <c r="B501" t="s">
-        <v>1372</v>
-      </c>
       <c r="C501" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B502" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>1376</v>
@@ -11405,1338 +11459,1338 @@
         <v>1383</v>
       </c>
       <c r="B505" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B506" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B507" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="B508" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B509" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="B510" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="B511" t="s">
         <v>1399</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B512" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B513" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B514" t="s">
-        <v>1402</v>
+        <v>1409</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="B515" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="B516" t="s">
         <v>1412</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="B517" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="B518" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B519" t="s">
         <v>1420</v>
       </c>
-      <c r="B519" t="s">
-        <v>1421</v>
-      </c>
       <c r="C519" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B520" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B521" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B522" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B523" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="B524" t="s">
-        <v>1429</v>
+        <v>1436</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="B525" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="B526" t="s">
         <v>1439</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>1049</v>
+        <v>1443</v>
       </c>
       <c r="B527" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="B528" t="s">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="B529" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="B530" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="B531" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="B532" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>1456</v>
+        <v>1067</v>
       </c>
       <c r="B533" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B534" t="s">
         <v>1459</v>
       </c>
-      <c r="B534" t="s">
-        <v>1460</v>
-      </c>
       <c r="C534" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B535" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>197</v>
+        <v>1466</v>
       </c>
       <c r="B536" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B537" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B538" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B539" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="B540" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B541" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>1480</v>
+        <v>215</v>
       </c>
       <c r="B542" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B543" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" t="s">
-        <v>755</v>
+        <v>1487</v>
       </c>
       <c r="B544" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="B545" t="s">
-        <v>1483</v>
+        <v>1491</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="B546" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="B547" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B548" t="s">
         <v>1494</v>
       </c>
-      <c r="B548" t="s">
-        <v>1495</v>
-      </c>
       <c r="C548" s="1" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="B549" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" t="s">
-        <v>1499</v>
+        <v>773</v>
       </c>
       <c r="B550" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="B551" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B552" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B553" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B554" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555" t="s">
-        <v>1049</v>
+        <v>1515</v>
       </c>
       <c r="B555" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B556" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B557" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B558" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B559" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B560" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="561" spans="1:3">
       <c r="A561" t="s">
-        <v>1530</v>
+        <v>1067</v>
       </c>
       <c r="B561" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B562" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563" t="s">
-        <v>217</v>
+        <v>1537</v>
       </c>
       <c r="B563" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B564" t="s">
         <v>1538</v>
       </c>
-      <c r="B564" t="s">
-        <v>1539</v>
-      </c>
       <c r="C564" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B565" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="B566" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="A567" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="B567" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="B568" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" t="s">
-        <v>1552</v>
+        <v>235</v>
       </c>
       <c r="B569" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B570" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B571" t="s">
         <v>1557</v>
       </c>
-      <c r="B571" t="s">
-        <v>1558</v>
-      </c>
       <c r="C571" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B572" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="B573" t="s">
-        <v>1558</v>
+        <v>1565</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="B574" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="575" spans="1:3">
       <c r="A575" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="B575" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="576" spans="1:3">
       <c r="A576" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="B576" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="B577" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="B578" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="B579" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="B580" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="B581" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B582" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B583" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="B584" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="B585" t="s">
         <v>1593</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="B586" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="B587" t="s">
         <v>1598</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B588" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" t="s">
-        <v>1592</v>
+        <v>1604</v>
       </c>
       <c r="B589" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="B590" t="s">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="B591" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="B592" t="s">
         <v>1611</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B593" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="A594" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="B594" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595" t="s">
-        <v>1592</v>
+        <v>1610</v>
       </c>
       <c r="B595" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="A596" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="B596" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="597" spans="1:3">
       <c r="A597" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="B597" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="598" spans="1:3">
       <c r="A598" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="B598" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="599" spans="1:3">
       <c r="A599" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="B599" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="A600" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="B600" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" t="s">
-        <v>1632</v>
+        <v>1610</v>
       </c>
       <c r="B601" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="B602" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B603" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="B604" t="s">
         <v>1641</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="B605" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B606" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B607" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B608" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B609" t="s">
         <v>1654</v>
       </c>
-      <c r="B609" t="s">
-        <v>1655</v>
-      </c>
       <c r="C609" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B610" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="B611" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="B612" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B613" t="s">
         <v>1665</v>
       </c>
-      <c r="B613" t="s">
-        <v>1666</v>
-      </c>
       <c r="C613" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B614" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B615" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B616" t="s">
         <v>1673</v>
       </c>
-      <c r="B616" t="s">
-        <v>1674</v>
-      </c>
       <c r="C616" s="1" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B617" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="B618" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="B619" t="s">
-        <v>1679</v>
+        <v>1684</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="B620" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="B621" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="B622" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B623" t="s">
         <v>1692</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="B624" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B625" t="s">
         <v>1697</v>
       </c>
-      <c r="B625" t="s">
-        <v>1698</v>
-      </c>
       <c r="C625" s="1" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B626" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>1702</v>
@@ -12769,505 +12823,571 @@
         <v>1709</v>
       </c>
       <c r="B629" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B630" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B631" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B632" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="B633" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="B634" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="B635" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="B636" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="637" spans="1:3">
       <c r="A637" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="B637" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="638" spans="1:3">
       <c r="A638" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="B638" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="A639" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="B639" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B640" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="641" spans="1:3">
       <c r="A641" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="B641" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="A642" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B642" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B643" t="s">
         <v>1744</v>
       </c>
-      <c r="B643" t="s">
-        <v>1740</v>
-      </c>
       <c r="C643" s="1" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B644" t="s">
-        <v>1740</v>
+        <v>1749</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="B645" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="646" spans="1:3">
       <c r="A646" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="B646" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="647" spans="1:3">
       <c r="A647" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="B647" t="s">
-        <v>1752</v>
+        <v>1758</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="648" spans="1:3">
       <c r="A648" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="B648" t="s">
-        <v>1752</v>
+        <v>1758</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="649" spans="1:3">
       <c r="A649" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B649" t="s">
         <v>1758</v>
       </c>
-      <c r="B649" t="s">
-        <v>1759</v>
-      </c>
       <c r="C649" s="1" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="650" spans="1:3">
       <c r="A650" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="B650" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="651" spans="1:3">
       <c r="A651" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="B651" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="652" spans="1:3">
       <c r="A652" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="B652" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="653" spans="1:3">
       <c r="A653" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B653" t="s">
         <v>1770</v>
       </c>
-      <c r="B653" t="s">
-        <v>1768</v>
-      </c>
       <c r="C653" s="1" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="B654" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="A655" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B655" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="A656" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B656" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="A657" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B657" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="658" spans="1:3">
       <c r="A658" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="B658" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="A659" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B659" t="s">
         <v>1786</v>
       </c>
-      <c r="B659" t="s">
-        <v>1784</v>
-      </c>
       <c r="C659" s="1" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="B660" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="A661" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="B661" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="662" spans="1:3">
       <c r="A662" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="B662" t="s">
-        <v>1792</v>
+        <v>1797</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="663" spans="1:3">
       <c r="A663" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="B663" t="s">
-        <v>1792</v>
+        <v>1797</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="664" spans="1:3">
       <c r="A664" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="B664" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="A665" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="B665" t="s">
         <v>1802</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="666" spans="1:3">
       <c r="A666" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="B666" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="667" spans="1:3">
       <c r="A667" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="B667" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="668" spans="1:3">
       <c r="A668" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B668" t="s">
         <v>1810</v>
       </c>
-      <c r="B668" t="s">
-        <v>1808</v>
-      </c>
       <c r="C668" s="1" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="669" spans="1:3">
       <c r="A669" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="B669" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="670" spans="1:3">
       <c r="A670" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B670" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="671" spans="1:3">
       <c r="A671" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B671" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="672" spans="1:3">
       <c r="A672" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="B672" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="673" spans="1:3">
       <c r="A673" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="B673" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="674" spans="1:3">
       <c r="A674" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B674" t="s">
         <v>1826</v>
       </c>
-      <c r="B674" t="s">
-        <v>1827</v>
-      </c>
       <c r="C674" s="1" t="s">
-        <v>1828</v>
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>1846</v>
       </c>
     </row>
   </sheetData>
@@ -13945,6 +14065,12 @@
     <hyperlink ref="C672" r:id="rId671"/>
     <hyperlink ref="C673" r:id="rId672"/>
     <hyperlink ref="C674" r:id="rId673"/>
+    <hyperlink ref="C675" r:id="rId674"/>
+    <hyperlink ref="C676" r:id="rId675"/>
+    <hyperlink ref="C677" r:id="rId676"/>
+    <hyperlink ref="C678" r:id="rId677"/>
+    <hyperlink ref="C679" r:id="rId678"/>
+    <hyperlink ref="C680" r:id="rId679"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rent_info_beijingzufang.xlsx
+++ b/rent_info_beijingzufang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1856">
   <si>
     <t>标题</t>
   </si>
@@ -23,6 +23,33 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>地铁1号线双桥站，loft带厨.房 卫生.间，家用电器 13994873413</t>
+  </si>
+  <si>
+    <t>04-13 05:52</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286662994/</t>
+  </si>
+  <si>
+    <t>八号线瀛海地铁站，寰宇时代精装两居室出租，商圈成熟！随时看房！13910980575（V）</t>
+  </si>
+  <si>
+    <t>04-13 05:18</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286662889/</t>
+  </si>
+  <si>
+    <t>👧女生寻一个合拍室友，超划算厅卧，租到赚到</t>
+  </si>
+  <si>
+    <t>04-13 05:17</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/286662887/</t>
   </si>
   <si>
     <t>找合租，通州附近</t>
@@ -5899,7 +5926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C680"/>
+  <dimension ref="A1:C683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6036,40 +6063,40 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
@@ -6201,40 +6228,40 @@
         <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>87</v>
@@ -6289,40 +6316,40 @@
         <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>110</v>
@@ -6333,40 +6360,40 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>121</v>
@@ -6487,183 +6514,183 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" t="s">
         <v>175</v>
       </c>
-      <c r="B62" t="s">
-        <v>176</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
         <v>185</v>
       </c>
-      <c r="B66" t="s">
-        <v>183</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>195</v>
@@ -6674,51 +6701,51 @@
         <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" t="s">
         <v>203</v>
       </c>
-      <c r="B73" t="s">
-        <v>204</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>208</v>
@@ -6773,40 +6800,40 @@
         <v>221</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>231</v>
@@ -6828,40 +6855,40 @@
         <v>235</v>
       </c>
       <c r="B84" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>245</v>
@@ -6971,40 +6998,40 @@
         <v>273</v>
       </c>
       <c r="B97" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>283</v>
@@ -7059,40 +7086,40 @@
         <v>296</v>
       </c>
       <c r="B105" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B107" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>306</v>
@@ -7114,62 +7141,62 @@
         <v>310</v>
       </c>
       <c r="B110" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B111" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B112" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>319</v>
+      </c>
+      <c r="B113" t="s">
         <v>317</v>
       </c>
-      <c r="B113" t="s">
-        <v>318</v>
-      </c>
       <c r="C113" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B115" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>325</v>
@@ -7180,40 +7207,40 @@
         <v>326</v>
       </c>
       <c r="B116" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B118" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>336</v>
@@ -7224,73 +7251,73 @@
         <v>337</v>
       </c>
       <c r="B120" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B122" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B123" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B124" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B125" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B126" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>355</v>
@@ -7323,95 +7350,95 @@
         <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B130" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B131" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B132" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B133" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B134" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>379</v>
+      </c>
+      <c r="B135" t="s">
         <v>377</v>
       </c>
-      <c r="B135" t="s">
-        <v>378</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B136" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B137" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>385</v>
@@ -7466,62 +7493,62 @@
         <v>398</v>
       </c>
       <c r="B142" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B143" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B144" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>407</v>
+      </c>
+      <c r="B145" t="s">
         <v>405</v>
       </c>
-      <c r="B145" t="s">
-        <v>406</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B146" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B147" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>413</v>
@@ -7554,161 +7581,161 @@
         <v>420</v>
       </c>
       <c r="B150" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B151" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B152" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>429</v>
+      </c>
+      <c r="B153" t="s">
         <v>427</v>
       </c>
-      <c r="B153" t="s">
-        <v>423</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>431</v>
       </c>
       <c r="B154" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B155" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B156" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>436</v>
+        <v>224</v>
       </c>
       <c r="B157" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
+        <v>440</v>
+      </c>
+      <c r="B158" t="s">
         <v>438</v>
       </c>
-      <c r="B158" t="s">
-        <v>439</v>
-      </c>
       <c r="C158" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B159" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
+        <v>445</v>
+      </c>
+      <c r="B160" t="s">
         <v>443</v>
       </c>
-      <c r="B160" t="s">
-        <v>444</v>
-      </c>
       <c r="C160" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B161" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
+        <v>450</v>
+      </c>
+      <c r="B162" t="s">
         <v>448</v>
       </c>
-      <c r="B162" t="s">
-        <v>449</v>
-      </c>
       <c r="C162" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B163" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B164" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>456</v>
@@ -7785,150 +7812,150 @@
         <v>475</v>
       </c>
       <c r="B171" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B172" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B173" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B174" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B175" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B176" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>492</v>
+      </c>
+      <c r="B177" t="s">
         <v>490</v>
       </c>
-      <c r="B177" t="s">
-        <v>491</v>
-      </c>
       <c r="C177" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B178" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B179" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B180" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B181" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>505</v>
+      </c>
+      <c r="B182" t="s">
         <v>503</v>
       </c>
-      <c r="B182" t="s">
-        <v>504</v>
-      </c>
       <c r="C182" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B183" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B184" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>511</v>
@@ -7961,40 +7988,40 @@
         <v>518</v>
       </c>
       <c r="B187" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B188" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B189" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B190" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>528</v>
@@ -8027,40 +8054,40 @@
         <v>535</v>
       </c>
       <c r="B193" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B194" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B195" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B196" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>545</v>
@@ -8104,84 +8131,84 @@
         <v>555</v>
       </c>
       <c r="B200" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B201" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B202" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B203" t="s">
         <v>562</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B204" t="s">
         <v>562</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B205" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B206" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B207" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>574</v>
@@ -8214,40 +8241,40 @@
         <v>581</v>
       </c>
       <c r="B210" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B211" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B212" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B213" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>591</v>
@@ -8313,51 +8340,51 @@
         <v>607</v>
       </c>
       <c r="B219" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B220" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B221" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
+        <v>616</v>
+      </c>
+      <c r="B222" t="s">
         <v>614</v>
       </c>
-      <c r="B222" t="s">
-        <v>615</v>
-      </c>
       <c r="C222" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B223" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>619</v>
@@ -8379,40 +8406,40 @@
         <v>623</v>
       </c>
       <c r="B225" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B226" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B227" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B228" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>633</v>
@@ -8478,40 +8505,40 @@
         <v>649</v>
       </c>
       <c r="B234" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B235" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B236" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B237" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>659</v>
@@ -8588,227 +8615,227 @@
         <v>678</v>
       </c>
       <c r="B244" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B245" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B246" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>687</v>
+      </c>
+      <c r="B247" t="s">
         <v>685</v>
       </c>
-      <c r="B247" t="s">
-        <v>686</v>
-      </c>
       <c r="C247" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B248" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>692</v>
+      </c>
+      <c r="B249" t="s">
         <v>690</v>
       </c>
-      <c r="B249" t="s">
-        <v>691</v>
-      </c>
       <c r="C249" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B250" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B251" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B252" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B253" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>705</v>
+      </c>
+      <c r="B254" t="s">
         <v>703</v>
       </c>
-      <c r="B254" t="s">
-        <v>701</v>
-      </c>
       <c r="C254" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B255" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B256" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>712</v>
+      </c>
+      <c r="B257" t="s">
         <v>710</v>
       </c>
-      <c r="B257" t="s">
-        <v>708</v>
-      </c>
       <c r="C257" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B258" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B259" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
+        <v>719</v>
+      </c>
+      <c r="B260" t="s">
         <v>717</v>
       </c>
-      <c r="B260" t="s">
-        <v>718</v>
-      </c>
       <c r="C260" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B261" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
+        <v>724</v>
+      </c>
+      <c r="B262" t="s">
         <v>722</v>
       </c>
-      <c r="B262" t="s">
-        <v>723</v>
-      </c>
       <c r="C262" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B263" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B264" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>730</v>
@@ -8830,62 +8857,62 @@
         <v>734</v>
       </c>
       <c r="B266" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B267" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B268" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>743</v>
+      </c>
+      <c r="B269" t="s">
         <v>741</v>
       </c>
-      <c r="B269" t="s">
-        <v>742</v>
-      </c>
       <c r="C269" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B270" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B271" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>749</v>
@@ -8896,62 +8923,62 @@
         <v>750</v>
       </c>
       <c r="B272" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B273" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B274" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>759</v>
+      </c>
+      <c r="B275" t="s">
         <v>757</v>
       </c>
-      <c r="B275" t="s">
-        <v>758</v>
-      </c>
       <c r="C275" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B276" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B277" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>765</v>
@@ -8962,106 +8989,106 @@
         <v>766</v>
       </c>
       <c r="B278" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B279" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B280" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
+        <v>775</v>
+      </c>
+      <c r="B281" t="s">
         <v>773</v>
       </c>
-      <c r="B281" t="s">
-        <v>774</v>
-      </c>
       <c r="C281" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B282" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B283" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B284" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B285" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
+        <v>788</v>
+      </c>
+      <c r="B286" t="s">
         <v>786</v>
       </c>
-      <c r="B286" t="s">
-        <v>787</v>
-      </c>
       <c r="C286" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B287" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>791</v>
@@ -9127,51 +9154,51 @@
         <v>807</v>
       </c>
       <c r="B293" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B294" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B295" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
+        <v>816</v>
+      </c>
+      <c r="B296" t="s">
         <v>814</v>
       </c>
-      <c r="B296" t="s">
-        <v>815</v>
-      </c>
       <c r="C296" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B297" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>819</v>
@@ -9182,161 +9209,161 @@
         <v>820</v>
       </c>
       <c r="B298" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B299" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B300" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
+        <v>829</v>
+      </c>
+      <c r="B301" t="s">
         <v>827</v>
       </c>
-      <c r="B301" t="s">
-        <v>828</v>
-      </c>
       <c r="C301" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B302" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B303" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B304" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B305" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>722</v>
+        <v>842</v>
       </c>
       <c r="B306" t="s">
         <v>840</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B307" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
+        <v>847</v>
+      </c>
+      <c r="B308" t="s">
         <v>845</v>
       </c>
-      <c r="B308" t="s">
-        <v>846</v>
-      </c>
       <c r="C308" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>848</v>
+        <v>731</v>
       </c>
       <c r="B309" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B310" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B311" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B312" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>858</v>
@@ -9347,40 +9374,40 @@
         <v>859</v>
       </c>
       <c r="B313" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B314" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B315" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B316" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>869</v>
@@ -9443,40 +9470,40 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>215</v>
+        <v>885</v>
       </c>
       <c r="B322" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B323" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B324" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>893</v>
+        <v>224</v>
       </c>
       <c r="B325" t="s">
         <v>894</v>
@@ -9490,40 +9517,40 @@
         <v>896</v>
       </c>
       <c r="B326" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B327" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B328" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B329" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>906</v>
@@ -9542,98 +9569,98 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>287</v>
+        <v>910</v>
       </c>
       <c r="B331" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B332" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B333" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>916</v>
+        <v>296</v>
       </c>
       <c r="B334" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
+        <v>921</v>
+      </c>
+      <c r="B335" t="s">
         <v>919</v>
       </c>
-      <c r="B335" t="s">
-        <v>920</v>
-      </c>
       <c r="C335" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B336" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B337" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B338" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B339" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>932</v>
@@ -9677,40 +9704,40 @@
         <v>942</v>
       </c>
       <c r="B343" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B344" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B345" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B346" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>952</v>
@@ -9732,62 +9759,62 @@
         <v>956</v>
       </c>
       <c r="B348" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B349" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B350" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
+        <v>965</v>
+      </c>
+      <c r="B351" t="s">
         <v>963</v>
       </c>
-      <c r="B351" t="s">
-        <v>964</v>
-      </c>
       <c r="C351" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B352" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B353" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>971</v>
@@ -9798,62 +9825,62 @@
         <v>972</v>
       </c>
       <c r="B354" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B355" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B356" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
+        <v>981</v>
+      </c>
+      <c r="B357" t="s">
         <v>979</v>
       </c>
-      <c r="B357" t="s">
-        <v>980</v>
-      </c>
       <c r="C357" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B358" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B359" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>987</v>
@@ -9908,84 +9935,84 @@
         <v>1000</v>
       </c>
       <c r="B364" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B365" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B366" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B367" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B368" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B369" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B370" t="s">
         <v>1015</v>
       </c>
-      <c r="B370" t="s">
-        <v>1016</v>
-      </c>
       <c r="C370" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B371" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>1020</v>
@@ -10007,40 +10034,40 @@
         <v>1024</v>
       </c>
       <c r="B373" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B374" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B375" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B376" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>1034</v>
@@ -10051,95 +10078,95 @@
         <v>1035</v>
       </c>
       <c r="B377" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B378" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B379" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B380" t="s">
         <v>1042</v>
       </c>
-      <c r="B380" t="s">
-        <v>1043</v>
-      </c>
       <c r="C380" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B381" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B382" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B383" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B384" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B385" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>1058</v>
@@ -10150,40 +10177,40 @@
         <v>1059</v>
       </c>
       <c r="B386" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B387" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B388" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B389" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>1069</v>
@@ -10238,40 +10265,40 @@
         <v>1082</v>
       </c>
       <c r="B394" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B395" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B396" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B397" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>1092</v>
@@ -10282,40 +10309,40 @@
         <v>1093</v>
       </c>
       <c r="B398" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B399" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B400" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B401" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>1103</v>
@@ -10326,40 +10353,40 @@
         <v>1104</v>
       </c>
       <c r="B402" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B403" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B404" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B405" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>1114</v>
@@ -10370,62 +10397,62 @@
         <v>1115</v>
       </c>
       <c r="B406" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B407" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B408" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B409" t="s">
         <v>1122</v>
       </c>
-      <c r="B409" t="s">
-        <v>1123</v>
-      </c>
       <c r="C409" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B410" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B411" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>1130</v>
@@ -10455,54 +10482,54 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>215</v>
+        <v>1137</v>
       </c>
       <c r="B414" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B415" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B416" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>1144</v>
+        <v>224</v>
       </c>
       <c r="B417" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B418" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1149</v>
@@ -10546,40 +10573,40 @@
         <v>1159</v>
       </c>
       <c r="B422" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B423" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B424" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B425" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1169</v>
@@ -10601,128 +10628,128 @@
         <v>1173</v>
       </c>
       <c r="B427" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B428" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B429" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B430" t="s">
         <v>1180</v>
       </c>
-      <c r="B430" t="s">
-        <v>1176</v>
-      </c>
       <c r="C430" s="1" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B431" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B432" t="s">
         <v>1185</v>
       </c>
-      <c r="B432" t="s">
-        <v>1183</v>
-      </c>
       <c r="C432" s="1" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B433" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B434" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B435" t="s">
         <v>1192</v>
       </c>
-      <c r="B435" t="s">
-        <v>1190</v>
-      </c>
       <c r="C435" s="1" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B436" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B437" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B438" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>1202</v>
@@ -10733,62 +10760,62 @@
         <v>1203</v>
       </c>
       <c r="B439" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B440" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B441" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B442" t="s">
         <v>1210</v>
       </c>
-      <c r="B442" t="s">
-        <v>1211</v>
-      </c>
       <c r="C442" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B443" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B444" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>1218</v>
@@ -10832,40 +10859,40 @@
         <v>1228</v>
       </c>
       <c r="B448" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B449" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B450" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B451" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>1238</v>
@@ -10876,40 +10903,40 @@
         <v>1239</v>
       </c>
       <c r="B452" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B453" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B454" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B455" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>1249</v>
@@ -10997,216 +11024,216 @@
         <v>1271</v>
       </c>
       <c r="B463" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B464" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B465" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B466" t="s">
         <v>1278</v>
       </c>
-      <c r="B466" t="s">
-        <v>1279</v>
-      </c>
       <c r="C466" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B467" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B468" t="s">
         <v>1283</v>
       </c>
-      <c r="B468" t="s">
-        <v>1279</v>
-      </c>
       <c r="C468" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B469" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B470" t="s">
         <v>1288</v>
       </c>
-      <c r="B470" t="s">
-        <v>1286</v>
-      </c>
       <c r="C470" s="1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B471" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="B472" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B473" t="s">
         <v>1295</v>
       </c>
-      <c r="B473" t="s">
-        <v>1293</v>
-      </c>
       <c r="C473" s="1" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B474" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="B475" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B476" t="s">
         <v>1302</v>
       </c>
-      <c r="B476" t="s">
-        <v>1300</v>
-      </c>
       <c r="C476" s="1" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B477" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B478" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B479" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B480" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B481" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B482" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>1320</v>
@@ -11239,40 +11266,40 @@
         <v>1327</v>
       </c>
       <c r="B485" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B486" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B487" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B488" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>1337</v>
@@ -11393,73 +11420,73 @@
         <v>1368</v>
       </c>
       <c r="B499" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B500" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B501" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B502" t="s">
         <v>1375</v>
       </c>
-      <c r="B502" t="s">
-        <v>1371</v>
-      </c>
       <c r="C502" s="1" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B503" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B504" t="s">
         <v>1380</v>
       </c>
-      <c r="B504" t="s">
-        <v>1381</v>
-      </c>
       <c r="C504" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B505" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>1385</v>
@@ -11525,51 +11552,51 @@
         <v>1401</v>
       </c>
       <c r="B511" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B512" t="s">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="B513" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B514" t="s">
         <v>1408</v>
       </c>
-      <c r="B514" t="s">
-        <v>1409</v>
-      </c>
       <c r="C514" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B515" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>1413</v>
@@ -11580,84 +11607,84 @@
         <v>1414</v>
       </c>
       <c r="B516" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B517" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B518" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B519" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B520" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B521" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B522" t="s">
         <v>1429</v>
       </c>
-      <c r="B522" t="s">
-        <v>1430</v>
-      </c>
       <c r="C522" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B523" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>1434</v>
@@ -11690,150 +11717,150 @@
         <v>1441</v>
       </c>
       <c r="B526" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B527" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B528" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B529" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B530" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="B531" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B532" t="s">
         <v>1456</v>
       </c>
-      <c r="B532" t="s">
-        <v>1457</v>
-      </c>
       <c r="C532" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>1067</v>
+        <v>1460</v>
       </c>
       <c r="B533" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B534" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="B535" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>1466</v>
+        <v>1076</v>
       </c>
       <c r="B536" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B537" t="s">
         <v>1468</v>
       </c>
-      <c r="B537" t="s">
-        <v>1469</v>
-      </c>
       <c r="C537" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B538" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B539" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>1476</v>
@@ -11863,43 +11890,43 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>215</v>
+        <v>1483</v>
       </c>
       <c r="B542" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="B543" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="B544" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" t="s">
+        <v>224</v>
+      </c>
+      <c r="B545" t="s">
         <v>1490</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1491</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>1492</v>
@@ -11921,84 +11948,84 @@
         <v>1496</v>
       </c>
       <c r="B547" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B548" t="s">
-        <v>1494</v>
+        <v>1500</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B549" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" t="s">
-        <v>773</v>
+        <v>1505</v>
       </c>
       <c r="B550" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="B551" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B552" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" t="s">
-        <v>1509</v>
+        <v>782</v>
       </c>
       <c r="B553" t="s">
         <v>1510</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B554" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>1514</v>
@@ -12009,40 +12036,40 @@
         <v>1515</v>
       </c>
       <c r="B555" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B556" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B557" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B558" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>1525</v>
@@ -12072,76 +12099,76 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" t="s">
-        <v>1067</v>
+        <v>1532</v>
       </c>
       <c r="B561" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B562" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B563" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" t="s">
-        <v>1540</v>
+        <v>1076</v>
       </c>
       <c r="B564" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B565" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B566" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="A567" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B567" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>1550</v>
@@ -12160,65 +12187,65 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569" t="s">
-        <v>235</v>
+        <v>1554</v>
       </c>
       <c r="B569" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B570" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B571" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" t="s">
-        <v>1561</v>
+        <v>244</v>
       </c>
       <c r="B572" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B573" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B574" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>1569</v>
@@ -12240,172 +12267,172 @@
         <v>1573</v>
       </c>
       <c r="B576" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B577" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B578" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B579" t="s">
         <v>1580</v>
       </c>
-      <c r="B579" t="s">
-        <v>1576</v>
-      </c>
       <c r="C579" s="1" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B580" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B581" t="s">
         <v>1585</v>
       </c>
-      <c r="B581" t="s">
-        <v>1583</v>
-      </c>
       <c r="C581" s="1" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="B582" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="B583" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B584" t="s">
         <v>1592</v>
       </c>
-      <c r="B584" t="s">
-        <v>1593</v>
-      </c>
       <c r="C584" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B585" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B586" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B587" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B588" t="s">
         <v>1602</v>
       </c>
-      <c r="B588" t="s">
-        <v>1598</v>
-      </c>
       <c r="C588" s="1" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B589" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B590" t="s">
         <v>1607</v>
       </c>
-      <c r="B590" t="s">
-        <v>1608</v>
-      </c>
       <c r="C590" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B591" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>1612</v>
@@ -12416,183 +12443,183 @@
         <v>1613</v>
       </c>
       <c r="B592" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B593" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="A594" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B594" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595" t="s">
-        <v>1610</v>
+        <v>1622</v>
       </c>
       <c r="B595" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="A596" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B596" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="597" spans="1:3">
       <c r="A597" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B597" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="598" spans="1:3">
       <c r="A598" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="B598" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="599" spans="1:3">
       <c r="A599" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B599" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="A600" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B600" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" t="s">
-        <v>1610</v>
+        <v>1637</v>
       </c>
       <c r="B601" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="B602" t="s">
         <v>1638</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="B603" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B604" t="s">
         <v>1643</v>
       </c>
-      <c r="B604" t="s">
-        <v>1641</v>
-      </c>
       <c r="C604" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B605" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="B606" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B607" t="s">
         <v>1650</v>
       </c>
-      <c r="B607" t="s">
-        <v>1651</v>
-      </c>
       <c r="C607" s="1" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B608" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>1655</v>
@@ -12603,40 +12630,40 @@
         <v>1656</v>
       </c>
       <c r="B609" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B610" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B611" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B612" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>1666</v>
@@ -12647,73 +12674,73 @@
         <v>1667</v>
       </c>
       <c r="B613" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B614" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B615" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B616" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B617" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B618" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B619" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>1685</v>
@@ -12735,95 +12762,95 @@
         <v>1689</v>
       </c>
       <c r="B621" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B622" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B623" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B624" t="s">
         <v>1696</v>
       </c>
-      <c r="B624" t="s">
-        <v>1697</v>
-      </c>
       <c r="C624" s="1" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B625" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B626" t="s">
         <v>1701</v>
       </c>
-      <c r="B626" t="s">
-        <v>1697</v>
-      </c>
       <c r="C626" s="1" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="B627" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B628" t="s">
         <v>1706</v>
       </c>
-      <c r="B628" t="s">
-        <v>1707</v>
-      </c>
       <c r="C628" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B629" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>1711</v>
@@ -12889,128 +12916,128 @@
         <v>1727</v>
       </c>
       <c r="B635" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B636" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="637" spans="1:3">
       <c r="A637" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B637" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="638" spans="1:3">
       <c r="A638" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B638" t="s">
         <v>1734</v>
       </c>
-      <c r="B638" t="s">
-        <v>1735</v>
-      </c>
       <c r="C638" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="A639" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B639" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B640" t="s">
         <v>1739</v>
       </c>
-      <c r="B640" t="s">
-        <v>1735</v>
-      </c>
       <c r="C640" s="1" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="641" spans="1:3">
       <c r="A641" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="B641" t="s">
-        <v>1735</v>
+        <v>1744</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="A642" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="B642" t="s">
         <v>1744</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B643" t="s">
         <v>1744</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="B644" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B645" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="646" spans="1:3">
       <c r="A646" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B646" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>1756</v>
@@ -13032,106 +13059,106 @@
         <v>1760</v>
       </c>
       <c r="B648" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="649" spans="1:3">
       <c r="A649" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B649" t="s">
-        <v>1758</v>
+        <v>1764</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="650" spans="1:3">
       <c r="A650" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="B650" t="s">
-        <v>1758</v>
+        <v>1767</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="651" spans="1:3">
       <c r="A651" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="B651" t="s">
         <v>1767</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="652" spans="1:3">
       <c r="A652" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="B652" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="653" spans="1:3">
       <c r="A653" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B653" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B654" t="s">
-        <v>1770</v>
+        <v>1776</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="A655" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="B655" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="A656" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B656" t="s">
         <v>1779</v>
       </c>
-      <c r="B656" t="s">
-        <v>1780</v>
-      </c>
       <c r="C656" s="1" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="A657" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B657" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>1784</v>
@@ -13153,40 +13180,40 @@
         <v>1788</v>
       </c>
       <c r="B659" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B660" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="A661" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B661" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="662" spans="1:3">
       <c r="A662" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B662" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>1798</v>
@@ -13197,106 +13224,106 @@
         <v>1799</v>
       </c>
       <c r="B663" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="664" spans="1:3">
       <c r="A664" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B664" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="A665" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B665" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="666" spans="1:3">
       <c r="A666" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B666" t="s">
         <v>1806</v>
       </c>
-      <c r="B666" t="s">
-        <v>1807</v>
-      </c>
       <c r="C666" s="1" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="667" spans="1:3">
       <c r="A667" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B667" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="668" spans="1:3">
       <c r="A668" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B668" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="669" spans="1:3">
       <c r="A669" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B669" t="s">
-        <v>1810</v>
+        <v>1816</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="670" spans="1:3">
       <c r="A670" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="B670" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="671" spans="1:3">
       <c r="A671" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B671" t="s">
         <v>1819</v>
       </c>
-      <c r="B671" t="s">
-        <v>1820</v>
-      </c>
       <c r="C671" s="1" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="672" spans="1:3">
       <c r="A672" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B672" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>1824</v>
@@ -13318,76 +13345,109 @@
         <v>1828</v>
       </c>
       <c r="B674" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="675" spans="1:3">
       <c r="A675" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B675" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="676" spans="1:3">
       <c r="A676" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B676" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="677" spans="1:3">
       <c r="A677" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B677" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="678" spans="1:3">
       <c r="A678" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B678" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="679" spans="1:3">
       <c r="A679" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B679" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="680" spans="1:3">
       <c r="A680" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B680" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>1846</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
   </sheetData>
@@ -14071,6 +14131,9 @@
     <hyperlink ref="C678" r:id="rId677"/>
     <hyperlink ref="C679" r:id="rId678"/>
     <hyperlink ref="C680" r:id="rId679"/>
+    <hyperlink ref="C681" r:id="rId680"/>
+    <hyperlink ref="C682" r:id="rId681"/>
+    <hyperlink ref="C683" r:id="rId682"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
